--- a/Doc/ExcelConfig/Datas/dota/RoundBoardChallengeConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/RoundBoardChallengeConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="179">
   <si>
     <t>##</t>
   </si>
@@ -54,6 +54,9 @@
     <t>unitname</t>
   </si>
   <si>
+    <t>star</t>
+  </si>
+  <si>
     <t>unit_weight</t>
   </si>
   <si>
@@ -84,13 +87,10 @@
     <t>hp</t>
   </si>
   <si>
-    <t>mp</t>
-  </si>
-  <si>
-    <t>armorp</t>
-  </si>
-  <si>
-    <t>armorm</t>
+    <t>phyarm</t>
+  </si>
+  <si>
+    <t>magicarm</t>
   </si>
   <si>
     <t>gold_min</t>
@@ -99,33 +99,12 @@
     <t>gold_max</t>
   </si>
   <si>
-    <t>failure_count</t>
-  </si>
-  <si>
     <t>elite_drop_index</t>
   </si>
   <si>
     <t>spawn_buff</t>
   </si>
   <si>
-    <t>gold_wave_duration</t>
-  </si>
-  <si>
-    <t>damage_per</t>
-  </si>
-  <si>
-    <t>gold_per</t>
-  </si>
-  <si>
-    <t>gold_total_x</t>
-  </si>
-  <si>
-    <t>gold_total_y</t>
-  </si>
-  <si>
-    <t>gold_total_z</t>
-  </si>
-  <si>
     <t>回合编号</t>
   </si>
   <si>
@@ -147,6 +126,9 @@
     <t>回合单位名</t>
   </si>
   <si>
+    <t>星级</t>
+  </si>
+  <si>
     <t>随机权重</t>
   </si>
   <si>
@@ -183,40 +165,16 @@
     <t>物理护甲系数</t>
   </si>
   <si>
-    <t>魔法护甲系数</t>
-  </si>
-  <si>
     <t>单个怪物击杀金币min</t>
   </si>
   <si>
     <t>单个怪物击杀金币max</t>
   </si>
   <si>
-    <t>失败统计基数</t>
-  </si>
-  <si>
     <t>精英怪掉落池编号</t>
   </si>
   <si>
     <t>单位自带buff</t>
-  </si>
-  <si>
-    <t>打金箱子存活多久</t>
-  </si>
-  <si>
-    <t>打金-每多少伤害给金币</t>
-  </si>
-  <si>
-    <t>打金-每次给金币</t>
-  </si>
-  <si>
-    <t>打金系数x</t>
-  </si>
-  <si>
-    <t>打金系数y</t>
-  </si>
-  <si>
-    <t>打金系数z</t>
   </si>
   <si>
     <t>n1_gold</t>
@@ -1243,7 +1201,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1265,9 +1223,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1276,6 +1231,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1625,10 +1589,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF116"/>
+  <dimension ref="A1:Y116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:H59"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14"/>
@@ -1640,28 +1604,24 @@
     <col min="6" max="6" width="9.54545454545454" style="3" customWidth="1"/>
     <col min="7" max="7" width="18" style="3" customWidth="1"/>
     <col min="8" max="8" width="37.6363636363636" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.2727272727273" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.3636363636364" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.7272727272727" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.72727272727273" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.0909090909091" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.45454545454546" style="3" customWidth="1"/>
-    <col min="15" max="17" width="12.6363636363636" style="3" customWidth="1"/>
-    <col min="18" max="18" width="16.3636363636364" style="3" customWidth="1"/>
-    <col min="19" max="21" width="13.9090909090909" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.6363636363636" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.2727272727273" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.3636363636364" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.7272727272727" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.72727272727273" style="3" customWidth="1"/>
+    <col min="14" max="14" width="10.0909090909091" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.45454545454546" style="3" customWidth="1"/>
+    <col min="16" max="18" width="12.6363636363636" style="3" customWidth="1"/>
+    <col min="19" max="19" width="16.3636363636364" style="3" customWidth="1"/>
+    <col min="20" max="21" width="13.9090909090909" style="3" customWidth="1"/>
     <col min="22" max="22" width="22" style="3" customWidth="1"/>
     <col min="23" max="23" width="22.4545454545455" style="3" customWidth="1"/>
-    <col min="24" max="24" width="15.8181818181818" style="3" customWidth="1"/>
-    <col min="25" max="25" width="18.3636363636364" style="3" customWidth="1"/>
-    <col min="26" max="26" width="13.1818181818182" style="3" customWidth="1"/>
-    <col min="27" max="27" width="19.7272727272727" style="3" customWidth="1"/>
-    <col min="28" max="28" width="23.9090909090909" style="3" customWidth="1"/>
-    <col min="29" max="29" width="17.2727272727273" style="3" customWidth="1"/>
-    <col min="30" max="32" width="12.1818181818182" style="3" customWidth="1"/>
-    <col min="33" max="16384" width="9.81818181818182" style="3"/>
+    <col min="24" max="24" width="18.3636363636364" style="3" customWidth="1"/>
+    <col min="25" max="25" width="13.1818181818182" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="9.81818181818182" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:32">
+    <row r="1" s="1" customFormat="1" spans="1:25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1698,15 +1658,8 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-    </row>
-    <row r="2" spans="1:32">
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -1743,15 +1696,8 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:32">
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:25">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -1762,43 +1708,43 @@
       <c r="H3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="14" t="s">
         <v>24</v>
       </c>
       <c r="V3" s="5" t="s">
@@ -1813,166 +1759,124 @@
       <c r="Y3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Z3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="D4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="E4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="F4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="G4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="H4" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:32">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="J4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="K4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="L4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="M4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="N4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="O4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="P4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="R4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="S4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="T4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="U4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="V4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="W4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="X4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="Y4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="8" t="s">
+    </row>
+    <row r="5" s="3" customFormat="1" spans="2:25">
+      <c r="B5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="E5" s="8">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="H5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="X4" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z4" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC4" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF4" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="2:32">
-      <c r="B5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="8">
-        <v>10</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>71</v>
-      </c>
       <c r="I5" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J5" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K5" s="8">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8">
         <v>9</v>
       </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
       <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
         <v>180</v>
       </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="8">
-        <v>1</v>
+      <c r="O5" s="1">
+        <v>0</v>
       </c>
       <c r="P5" s="8">
         <v>1</v>
@@ -2001,49 +1905,40 @@
       <c r="X5" s="8">
         <v>1</v>
       </c>
-      <c r="Y5" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="2:32">
+      <c r="Y5" s="8"/>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="2:25">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>73</v>
+      <c r="G6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="I6" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J6" s="8">
+        <v>10</v>
+      </c>
+      <c r="K6" s="8">
         <v>2</v>
       </c>
-      <c r="K6" s="8">
+      <c r="L6" s="8">
         <v>8</v>
       </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
       <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
         <v>180</v>
       </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="8">
-        <v>1</v>
+      <c r="O6" s="1">
+        <v>0</v>
       </c>
       <c r="P6" s="8">
         <v>1</v>
@@ -2070,51 +1965,42 @@
         <v>22.5</v>
       </c>
       <c r="X6" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="8">
         <v>2</v>
       </c>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="2:32">
+      <c r="Y6" s="8"/>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="2:25">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>75</v>
+      <c r="G7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="I7" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J7" s="8">
+        <v>10</v>
+      </c>
+      <c r="K7" s="8">
         <v>3</v>
       </c>
-      <c r="K7" s="8">
+      <c r="L7" s="8">
         <v>7</v>
       </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
       <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
         <v>180</v>
       </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
-        <v>1</v>
+      <c r="O7" s="1">
+        <v>0</v>
       </c>
       <c r="P7" s="8">
         <v>1</v>
@@ -2143,49 +2029,40 @@
       <c r="X7" s="8">
         <v>1</v>
       </c>
-      <c r="Y7" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="2:32">
+      <c r="Y7" s="8"/>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="2:25">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>77</v>
+      <c r="G8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="I8" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J8" s="8">
+        <v>10</v>
+      </c>
+      <c r="K8" s="8">
         <v>4</v>
       </c>
-      <c r="K8" s="8">
+      <c r="L8" s="8">
         <v>8</v>
       </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
       <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
         <v>180</v>
       </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8">
-        <v>1</v>
+      <c r="O8" s="1">
+        <v>0</v>
       </c>
       <c r="P8" s="8">
         <v>1</v>
@@ -2212,63 +2089,54 @@
         <v>22.5</v>
       </c>
       <c r="X8" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="8">
         <v>2</v>
       </c>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="2:32">
+      <c r="Y8" s="8"/>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="2:25">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>79</v>
+      <c r="G9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="I9" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J9" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K9" s="8">
+        <v>5</v>
+      </c>
+      <c r="L9" s="8">
         <v>9</v>
       </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
       <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
         <v>180</v>
       </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="8">
-        <v>1</v>
+      <c r="O9" s="1">
+        <v>0</v>
       </c>
       <c r="P9" s="8">
         <v>1</v>
       </c>
       <c r="Q9" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R9" s="8">
         <v>5</v>
       </c>
       <c r="S9" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T9" s="8">
         <v>1</v>
@@ -2283,152 +2151,122 @@
         <v>206.25</v>
       </c>
       <c r="X9" s="8">
-        <v>5</v>
-      </c>
-      <c r="Y9" s="8">
         <v>3</v>
       </c>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="2:32">
+      <c r="Y9" s="8"/>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="2:25">
       <c r="B10" s="8"/>
-      <c r="C10" s="11"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" s="11">
-        <v>10</v>
-      </c>
-      <c r="J10" s="11">
+      <c r="F10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10">
+        <v>10</v>
+      </c>
+      <c r="K10" s="10">
         <v>3</v>
       </c>
-      <c r="K10" s="11">
+      <c r="L10" s="10">
         <v>6</v>
       </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
       <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
         <v>180</v>
       </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="11">
-        <v>1</v>
-      </c>
-      <c r="P10" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>5</v>
-      </c>
-      <c r="R10" s="11">
-        <v>5</v>
-      </c>
-      <c r="S10" s="11">
-        <v>1</v>
-      </c>
-      <c r="T10" s="11">
-        <v>1</v>
-      </c>
-      <c r="U10" s="11">
-        <v>1</v>
-      </c>
-      <c r="V10" s="11">
-        <v>10</v>
-      </c>
-      <c r="W10" s="11">
-        <v>10</v>
-      </c>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11">
-        <v>30</v>
-      </c>
-      <c r="AB10" s="11">
-        <v>50000</v>
-      </c>
-      <c r="AC10" s="11">
-        <v>5</v>
-      </c>
-      <c r="AD10" s="11">
-        <v>1.2</v>
-      </c>
-      <c r="AE10" s="11">
-        <v>100</v>
-      </c>
-      <c r="AF10" s="11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="2:32">
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>1</v>
+      </c>
+      <c r="R10" s="10">
+        <v>5</v>
+      </c>
+      <c r="S10" s="10">
+        <v>5</v>
+      </c>
+      <c r="T10" s="10">
+        <v>1</v>
+      </c>
+      <c r="U10" s="10">
+        <v>1</v>
+      </c>
+      <c r="V10" s="10">
+        <v>10</v>
+      </c>
+      <c r="W10" s="10">
+        <v>10</v>
+      </c>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="2:25">
       <c r="B11" s="8" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E11" s="8">
         <v>4</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>85</v>
+      <c r="G11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="I11" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J11" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K11" s="8">
+        <v>1</v>
+      </c>
+      <c r="L11" s="8">
         <v>9</v>
       </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
       <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
         <v>180</v>
       </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="8">
-        <v>1</v>
+      <c r="O11" s="1">
+        <v>0</v>
       </c>
       <c r="P11" s="8">
         <v>1</v>
       </c>
       <c r="Q11" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R11" s="8">
         <v>2</v>
       </c>
       <c r="S11" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11" s="8">
         <v>1</v>
@@ -2445,61 +2283,52 @@
       <c r="X11" s="8">
         <v>1</v>
       </c>
-      <c r="Y11" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="2:32">
+      <c r="Y11" s="8"/>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="2:25">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>87</v>
+      <c r="G12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="I12" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J12" s="8">
+        <v>10</v>
+      </c>
+      <c r="K12" s="8">
         <v>2</v>
       </c>
-      <c r="K12" s="8">
+      <c r="L12" s="8">
         <v>8</v>
       </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
       <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
         <v>180</v>
       </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="8">
-        <v>1</v>
+      <c r="O12" s="1">
+        <v>0</v>
       </c>
       <c r="P12" s="8">
         <v>1</v>
       </c>
       <c r="Q12" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R12" s="8">
         <v>3</v>
       </c>
       <c r="S12" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T12" s="8">
         <v>1</v>
@@ -2514,63 +2343,54 @@
         <v>45</v>
       </c>
       <c r="X12" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="8">
         <v>2</v>
       </c>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="2:32">
+      <c r="Y12" s="8"/>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="2:25">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>89</v>
+      <c r="G13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="I13" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J13" s="8">
+        <v>10</v>
+      </c>
+      <c r="K13" s="8">
         <v>3</v>
       </c>
-      <c r="K13" s="8">
+      <c r="L13" s="8">
         <v>7</v>
       </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
       <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
         <v>180</v>
       </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="8">
-        <v>1</v>
+      <c r="O13" s="1">
+        <v>0</v>
       </c>
       <c r="P13" s="8">
         <v>1</v>
       </c>
       <c r="Q13" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R13" s="8">
         <v>5</v>
       </c>
       <c r="S13" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T13" s="8">
         <v>1</v>
@@ -2585,63 +2405,54 @@
         <v>48.75</v>
       </c>
       <c r="X13" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="8">
         <v>4</v>
       </c>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="2:32">
+      <c r="Y13" s="8"/>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="2:25">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>91</v>
+      <c r="G14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="I14" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J14" s="8">
+        <v>10</v>
+      </c>
+      <c r="K14" s="8">
         <v>4</v>
       </c>
-      <c r="K14" s="8">
+      <c r="L14" s="8">
         <v>8</v>
       </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
       <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
         <v>180</v>
       </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="8">
-        <v>1</v>
+      <c r="O14" s="1">
+        <v>0</v>
       </c>
       <c r="P14" s="8">
         <v>1</v>
       </c>
       <c r="Q14" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R14" s="8">
         <v>7</v>
       </c>
       <c r="S14" s="8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T14" s="8">
         <v>1</v>
@@ -2656,63 +2467,54 @@
         <v>78.75</v>
       </c>
       <c r="X14" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="8">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="2:32">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="8"/>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="2:25">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>93</v>
+      <c r="G15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="I15" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J15" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K15" s="8">
+        <v>5</v>
+      </c>
+      <c r="L15" s="8">
         <v>9</v>
       </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
       <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
         <v>180</v>
       </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="8">
-        <v>1</v>
+      <c r="O15" s="1">
+        <v>0</v>
       </c>
       <c r="P15" s="8">
         <v>1</v>
       </c>
       <c r="Q15" s="8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R15" s="8">
         <v>9</v>
       </c>
       <c r="S15" s="8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="T15" s="8">
         <v>1</v>
@@ -2727,152 +2529,122 @@
         <v>453.75</v>
       </c>
       <c r="X15" s="8">
-        <v>5</v>
-      </c>
-      <c r="Y15" s="8">
         <v>3</v>
       </c>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="2:32">
+      <c r="Y15" s="8"/>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="2:25">
       <c r="B16" s="8"/>
-      <c r="C16" s="11"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16" s="11">
-        <v>10</v>
-      </c>
-      <c r="J16" s="11">
+      <c r="H16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10">
+        <v>10</v>
+      </c>
+      <c r="K16" s="10">
         <v>3</v>
       </c>
-      <c r="K16" s="11">
+      <c r="L16" s="10">
         <v>6</v>
       </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
       <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
         <v>180</v>
       </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="11">
-        <v>1</v>
-      </c>
-      <c r="P16" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="11">
-        <v>5</v>
-      </c>
-      <c r="R16" s="11">
-        <v>5</v>
-      </c>
-      <c r="S16" s="11">
-        <v>1</v>
-      </c>
-      <c r="T16" s="11">
-        <v>1</v>
-      </c>
-      <c r="U16" s="11">
-        <v>1</v>
-      </c>
-      <c r="V16" s="11">
-        <v>10</v>
-      </c>
-      <c r="W16" s="11">
-        <v>10</v>
-      </c>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11">
-        <v>25</v>
-      </c>
-      <c r="AB16" s="11">
-        <v>500000</v>
-      </c>
-      <c r="AC16" s="11">
-        <v>10</v>
-      </c>
-      <c r="AD16" s="11">
-        <v>1.4</v>
-      </c>
-      <c r="AE16" s="11">
-        <v>10000</v>
-      </c>
-      <c r="AF16" s="11">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="2:32">
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>1</v>
+      </c>
+      <c r="R16" s="10">
+        <v>5</v>
+      </c>
+      <c r="S16" s="10">
+        <v>5</v>
+      </c>
+      <c r="T16" s="10">
+        <v>1</v>
+      </c>
+      <c r="U16" s="10">
+        <v>1</v>
+      </c>
+      <c r="V16" s="10">
+        <v>10</v>
+      </c>
+      <c r="W16" s="10">
+        <v>10</v>
+      </c>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="2:25">
       <c r="B17" s="8" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E17" s="8">
         <v>2</v>
       </c>
       <c r="F17" s="8"/>
-      <c r="G17" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>98</v>
+      <c r="G17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="I17" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J17" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K17" s="8">
+        <v>1</v>
+      </c>
+      <c r="L17" s="8">
         <v>9</v>
       </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
       <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
         <v>180</v>
       </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="8">
-        <v>1</v>
+      <c r="O17" s="1">
+        <v>0</v>
       </c>
       <c r="P17" s="8">
         <v>1</v>
       </c>
       <c r="Q17" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R17" s="8">
         <v>3</v>
       </c>
       <c r="S17" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T17" s="8">
         <v>1</v>
@@ -2889,61 +2661,52 @@
       <c r="X17" s="8">
         <v>1</v>
       </c>
-      <c r="Y17" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="2:32">
+      <c r="Y17" s="8"/>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="2:25">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>100</v>
+      <c r="G18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="I18" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J18" s="8">
+        <v>10</v>
+      </c>
+      <c r="K18" s="8">
         <v>2</v>
       </c>
-      <c r="K18" s="8">
+      <c r="L18" s="8">
         <v>8</v>
       </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
       <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
         <v>180</v>
       </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-      <c r="O18" s="8">
-        <v>1</v>
+      <c r="O18" s="1">
+        <v>0</v>
       </c>
       <c r="P18" s="8">
         <v>1</v>
       </c>
       <c r="Q18" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R18" s="8">
         <v>3</v>
       </c>
       <c r="S18" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T18" s="8">
         <v>1</v>
@@ -2958,63 +2721,54 @@
         <v>65</v>
       </c>
       <c r="X18" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="8">
-        <v>5</v>
-      </c>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8"/>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="2:32">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="8"/>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="2:25">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>102</v>
+      <c r="G19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="I19" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J19" s="8">
+        <v>10</v>
+      </c>
+      <c r="K19" s="8">
         <v>3</v>
       </c>
-      <c r="K19" s="8">
+      <c r="L19" s="8">
         <v>7</v>
       </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
       <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
         <v>180</v>
       </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-      <c r="O19" s="8">
-        <v>1</v>
+      <c r="O19" s="1">
+        <v>0</v>
       </c>
       <c r="P19" s="8">
         <v>1</v>
       </c>
       <c r="Q19" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R19" s="8">
         <v>4</v>
       </c>
       <c r="S19" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T19" s="8">
         <v>1</v>
@@ -3029,63 +2783,54 @@
         <v>68.75</v>
       </c>
       <c r="X19" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="8">
         <v>4</v>
       </c>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
-    </row>
-    <row r="20" s="3" customFormat="1" spans="2:32">
+      <c r="Y19" s="8"/>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="2:25">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>104</v>
+      <c r="G20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="I20" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J20" s="8">
+        <v>10</v>
+      </c>
+      <c r="K20" s="8">
         <v>4</v>
       </c>
-      <c r="K20" s="8">
+      <c r="L20" s="8">
         <v>8</v>
       </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
       <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
         <v>180</v>
       </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-      <c r="O20" s="8">
-        <v>1</v>
+      <c r="O20" s="1">
+        <v>0</v>
       </c>
       <c r="P20" s="8">
         <v>1</v>
       </c>
       <c r="Q20" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R20" s="8">
         <v>5</v>
       </c>
       <c r="S20" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T20" s="8">
         <v>1</v>
@@ -3100,63 +2845,54 @@
         <v>98.75</v>
       </c>
       <c r="X20" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="8">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="2:32">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="8"/>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="2:25">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>106</v>
+      <c r="G21" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="I21" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J21" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K21" s="8">
+        <v>5</v>
+      </c>
+      <c r="L21" s="8">
         <v>9</v>
       </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
       <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
         <v>180</v>
       </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
-      <c r="O21" s="8">
-        <v>1</v>
+      <c r="O21" s="1">
+        <v>0</v>
       </c>
       <c r="P21" s="8">
         <v>1</v>
       </c>
       <c r="Q21" s="8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R21" s="8">
         <v>9</v>
       </c>
       <c r="S21" s="8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="T21" s="8">
         <v>1</v>
@@ -3171,154 +2907,124 @@
         <v>420</v>
       </c>
       <c r="X21" s="8">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="8">
         <v>6</v>
       </c>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-    </row>
-    <row r="22" s="3" customFormat="1" spans="2:32">
+      <c r="Y21" s="8"/>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="2:25">
       <c r="B22" s="8"/>
-      <c r="C22" s="11"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="I22" s="11">
-        <v>10</v>
-      </c>
-      <c r="J22" s="11">
+      <c r="F22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="10">
+        <v>1</v>
+      </c>
+      <c r="J22" s="10">
+        <v>10</v>
+      </c>
+      <c r="K22" s="10">
         <v>3</v>
       </c>
-      <c r="K22" s="11">
+      <c r="L22" s="10">
         <v>6</v>
       </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
       <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
         <v>180</v>
       </c>
-      <c r="N22" s="1">
-        <v>0</v>
-      </c>
-      <c r="O22" s="11">
-        <v>1</v>
-      </c>
-      <c r="P22" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="11">
-        <v>10</v>
-      </c>
-      <c r="R22" s="11">
-        <v>10</v>
-      </c>
-      <c r="S22" s="11">
-        <v>1</v>
-      </c>
-      <c r="T22" s="11">
-        <v>1</v>
-      </c>
-      <c r="U22" s="11">
-        <v>1</v>
-      </c>
-      <c r="V22" s="11">
-        <v>10</v>
-      </c>
-      <c r="W22" s="11">
-        <v>10</v>
-      </c>
-      <c r="X22" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11">
-        <v>30</v>
-      </c>
-      <c r="AB22" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="AC22" s="11">
-        <v>20</v>
-      </c>
-      <c r="AD22" s="11">
-        <v>1.4</v>
-      </c>
-      <c r="AE22" s="11">
-        <v>10000</v>
-      </c>
-      <c r="AF22" s="11">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="23" s="3" customFormat="1" spans="2:32">
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>1</v>
+      </c>
+      <c r="R22" s="10">
+        <v>10</v>
+      </c>
+      <c r="S22" s="10">
+        <v>10</v>
+      </c>
+      <c r="T22" s="10">
+        <v>1</v>
+      </c>
+      <c r="U22" s="10">
+        <v>1</v>
+      </c>
+      <c r="V22" s="10">
+        <v>10</v>
+      </c>
+      <c r="W22" s="10">
+        <v>10</v>
+      </c>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="2:25">
       <c r="B23" s="8" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E23" s="8">
         <v>1</v>
       </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>111</v>
+      <c r="G23" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="I23" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J23" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K23" s="8">
+        <v>1</v>
+      </c>
+      <c r="L23" s="8">
         <v>9</v>
       </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
       <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
         <v>180</v>
       </c>
-      <c r="N23" s="1">
-        <v>0</v>
-      </c>
-      <c r="O23" s="8">
-        <v>1</v>
+      <c r="O23" s="1">
+        <v>0</v>
       </c>
       <c r="P23" s="8">
         <v>1</v>
       </c>
       <c r="Q23" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R23" s="8">
         <v>5</v>
       </c>
       <c r="S23" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T23" s="8">
         <v>1</v>
@@ -3333,63 +3039,54 @@
         <v>108.75</v>
       </c>
       <c r="X23" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="8">
         <v>2</v>
       </c>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-    </row>
-    <row r="24" s="3" customFormat="1" spans="2:32">
+      <c r="Y23" s="8"/>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="2:25">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>113</v>
+      <c r="G24" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="I24" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J24" s="8">
+        <v>10</v>
+      </c>
+      <c r="K24" s="8">
         <v>2</v>
       </c>
-      <c r="K24" s="8">
+      <c r="L24" s="8">
         <v>8</v>
       </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
       <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
         <v>180</v>
       </c>
-      <c r="N24" s="1">
-        <v>0</v>
-      </c>
-      <c r="O24" s="8">
-        <v>1</v>
+      <c r="O24" s="1">
+        <v>0</v>
       </c>
       <c r="P24" s="8">
         <v>1</v>
       </c>
       <c r="Q24" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R24" s="8">
         <v>5</v>
       </c>
       <c r="S24" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T24" s="8">
         <v>1</v>
@@ -3404,63 +3101,54 @@
         <v>108.75</v>
       </c>
       <c r="X24" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="8">
         <v>4</v>
       </c>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-    </row>
-    <row r="25" s="3" customFormat="1" spans="2:32">
+      <c r="Y24" s="8"/>
+    </row>
+    <row r="25" s="3" customFormat="1" spans="2:25">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>115</v>
+      <c r="G25" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="I25" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J25" s="8">
+        <v>10</v>
+      </c>
+      <c r="K25" s="8">
         <v>3</v>
       </c>
-      <c r="K25" s="8">
+      <c r="L25" s="8">
         <v>7</v>
       </c>
-      <c r="L25" s="1">
-        <v>0</v>
-      </c>
       <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
         <v>180</v>
       </c>
-      <c r="N25" s="1">
-        <v>0</v>
-      </c>
-      <c r="O25" s="8">
-        <v>1</v>
+      <c r="O25" s="1">
+        <v>0</v>
       </c>
       <c r="P25" s="8">
         <v>1</v>
       </c>
       <c r="Q25" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R25" s="8">
         <v>5</v>
       </c>
       <c r="S25" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T25" s="8">
         <v>1</v>
@@ -3475,63 +3163,54 @@
         <v>116.25</v>
       </c>
       <c r="X25" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="8">
-        <v>5</v>
-      </c>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
-    </row>
-    <row r="26" s="3" customFormat="1" spans="2:32">
+        <v>5</v>
+      </c>
+      <c r="Y25" s="8"/>
+    </row>
+    <row r="26" s="3" customFormat="1" spans="2:25">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>117</v>
+      <c r="G26" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="I26" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J26" s="8">
+        <v>10</v>
+      </c>
+      <c r="K26" s="8">
         <v>4</v>
       </c>
-      <c r="K26" s="8">
+      <c r="L26" s="8">
         <v>8</v>
       </c>
-      <c r="L26" s="1">
-        <v>0</v>
-      </c>
       <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
         <v>180</v>
       </c>
-      <c r="N26" s="1">
-        <v>0</v>
-      </c>
-      <c r="O26" s="8">
-        <v>1</v>
+      <c r="O26" s="1">
+        <v>0</v>
       </c>
       <c r="P26" s="8">
         <v>1</v>
       </c>
       <c r="Q26" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R26" s="8">
         <v>5</v>
       </c>
       <c r="S26" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T26" s="8">
         <v>1</v>
@@ -3546,63 +3225,54 @@
         <v>63.75</v>
       </c>
       <c r="X26" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="8">
         <v>4</v>
       </c>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="8"/>
-      <c r="AD26" s="8"/>
-      <c r="AE26" s="8"/>
-      <c r="AF26" s="8"/>
-    </row>
-    <row r="27" s="3" customFormat="1" spans="2:32">
+      <c r="Y26" s="8"/>
+    </row>
+    <row r="27" s="3" customFormat="1" spans="2:25">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>119</v>
+      <c r="G27" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="I27" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J27" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K27" s="8">
+        <v>5</v>
+      </c>
+      <c r="L27" s="8">
         <v>9</v>
       </c>
-      <c r="L27" s="1">
-        <v>0</v>
-      </c>
       <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
         <v>180</v>
       </c>
-      <c r="N27" s="1">
-        <v>0</v>
-      </c>
-      <c r="O27" s="8">
-        <v>1</v>
+      <c r="O27" s="1">
+        <v>0</v>
       </c>
       <c r="P27" s="8">
         <v>1</v>
       </c>
       <c r="Q27" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R27" s="8">
         <v>10</v>
       </c>
       <c r="S27" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T27" s="8">
         <v>1</v>
@@ -3617,154 +3287,124 @@
         <v>543.75</v>
       </c>
       <c r="X27" s="8">
-        <v>5</v>
-      </c>
-      <c r="Y27" s="8">
         <v>6</v>
       </c>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="8"/>
-    </row>
-    <row r="28" s="3" customFormat="1" spans="2:32">
+      <c r="Y27" s="8"/>
+    </row>
+    <row r="28" s="3" customFormat="1" spans="2:25">
       <c r="B28" s="8"/>
-      <c r="C28" s="11"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="I28" s="11">
-        <v>10</v>
-      </c>
-      <c r="J28" s="11">
+      <c r="F28" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" s="10">
+        <v>1</v>
+      </c>
+      <c r="J28" s="10">
+        <v>10</v>
+      </c>
+      <c r="K28" s="10">
         <v>3</v>
       </c>
-      <c r="K28" s="11">
+      <c r="L28" s="10">
         <v>6</v>
       </c>
-      <c r="L28" s="1">
-        <v>0</v>
-      </c>
       <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
         <v>180</v>
       </c>
-      <c r="N28" s="1">
-        <v>0</v>
-      </c>
-      <c r="O28" s="11">
-        <v>1</v>
-      </c>
-      <c r="P28" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="11">
-        <v>10</v>
-      </c>
-      <c r="R28" s="11">
-        <v>10</v>
-      </c>
-      <c r="S28" s="11">
-        <v>1</v>
-      </c>
-      <c r="T28" s="11">
-        <v>1</v>
-      </c>
-      <c r="U28" s="11">
-        <v>1</v>
-      </c>
-      <c r="V28" s="11">
-        <v>10</v>
-      </c>
-      <c r="W28" s="11">
-        <v>10</v>
-      </c>
-      <c r="X28" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11">
-        <v>25</v>
-      </c>
-      <c r="AB28" s="11">
-        <v>10000000</v>
-      </c>
-      <c r="AC28" s="11">
-        <v>200</v>
-      </c>
-      <c r="AD28" s="11">
-        <v>1.4</v>
-      </c>
-      <c r="AE28" s="11">
-        <v>10000</v>
-      </c>
-      <c r="AF28" s="11">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="29" s="3" customFormat="1" spans="2:32">
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>1</v>
+      </c>
+      <c r="R28" s="10">
+        <v>10</v>
+      </c>
+      <c r="S28" s="10">
+        <v>10</v>
+      </c>
+      <c r="T28" s="10">
+        <v>1</v>
+      </c>
+      <c r="U28" s="10">
+        <v>1</v>
+      </c>
+      <c r="V28" s="10">
+        <v>10</v>
+      </c>
+      <c r="W28" s="10">
+        <v>10</v>
+      </c>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+    </row>
+    <row r="29" s="3" customFormat="1" spans="2:25">
       <c r="B29" s="8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E29" s="8">
         <v>10</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>125</v>
+      <c r="G29" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="I29" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J29" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K29" s="8">
+        <v>1</v>
+      </c>
+      <c r="L29" s="8">
         <v>9</v>
       </c>
-      <c r="L29" s="1">
-        <v>0</v>
-      </c>
       <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
         <v>180</v>
       </c>
-      <c r="N29" s="1">
-        <v>0</v>
-      </c>
-      <c r="O29" s="8">
-        <v>1</v>
+      <c r="O29" s="1">
+        <v>0</v>
       </c>
       <c r="P29" s="8">
         <v>1</v>
       </c>
       <c r="Q29" s="8">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="R29" s="8">
         <v>5.5</v>
       </c>
       <c r="S29" s="8">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="T29" s="8">
         <v>1</v>
@@ -3779,63 +3419,54 @@
         <v>140</v>
       </c>
       <c r="X29" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="8">
         <v>4</v>
       </c>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="8"/>
-      <c r="AC29" s="8"/>
-      <c r="AD29" s="8"/>
-      <c r="AE29" s="8"/>
-      <c r="AF29" s="8"/>
-    </row>
-    <row r="30" s="3" customFormat="1" spans="2:32">
+      <c r="Y29" s="8"/>
+    </row>
+    <row r="30" s="3" customFormat="1" spans="2:25">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>127</v>
+      <c r="G30" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="I30" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J30" s="8">
+        <v>10</v>
+      </c>
+      <c r="K30" s="8">
         <v>2</v>
       </c>
-      <c r="K30" s="8">
+      <c r="L30" s="8">
         <v>8</v>
       </c>
-      <c r="L30" s="1">
-        <v>0</v>
-      </c>
       <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
         <v>180</v>
       </c>
-      <c r="N30" s="1">
-        <v>0</v>
-      </c>
-      <c r="O30" s="8">
-        <v>1</v>
+      <c r="O30" s="1">
+        <v>0</v>
       </c>
       <c r="P30" s="8">
         <v>1</v>
       </c>
       <c r="Q30" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R30" s="8">
         <v>6</v>
       </c>
       <c r="S30" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T30" s="8">
         <v>1</v>
@@ -3850,63 +3481,54 @@
         <v>140</v>
       </c>
       <c r="X30" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y30" s="8">
-        <v>5</v>
-      </c>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
-      <c r="AC30" s="8"/>
-      <c r="AD30" s="8"/>
-      <c r="AE30" s="8"/>
-      <c r="AF30" s="8"/>
-    </row>
-    <row r="31" s="3" customFormat="1" spans="2:32">
+        <v>5</v>
+      </c>
+      <c r="Y30" s="8"/>
+    </row>
+    <row r="31" s="3" customFormat="1" spans="2:25">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>129</v>
+      <c r="G31" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="I31" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J31" s="8">
+        <v>10</v>
+      </c>
+      <c r="K31" s="8">
         <v>3</v>
       </c>
-      <c r="K31" s="8">
+      <c r="L31" s="8">
         <v>7</v>
       </c>
-      <c r="L31" s="1">
-        <v>0</v>
-      </c>
       <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
         <v>180</v>
       </c>
-      <c r="N31" s="1">
-        <v>0</v>
-      </c>
-      <c r="O31" s="8">
-        <v>1</v>
+      <c r="O31" s="1">
+        <v>0</v>
       </c>
       <c r="P31" s="8">
         <v>1</v>
       </c>
       <c r="Q31" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R31" s="8">
         <v>6</v>
       </c>
       <c r="S31" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T31" s="8">
         <v>1</v>
@@ -3921,63 +3543,54 @@
         <v>140</v>
       </c>
       <c r="X31" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="8">
         <v>7</v>
       </c>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="8"/>
-      <c r="AC31" s="8"/>
-      <c r="AD31" s="8"/>
-      <c r="AE31" s="8"/>
-      <c r="AF31" s="8"/>
-    </row>
-    <row r="32" s="3" customFormat="1" spans="2:32">
+      <c r="Y31" s="8"/>
+    </row>
+    <row r="32" s="3" customFormat="1" spans="2:25">
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>131</v>
+      <c r="G32" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="I32" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J32" s="8">
+        <v>10</v>
+      </c>
+      <c r="K32" s="8">
         <v>4</v>
       </c>
-      <c r="K32" s="8">
+      <c r="L32" s="8">
         <v>8</v>
       </c>
-      <c r="L32" s="1">
-        <v>0</v>
-      </c>
       <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
         <v>180</v>
       </c>
-      <c r="N32" s="1">
-        <v>0</v>
-      </c>
-      <c r="O32" s="8">
-        <v>1</v>
+      <c r="O32" s="1">
+        <v>0</v>
       </c>
       <c r="P32" s="8">
         <v>1</v>
       </c>
       <c r="Q32" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R32" s="8">
         <v>6</v>
       </c>
       <c r="S32" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T32" s="8">
         <v>1</v>
@@ -3992,63 +3605,54 @@
         <v>140</v>
       </c>
       <c r="X32" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="8">
         <v>8</v>
       </c>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="8"/>
-      <c r="AD32" s="8"/>
-      <c r="AE32" s="8"/>
-      <c r="AF32" s="8"/>
-    </row>
-    <row r="33" s="3" customFormat="1" spans="2:32">
+      <c r="Y32" s="8"/>
+    </row>
+    <row r="33" s="3" customFormat="1" spans="2:25">
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>133</v>
+      <c r="G33" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="I33" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J33" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K33" s="8">
+        <v>5</v>
+      </c>
+      <c r="L33" s="8">
         <v>9</v>
       </c>
-      <c r="L33" s="1">
-        <v>0</v>
-      </c>
       <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
         <v>180</v>
       </c>
-      <c r="N33" s="1">
-        <v>0</v>
-      </c>
-      <c r="O33" s="8">
-        <v>1</v>
+      <c r="O33" s="1">
+        <v>0</v>
       </c>
       <c r="P33" s="8">
         <v>1</v>
       </c>
       <c r="Q33" s="8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R33" s="8">
         <v>12</v>
       </c>
       <c r="S33" s="8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T33" s="8">
         <v>1</v>
@@ -4063,154 +3667,124 @@
         <v>900</v>
       </c>
       <c r="X33" s="8">
-        <v>5</v>
-      </c>
-      <c r="Y33" s="8">
         <v>9</v>
       </c>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="8"/>
-      <c r="AD33" s="8"/>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="8"/>
-    </row>
-    <row r="34" s="3" customFormat="1" spans="2:32">
+      <c r="Y33" s="8"/>
+    </row>
+    <row r="34" s="3" customFormat="1" spans="2:25">
       <c r="B34" s="8"/>
-      <c r="C34" s="11"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="I34" s="11">
-        <v>10</v>
-      </c>
-      <c r="J34" s="11">
+      <c r="F34" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="I34" s="10">
+        <v>1</v>
+      </c>
+      <c r="J34" s="10">
+        <v>10</v>
+      </c>
+      <c r="K34" s="10">
         <v>3</v>
       </c>
-      <c r="K34" s="11">
+      <c r="L34" s="10">
         <v>6</v>
       </c>
-      <c r="L34" s="1">
-        <v>0</v>
-      </c>
       <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
         <v>180</v>
       </c>
-      <c r="N34" s="1">
-        <v>0</v>
-      </c>
-      <c r="O34" s="11">
-        <v>1</v>
-      </c>
-      <c r="P34" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="11">
-        <v>10</v>
-      </c>
-      <c r="R34" s="11">
-        <v>10</v>
-      </c>
-      <c r="S34" s="11">
-        <v>1</v>
-      </c>
-      <c r="T34" s="11">
-        <v>1</v>
-      </c>
-      <c r="U34" s="11">
-        <v>1</v>
-      </c>
-      <c r="V34" s="11">
-        <v>10</v>
-      </c>
-      <c r="W34" s="11">
-        <v>10</v>
-      </c>
-      <c r="X34" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11">
-        <v>30</v>
-      </c>
-      <c r="AB34" s="11">
-        <v>10000000</v>
-      </c>
-      <c r="AC34" s="11">
-        <v>200</v>
-      </c>
-      <c r="AD34" s="11">
-        <v>1.4</v>
-      </c>
-      <c r="AE34" s="11">
-        <v>10000</v>
-      </c>
-      <c r="AF34" s="11">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="35" s="3" customFormat="1" spans="2:32">
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>1</v>
+      </c>
+      <c r="R34" s="10">
+        <v>10</v>
+      </c>
+      <c r="S34" s="10">
+        <v>10</v>
+      </c>
+      <c r="T34" s="10">
+        <v>1</v>
+      </c>
+      <c r="U34" s="10">
+        <v>1</v>
+      </c>
+      <c r="V34" s="10">
+        <v>10</v>
+      </c>
+      <c r="W34" s="10">
+        <v>10</v>
+      </c>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+    </row>
+    <row r="35" s="3" customFormat="1" spans="2:25">
       <c r="B35" s="8" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E35" s="8">
         <v>4</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>138</v>
+      <c r="G35" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="I35" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J35" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K35" s="8">
+        <v>1</v>
+      </c>
+      <c r="L35" s="8">
         <v>9</v>
       </c>
-      <c r="L35" s="1">
-        <v>0</v>
-      </c>
       <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
         <v>180</v>
       </c>
-      <c r="N35" s="1">
-        <v>0</v>
-      </c>
-      <c r="O35" s="8">
-        <v>1</v>
+      <c r="O35" s="1">
+        <v>0</v>
       </c>
       <c r="P35" s="8">
         <v>1</v>
       </c>
       <c r="Q35" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R35" s="8">
         <v>5</v>
       </c>
       <c r="S35" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T35" s="8">
         <v>1</v>
@@ -4225,63 +3799,54 @@
         <v>375</v>
       </c>
       <c r="X35" s="8">
-        <v>5</v>
-      </c>
-      <c r="Y35" s="8">
         <v>6</v>
       </c>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="8"/>
-      <c r="AD35" s="8"/>
-      <c r="AE35" s="8"/>
-      <c r="AF35" s="8"/>
-    </row>
-    <row r="36" s="3" customFormat="1" spans="2:32">
+      <c r="Y35" s="8"/>
+    </row>
+    <row r="36" s="3" customFormat="1" spans="2:25">
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>140</v>
+      <c r="G36" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="I36" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J36" s="8">
+        <v>10</v>
+      </c>
+      <c r="K36" s="8">
         <v>2</v>
       </c>
-      <c r="K36" s="8">
+      <c r="L36" s="8">
         <v>8</v>
       </c>
-      <c r="L36" s="1">
-        <v>0</v>
-      </c>
       <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
         <v>180</v>
       </c>
-      <c r="N36" s="1">
-        <v>0</v>
-      </c>
-      <c r="O36" s="8">
-        <v>1</v>
+      <c r="O36" s="1">
+        <v>0</v>
       </c>
       <c r="P36" s="8">
         <v>1</v>
       </c>
       <c r="Q36" s="8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R36" s="8">
         <v>11</v>
       </c>
       <c r="S36" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="T36" s="8">
         <v>1</v>
@@ -4296,63 +3861,54 @@
         <v>187.5</v>
       </c>
       <c r="X36" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y36" s="8">
         <v>7</v>
       </c>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="8"/>
-      <c r="AD36" s="8"/>
-      <c r="AE36" s="8"/>
-      <c r="AF36" s="8"/>
-    </row>
-    <row r="37" s="3" customFormat="1" spans="2:32">
+      <c r="Y36" s="8"/>
+    </row>
+    <row r="37" s="3" customFormat="1" spans="2:25">
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>142</v>
+      <c r="G37" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="I37" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J37" s="8">
+        <v>10</v>
+      </c>
+      <c r="K37" s="8">
         <v>3</v>
       </c>
-      <c r="K37" s="8">
+      <c r="L37" s="8">
         <v>7</v>
       </c>
-      <c r="L37" s="1">
-        <v>0</v>
-      </c>
       <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
         <v>180</v>
       </c>
-      <c r="N37" s="1">
-        <v>0</v>
-      </c>
-      <c r="O37" s="8">
-        <v>1</v>
+      <c r="O37" s="1">
+        <v>0</v>
       </c>
       <c r="P37" s="8">
         <v>1</v>
       </c>
       <c r="Q37" s="8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R37" s="8">
         <v>11</v>
       </c>
       <c r="S37" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="T37" s="8">
         <v>1</v>
@@ -4367,63 +3923,54 @@
         <v>187.5</v>
       </c>
       <c r="X37" s="8">
-        <v>5</v>
-      </c>
-      <c r="Y37" s="8">
         <v>9</v>
       </c>
-      <c r="Z37" s="8"/>
-      <c r="AA37" s="8"/>
-      <c r="AB37" s="8"/>
-      <c r="AC37" s="8"/>
-      <c r="AD37" s="8"/>
-      <c r="AE37" s="8"/>
-      <c r="AF37" s="8"/>
-    </row>
-    <row r="38" s="3" customFormat="1" spans="2:32">
+      <c r="Y37" s="8"/>
+    </row>
+    <row r="38" s="3" customFormat="1" spans="2:25">
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>144</v>
+      <c r="G38" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="I38" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J38" s="8">
+        <v>10</v>
+      </c>
+      <c r="K38" s="8">
         <v>4</v>
       </c>
-      <c r="K38" s="8">
+      <c r="L38" s="8">
         <v>8</v>
       </c>
-      <c r="L38" s="1">
-        <v>0</v>
-      </c>
       <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
         <v>180</v>
       </c>
-      <c r="N38" s="1">
-        <v>0</v>
-      </c>
-      <c r="O38" s="8">
-        <v>1</v>
+      <c r="O38" s="1">
+        <v>0</v>
       </c>
       <c r="P38" s="8">
         <v>1</v>
       </c>
       <c r="Q38" s="8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R38" s="8">
         <v>11</v>
       </c>
       <c r="S38" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="T38" s="8">
         <v>1</v>
@@ -4438,63 +3985,54 @@
         <v>375</v>
       </c>
       <c r="X38" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y38" s="8">
         <v>8</v>
       </c>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="8"/>
-      <c r="AC38" s="8"/>
-      <c r="AD38" s="8"/>
-      <c r="AE38" s="8"/>
-      <c r="AF38" s="8"/>
-    </row>
-    <row r="39" s="3" customFormat="1" spans="2:32">
+      <c r="Y38" s="8"/>
+    </row>
+    <row r="39" s="3" customFormat="1" spans="2:25">
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>146</v>
+      <c r="G39" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="I39" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J39" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K39" s="8">
+        <v>5</v>
+      </c>
+      <c r="L39" s="8">
         <v>9</v>
       </c>
-      <c r="L39" s="1">
-        <v>0</v>
-      </c>
       <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
         <v>180</v>
       </c>
-      <c r="N39" s="1">
-        <v>0</v>
-      </c>
-      <c r="O39" s="8">
-        <v>1</v>
+      <c r="O39" s="1">
+        <v>0</v>
       </c>
       <c r="P39" s="8">
         <v>1</v>
       </c>
       <c r="Q39" s="8">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R39" s="8">
         <v>25</v>
       </c>
       <c r="S39" s="8">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T39" s="8">
         <v>1</v>
@@ -4509,130 +4047,112 @@
         <v>765</v>
       </c>
       <c r="X39" s="8">
-        <v>5</v>
-      </c>
-      <c r="Y39" s="8">
         <v>9</v>
       </c>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="8"/>
-      <c r="AB39" s="8"/>
-      <c r="AC39" s="8"/>
-      <c r="AD39" s="8"/>
-      <c r="AE39" s="8"/>
-      <c r="AF39" s="8"/>
-    </row>
-    <row r="40" s="3" customFormat="1" spans="2:32">
+      <c r="Y39" s="8"/>
+    </row>
+    <row r="40" s="3" customFormat="1" spans="2:25">
       <c r="B40" s="8"/>
-      <c r="C40" s="11"/>
+      <c r="C40" s="10"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="I40" s="11">
-        <v>10</v>
-      </c>
-      <c r="J40" s="11">
+      <c r="F40" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I40" s="10">
+        <v>1</v>
+      </c>
+      <c r="J40" s="10">
+        <v>10</v>
+      </c>
+      <c r="K40" s="10">
         <v>3</v>
       </c>
-      <c r="K40" s="11">
+      <c r="L40" s="10">
         <v>6</v>
       </c>
-      <c r="L40" s="1">
-        <v>0</v>
-      </c>
       <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
         <v>180</v>
       </c>
-      <c r="N40" s="1">
-        <v>0</v>
-      </c>
-      <c r="O40" s="11">
-        <v>1</v>
-      </c>
-      <c r="P40" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="11">
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>1</v>
+      </c>
+      <c r="R40" s="10">
         <v>2.5</v>
       </c>
-      <c r="R40" s="11">
+      <c r="S40" s="10">
         <v>2.5</v>
       </c>
-      <c r="S40" s="11">
-        <v>1</v>
-      </c>
-      <c r="T40" s="11">
-        <v>1</v>
-      </c>
-      <c r="U40" s="11">
-        <v>1</v>
-      </c>
-      <c r="V40" s="11">
-        <v>10</v>
-      </c>
-      <c r="W40" s="11">
-        <v>10</v>
-      </c>
-      <c r="X40" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y40" s="11"/>
-      <c r="Z40" s="11"/>
-      <c r="AA40" s="11"/>
-      <c r="AB40" s="11"/>
-      <c r="AC40" s="11"/>
-      <c r="AD40" s="11"/>
-      <c r="AE40" s="11"/>
-      <c r="AF40" s="11"/>
-    </row>
-    <row r="41" s="3" customFormat="1" spans="2:32">
+      <c r="T40" s="10">
+        <v>1</v>
+      </c>
+      <c r="U40" s="10">
+        <v>1</v>
+      </c>
+      <c r="V40" s="10">
+        <v>10</v>
+      </c>
+      <c r="W40" s="10">
+        <v>10</v>
+      </c>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+    </row>
+    <row r="41" s="3" customFormat="1" spans="2:25">
       <c r="B41" s="8" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E41" s="8">
         <v>2</v>
       </c>
       <c r="F41" s="8"/>
-      <c r="G41" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>152</v>
+      <c r="G41" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="I41" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J41" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K41" s="8">
+        <v>1</v>
+      </c>
+      <c r="L41" s="8">
         <v>9</v>
       </c>
-      <c r="L41" s="1">
-        <v>0</v>
-      </c>
       <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
         <v>180</v>
       </c>
-      <c r="N41" s="1">
-        <v>0</v>
-      </c>
-      <c r="O41" s="8">
-        <v>1</v>
+      <c r="O41" s="1">
+        <v>0</v>
       </c>
       <c r="P41" s="8">
         <v>1</v>
@@ -4659,51 +4179,42 @@
         <v>825</v>
       </c>
       <c r="X41" s="8">
-        <v>5</v>
-      </c>
-      <c r="Y41" s="8">
         <v>7</v>
       </c>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="8"/>
-      <c r="AB41" s="8"/>
-      <c r="AC41" s="8"/>
-      <c r="AD41" s="8"/>
-      <c r="AE41" s="8"/>
-      <c r="AF41" s="8"/>
-    </row>
-    <row r="42" s="3" customFormat="1" spans="2:32">
+      <c r="Y41" s="8"/>
+    </row>
+    <row r="42" s="3" customFormat="1" spans="2:25">
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>154</v>
+      <c r="G42" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="I42" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J42" s="8">
+        <v>10</v>
+      </c>
+      <c r="K42" s="8">
         <v>2</v>
       </c>
-      <c r="K42" s="8">
+      <c r="L42" s="8">
         <v>8</v>
       </c>
-      <c r="L42" s="1">
-        <v>0</v>
-      </c>
       <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
         <v>180</v>
       </c>
-      <c r="N42" s="1">
-        <v>0</v>
-      </c>
-      <c r="O42" s="8">
-        <v>1</v>
+      <c r="O42" s="1">
+        <v>0</v>
       </c>
       <c r="P42" s="8">
         <v>1</v>
@@ -4730,51 +4241,42 @@
         <v>825</v>
       </c>
       <c r="X42" s="8">
-        <v>5</v>
-      </c>
-      <c r="Y42" s="8">
         <v>8</v>
       </c>
-      <c r="Z42" s="8"/>
-      <c r="AA42" s="8"/>
-      <c r="AB42" s="8"/>
-      <c r="AC42" s="8"/>
-      <c r="AD42" s="8"/>
-      <c r="AE42" s="8"/>
-      <c r="AF42" s="8"/>
-    </row>
-    <row r="43" s="3" customFormat="1" spans="2:32">
+      <c r="Y42" s="8"/>
+    </row>
+    <row r="43" s="3" customFormat="1" spans="2:25">
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
-      <c r="G43" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>156</v>
+      <c r="G43" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="I43" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J43" s="8">
+        <v>10</v>
+      </c>
+      <c r="K43" s="8">
         <v>3</v>
       </c>
-      <c r="K43" s="8">
+      <c r="L43" s="8">
         <v>7</v>
       </c>
-      <c r="L43" s="1">
-        <v>0</v>
-      </c>
       <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
         <v>180</v>
       </c>
-      <c r="N43" s="1">
-        <v>0</v>
-      </c>
-      <c r="O43" s="8">
-        <v>1</v>
+      <c r="O43" s="1">
+        <v>0</v>
       </c>
       <c r="P43" s="8">
         <v>1</v>
@@ -4801,51 +4303,42 @@
         <v>825</v>
       </c>
       <c r="X43" s="8">
-        <v>5</v>
-      </c>
-      <c r="Y43" s="8">
-        <v>10</v>
-      </c>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="8"/>
-      <c r="AD43" s="8"/>
-      <c r="AE43" s="8"/>
-      <c r="AF43" s="8"/>
-    </row>
-    <row r="44" s="3" customFormat="1" spans="2:32">
+        <v>10</v>
+      </c>
+      <c r="Y43" s="8"/>
+    </row>
+    <row r="44" s="3" customFormat="1" spans="2:25">
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
-      <c r="G44" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>158</v>
+      <c r="G44" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="I44" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J44" s="8">
+        <v>10</v>
+      </c>
+      <c r="K44" s="8">
         <v>4</v>
       </c>
-      <c r="K44" s="8">
+      <c r="L44" s="8">
         <v>8</v>
       </c>
-      <c r="L44" s="1">
-        <v>0</v>
-      </c>
       <c r="M44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
         <v>180</v>
       </c>
-      <c r="N44" s="1">
-        <v>0</v>
-      </c>
-      <c r="O44" s="8">
-        <v>1</v>
+      <c r="O44" s="1">
+        <v>0</v>
       </c>
       <c r="P44" s="8">
         <v>1</v>
@@ -4872,63 +4365,54 @@
         <v>825</v>
       </c>
       <c r="X44" s="8">
-        <v>5</v>
-      </c>
-      <c r="Y44" s="8">
         <v>11</v>
       </c>
-      <c r="Z44" s="8"/>
-      <c r="AA44" s="8"/>
-      <c r="AB44" s="8"/>
-      <c r="AC44" s="8"/>
-      <c r="AD44" s="8"/>
-      <c r="AE44" s="8"/>
-      <c r="AF44" s="8"/>
-    </row>
-    <row r="45" s="3" customFormat="1" spans="2:32">
+      <c r="Y44" s="8"/>
+    </row>
+    <row r="45" s="3" customFormat="1" spans="2:25">
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
-      <c r="G45" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>160</v>
+      <c r="G45" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="I45" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J45" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K45" s="8">
+        <v>5</v>
+      </c>
+      <c r="L45" s="8">
         <v>9</v>
       </c>
-      <c r="L45" s="1">
-        <v>0</v>
-      </c>
       <c r="M45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
         <v>180</v>
       </c>
-      <c r="N45" s="1">
-        <v>0</v>
-      </c>
-      <c r="O45" s="8">
-        <v>1</v>
+      <c r="O45" s="1">
+        <v>0</v>
       </c>
       <c r="P45" s="8">
         <v>1</v>
       </c>
       <c r="Q45" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R45" s="8">
         <v>5</v>
       </c>
       <c r="S45" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T45" s="8">
         <v>1</v>
@@ -4943,154 +4427,124 @@
         <v>873.75</v>
       </c>
       <c r="X45" s="8">
-        <v>5</v>
-      </c>
-      <c r="Y45" s="8">
         <v>12</v>
       </c>
-      <c r="Z45" s="8"/>
-      <c r="AA45" s="8"/>
-      <c r="AB45" s="8"/>
-      <c r="AC45" s="8"/>
-      <c r="AD45" s="8"/>
-      <c r="AE45" s="8"/>
-      <c r="AF45" s="8"/>
-    </row>
-    <row r="46" s="3" customFormat="1" spans="2:32">
+      <c r="Y45" s="8"/>
+    </row>
+    <row r="46" s="3" customFormat="1" spans="2:25">
       <c r="B46" s="8"/>
-      <c r="C46" s="11"/>
+      <c r="C46" s="10"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="I46" s="11">
-        <v>10</v>
-      </c>
-      <c r="J46" s="11">
+      <c r="F46" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I46" s="10">
+        <v>1</v>
+      </c>
+      <c r="J46" s="10">
+        <v>10</v>
+      </c>
+      <c r="K46" s="10">
         <v>3</v>
       </c>
-      <c r="K46" s="11">
+      <c r="L46" s="10">
         <v>6</v>
       </c>
-      <c r="L46" s="1">
-        <v>0</v>
-      </c>
       <c r="M46" s="1">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
         <v>180</v>
       </c>
-      <c r="N46" s="1">
-        <v>0</v>
-      </c>
-      <c r="O46" s="11">
-        <v>1</v>
-      </c>
-      <c r="P46" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="11">
-        <v>10</v>
-      </c>
-      <c r="R46" s="11">
-        <v>10</v>
-      </c>
-      <c r="S46" s="11">
-        <v>1</v>
-      </c>
-      <c r="T46" s="11">
-        <v>1</v>
-      </c>
-      <c r="U46" s="11">
-        <v>1</v>
-      </c>
-      <c r="V46" s="11">
-        <v>10</v>
-      </c>
-      <c r="W46" s="11">
-        <v>10</v>
-      </c>
-      <c r="X46" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y46" s="11"/>
-      <c r="Z46" s="11"/>
-      <c r="AA46" s="11">
-        <v>25</v>
-      </c>
-      <c r="AB46" s="11">
-        <v>10000000</v>
-      </c>
-      <c r="AC46" s="11">
-        <v>200</v>
-      </c>
-      <c r="AD46" s="11">
-        <v>1.4</v>
-      </c>
-      <c r="AE46" s="11">
-        <v>5000</v>
-      </c>
-      <c r="AF46" s="11">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="47" s="3" customFormat="1" spans="2:32">
+      <c r="O46" s="1">
+        <v>0</v>
+      </c>
+      <c r="P46" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="10">
+        <v>1</v>
+      </c>
+      <c r="R46" s="10">
+        <v>10</v>
+      </c>
+      <c r="S46" s="10">
+        <v>10</v>
+      </c>
+      <c r="T46" s="10">
+        <v>1</v>
+      </c>
+      <c r="U46" s="10">
+        <v>1</v>
+      </c>
+      <c r="V46" s="10">
+        <v>10</v>
+      </c>
+      <c r="W46" s="10">
+        <v>10</v>
+      </c>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+    </row>
+    <row r="47" s="3" customFormat="1" spans="2:25">
       <c r="B47" s="8" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E47" s="8">
         <v>1</v>
       </c>
       <c r="F47" s="8"/>
-      <c r="G47" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>165</v>
+      <c r="G47" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="I47" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J47" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K47" s="8">
+        <v>1</v>
+      </c>
+      <c r="L47" s="8">
         <v>9</v>
       </c>
-      <c r="L47" s="1">
-        <v>0</v>
-      </c>
       <c r="M47" s="1">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
         <v>180</v>
       </c>
-      <c r="N47" s="1">
-        <v>0</v>
-      </c>
-      <c r="O47" s="8">
-        <v>1</v>
+      <c r="O47" s="1">
+        <v>0</v>
       </c>
       <c r="P47" s="8">
         <v>1</v>
       </c>
       <c r="Q47" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R47" s="8">
         <v>5</v>
       </c>
       <c r="S47" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T47" s="8">
         <v>1</v>
@@ -5105,63 +4559,54 @@
         <v>825</v>
       </c>
       <c r="X47" s="8">
-        <v>5</v>
-      </c>
-      <c r="Y47" s="8">
         <v>12</v>
       </c>
-      <c r="Z47" s="8"/>
-      <c r="AA47" s="8"/>
-      <c r="AB47" s="8"/>
-      <c r="AC47" s="8"/>
-      <c r="AD47" s="8"/>
-      <c r="AE47" s="8"/>
-      <c r="AF47" s="8"/>
-    </row>
-    <row r="48" s="3" customFormat="1" spans="2:32">
+      <c r="Y47" s="8"/>
+    </row>
+    <row r="48" s="3" customFormat="1" spans="2:25">
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>167</v>
+      <c r="G48" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="I48" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J48" s="8">
+        <v>10</v>
+      </c>
+      <c r="K48" s="8">
         <v>2</v>
       </c>
-      <c r="K48" s="8">
+      <c r="L48" s="8">
         <v>8</v>
       </c>
-      <c r="L48" s="1">
-        <v>0</v>
-      </c>
       <c r="M48" s="1">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
         <v>180</v>
       </c>
-      <c r="N48" s="1">
-        <v>0</v>
-      </c>
-      <c r="O48" s="8">
-        <v>1</v>
+      <c r="O48" s="1">
+        <v>0</v>
       </c>
       <c r="P48" s="8">
         <v>1</v>
       </c>
       <c r="Q48" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R48" s="8">
         <v>2</v>
       </c>
       <c r="S48" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T48" s="8">
         <v>1</v>
@@ -5176,51 +4621,42 @@
         <v>825</v>
       </c>
       <c r="X48" s="8">
-        <v>5</v>
-      </c>
-      <c r="Y48" s="8">
         <v>11</v>
       </c>
-      <c r="Z48" s="8"/>
-      <c r="AA48" s="8"/>
-      <c r="AB48" s="8"/>
-      <c r="AC48" s="8"/>
-      <c r="AD48" s="8"/>
-      <c r="AE48" s="8"/>
-      <c r="AF48" s="8"/>
-    </row>
-    <row r="49" s="3" customFormat="1" spans="2:32">
+      <c r="Y48" s="8"/>
+    </row>
+    <row r="49" s="3" customFormat="1" spans="2:25">
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>169</v>
+      <c r="G49" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="I49" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J49" s="8">
+        <v>10</v>
+      </c>
+      <c r="K49" s="8">
         <v>3</v>
       </c>
-      <c r="K49" s="8">
+      <c r="L49" s="8">
         <v>7</v>
       </c>
-      <c r="L49" s="1">
-        <v>0</v>
-      </c>
       <c r="M49" s="1">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
         <v>180</v>
       </c>
-      <c r="N49" s="1">
-        <v>0</v>
-      </c>
-      <c r="O49" s="8">
-        <v>1</v>
+      <c r="O49" s="1">
+        <v>0</v>
       </c>
       <c r="P49" s="8">
         <v>1</v>
@@ -5247,51 +4683,42 @@
         <v>825</v>
       </c>
       <c r="X49" s="8">
-        <v>5</v>
-      </c>
-      <c r="Y49" s="8">
-        <v>10</v>
-      </c>
-      <c r="Z49" s="8"/>
-      <c r="AA49" s="8"/>
-      <c r="AB49" s="8"/>
-      <c r="AC49" s="8"/>
-      <c r="AD49" s="8"/>
-      <c r="AE49" s="8"/>
-      <c r="AF49" s="8"/>
-    </row>
-    <row r="50" s="3" customFormat="1" spans="2:32">
+        <v>10</v>
+      </c>
+      <c r="Y49" s="8"/>
+    </row>
+    <row r="50" s="3" customFormat="1" spans="2:25">
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
-      <c r="G50" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>171</v>
+      <c r="G50" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="I50" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J50" s="8">
+        <v>10</v>
+      </c>
+      <c r="K50" s="8">
         <v>4</v>
       </c>
-      <c r="K50" s="8">
+      <c r="L50" s="8">
         <v>8</v>
       </c>
-      <c r="L50" s="1">
-        <v>0</v>
-      </c>
       <c r="M50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
         <v>180</v>
       </c>
-      <c r="N50" s="1">
-        <v>0</v>
-      </c>
-      <c r="O50" s="8">
-        <v>1</v>
+      <c r="O50" s="1">
+        <v>0</v>
       </c>
       <c r="P50" s="8">
         <v>1</v>
@@ -5318,63 +4745,54 @@
         <v>873.75</v>
       </c>
       <c r="X50" s="8">
-        <v>5</v>
-      </c>
-      <c r="Y50" s="8">
         <v>11</v>
       </c>
-      <c r="Z50" s="8"/>
-      <c r="AA50" s="8"/>
-      <c r="AB50" s="8"/>
-      <c r="AC50" s="8"/>
-      <c r="AD50" s="8"/>
-      <c r="AE50" s="8"/>
-      <c r="AF50" s="8"/>
-    </row>
-    <row r="51" s="3" customFormat="1" spans="2:32">
+      <c r="Y50" s="8"/>
+    </row>
+    <row r="51" s="3" customFormat="1" spans="2:25">
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
-      <c r="G51" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>173</v>
+      <c r="G51" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="I51" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J51" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K51" s="8">
+        <v>5</v>
+      </c>
+      <c r="L51" s="8">
         <v>9</v>
       </c>
-      <c r="L51" s="1">
-        <v>0</v>
-      </c>
       <c r="M51" s="1">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1">
         <v>180</v>
       </c>
-      <c r="N51" s="1">
-        <v>0</v>
-      </c>
-      <c r="O51" s="8">
-        <v>1</v>
+      <c r="O51" s="1">
+        <v>0</v>
       </c>
       <c r="P51" s="8">
         <v>1</v>
       </c>
       <c r="Q51" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R51" s="8">
         <v>5</v>
       </c>
       <c r="S51" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T51" s="8">
         <v>1</v>
@@ -5389,154 +4807,124 @@
         <v>873.75</v>
       </c>
       <c r="X51" s="8">
-        <v>5</v>
-      </c>
-      <c r="Y51" s="8">
         <v>15</v>
       </c>
-      <c r="Z51" s="8"/>
-      <c r="AA51" s="8"/>
-      <c r="AB51" s="8"/>
-      <c r="AC51" s="8"/>
-      <c r="AD51" s="8"/>
-      <c r="AE51" s="8"/>
-      <c r="AF51" s="8"/>
-    </row>
-    <row r="52" s="3" customFormat="1" spans="2:32">
+      <c r="Y51" s="8"/>
+    </row>
+    <row r="52" s="3" customFormat="1" spans="2:25">
       <c r="B52" s="8"/>
-      <c r="C52" s="11"/>
+      <c r="C52" s="10"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="I52" s="11">
-        <v>10</v>
-      </c>
-      <c r="J52" s="11">
+      <c r="F52" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I52" s="10">
+        <v>1</v>
+      </c>
+      <c r="J52" s="10">
+        <v>10</v>
+      </c>
+      <c r="K52" s="10">
         <v>3</v>
       </c>
-      <c r="K52" s="11">
+      <c r="L52" s="10">
         <v>6</v>
       </c>
-      <c r="L52" s="1">
-        <v>0</v>
-      </c>
       <c r="M52" s="1">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1">
         <v>180</v>
       </c>
-      <c r="N52" s="1">
-        <v>0</v>
-      </c>
-      <c r="O52" s="11">
-        <v>1</v>
-      </c>
-      <c r="P52" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="11">
-        <v>10</v>
-      </c>
-      <c r="R52" s="11">
-        <v>10</v>
-      </c>
-      <c r="S52" s="11">
-        <v>1</v>
-      </c>
-      <c r="T52" s="11">
-        <v>1</v>
-      </c>
-      <c r="U52" s="11">
-        <v>1</v>
-      </c>
-      <c r="V52" s="11">
-        <v>10</v>
-      </c>
-      <c r="W52" s="11">
-        <v>10</v>
-      </c>
-      <c r="X52" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y52" s="11"/>
-      <c r="Z52" s="11"/>
-      <c r="AA52" s="11">
-        <v>30</v>
-      </c>
-      <c r="AB52" s="11">
-        <v>10000000</v>
-      </c>
-      <c r="AC52" s="11">
-        <v>200</v>
-      </c>
-      <c r="AD52" s="11">
-        <v>1.4</v>
-      </c>
-      <c r="AE52" s="11">
-        <v>5000</v>
-      </c>
-      <c r="AF52" s="11">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="53" s="3" customFormat="1" spans="2:32">
+      <c r="O52" s="1">
+        <v>0</v>
+      </c>
+      <c r="P52" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="10">
+        <v>1</v>
+      </c>
+      <c r="R52" s="10">
+        <v>10</v>
+      </c>
+      <c r="S52" s="10">
+        <v>10</v>
+      </c>
+      <c r="T52" s="10">
+        <v>1</v>
+      </c>
+      <c r="U52" s="10">
+        <v>1</v>
+      </c>
+      <c r="V52" s="10">
+        <v>10</v>
+      </c>
+      <c r="W52" s="10">
+        <v>10</v>
+      </c>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+    </row>
+    <row r="53" s="3" customFormat="1" spans="2:25">
       <c r="B53" s="8" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="E53" s="8">
         <v>10</v>
       </c>
       <c r="F53" s="8"/>
-      <c r="G53" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>179</v>
+      <c r="G53" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="I53" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J53" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K53" s="8">
+        <v>1</v>
+      </c>
+      <c r="L53" s="8">
         <v>9</v>
       </c>
-      <c r="L53" s="1">
-        <v>0</v>
-      </c>
       <c r="M53" s="1">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1">
         <v>180</v>
       </c>
-      <c r="N53" s="1">
-        <v>0</v>
-      </c>
-      <c r="O53" s="8">
-        <v>1</v>
+      <c r="O53" s="1">
+        <v>0</v>
       </c>
       <c r="P53" s="8">
         <v>1</v>
       </c>
       <c r="Q53" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R53" s="8">
         <v>2</v>
       </c>
       <c r="S53" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T53" s="8">
         <v>1</v>
@@ -5551,63 +4939,54 @@
         <v>900</v>
       </c>
       <c r="X53" s="8">
-        <v>5</v>
-      </c>
-      <c r="Y53" s="8">
-        <v>10</v>
-      </c>
-      <c r="Z53" s="8"/>
-      <c r="AA53" s="8"/>
-      <c r="AB53" s="8"/>
-      <c r="AC53" s="8"/>
-      <c r="AD53" s="8"/>
-      <c r="AE53" s="8"/>
-      <c r="AF53" s="8"/>
-    </row>
-    <row r="54" s="3" customFormat="1" spans="2:32">
+        <v>10</v>
+      </c>
+      <c r="Y53" s="8"/>
+    </row>
+    <row r="54" s="3" customFormat="1" spans="2:25">
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="I54" s="8">
+        <v>5</v>
+      </c>
+      <c r="J54" s="8">
+        <v>10</v>
+      </c>
+      <c r="K54" s="8">
+        <v>2</v>
+      </c>
+      <c r="L54" s="8">
+        <v>8</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0</v>
+      </c>
+      <c r="N54" s="1">
         <v>180</v>
       </c>
-      <c r="H54" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="I54" s="8">
-        <v>10</v>
-      </c>
-      <c r="J54" s="8">
-        <v>2</v>
-      </c>
-      <c r="K54" s="8">
-        <v>8</v>
-      </c>
-      <c r="L54" s="1">
-        <v>0</v>
-      </c>
-      <c r="M54" s="1">
-        <v>180</v>
-      </c>
-      <c r="N54" s="1">
-        <v>0</v>
-      </c>
-      <c r="O54" s="8">
-        <v>1</v>
+      <c r="O54" s="1">
+        <v>0</v>
       </c>
       <c r="P54" s="8">
         <v>1</v>
       </c>
       <c r="Q54" s="8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R54" s="8">
         <v>1.5</v>
       </c>
       <c r="S54" s="8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="T54" s="8">
         <v>1</v>
@@ -5622,63 +5001,54 @@
         <v>937.5</v>
       </c>
       <c r="X54" s="8">
-        <v>5</v>
-      </c>
-      <c r="Y54" s="8">
         <v>13</v>
       </c>
-      <c r="Z54" s="8"/>
-      <c r="AA54" s="8"/>
-      <c r="AB54" s="8"/>
-      <c r="AC54" s="8"/>
-      <c r="AD54" s="8"/>
-      <c r="AE54" s="8"/>
-      <c r="AF54" s="8"/>
-    </row>
-    <row r="55" s="3" customFormat="1" spans="2:32">
+      <c r="Y54" s="8"/>
+    </row>
+    <row r="55" s="3" customFormat="1" spans="2:25">
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
-      <c r="G55" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>183</v>
+      <c r="G55" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="I55" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J55" s="8">
+        <v>10</v>
+      </c>
+      <c r="K55" s="8">
         <v>3</v>
       </c>
-      <c r="K55" s="8">
+      <c r="L55" s="8">
         <v>7</v>
       </c>
-      <c r="L55" s="1">
-        <v>0</v>
-      </c>
       <c r="M55" s="1">
+        <v>0</v>
+      </c>
+      <c r="N55" s="1">
         <v>180</v>
       </c>
-      <c r="N55" s="1">
-        <v>0</v>
-      </c>
-      <c r="O55" s="8">
-        <v>1</v>
+      <c r="O55" s="1">
+        <v>0</v>
       </c>
       <c r="P55" s="8">
         <v>1</v>
       </c>
       <c r="Q55" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R55" s="8">
         <v>2</v>
       </c>
       <c r="S55" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T55" s="8">
         <v>1</v>
@@ -5693,63 +5063,54 @@
         <v>975</v>
       </c>
       <c r="X55" s="8">
-        <v>5</v>
-      </c>
-      <c r="Y55" s="8">
         <v>14</v>
       </c>
-      <c r="Z55" s="8"/>
-      <c r="AA55" s="8"/>
-      <c r="AB55" s="8"/>
-      <c r="AC55" s="8"/>
-      <c r="AD55" s="8"/>
-      <c r="AE55" s="8"/>
-      <c r="AF55" s="8"/>
-    </row>
-    <row r="56" s="3" customFormat="1" spans="2:32">
+      <c r="Y55" s="8"/>
+    </row>
+    <row r="56" s="3" customFormat="1" spans="2:25">
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
-      <c r="G56" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>185</v>
+      <c r="G56" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="I56" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J56" s="8">
+        <v>10</v>
+      </c>
+      <c r="K56" s="8">
         <v>4</v>
       </c>
-      <c r="K56" s="8">
+      <c r="L56" s="8">
         <v>8</v>
       </c>
-      <c r="L56" s="1">
-        <v>0</v>
-      </c>
       <c r="M56" s="1">
+        <v>0</v>
+      </c>
+      <c r="N56" s="1">
         <v>180</v>
       </c>
-      <c r="N56" s="1">
-        <v>0</v>
-      </c>
-      <c r="O56" s="8">
-        <v>1</v>
+      <c r="O56" s="1">
+        <v>0</v>
       </c>
       <c r="P56" s="8">
         <v>1</v>
       </c>
       <c r="Q56" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R56" s="8">
         <v>5</v>
       </c>
       <c r="S56" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T56" s="8">
         <v>1</v>
@@ -5764,423 +5125,432 @@
         <v>900</v>
       </c>
       <c r="X56" s="8">
-        <v>5</v>
-      </c>
-      <c r="Y56" s="8">
         <v>15</v>
       </c>
-      <c r="Z56" s="8"/>
-      <c r="AA56" s="8"/>
-      <c r="AB56" s="8"/>
-      <c r="AC56" s="8"/>
-      <c r="AD56" s="8"/>
-      <c r="AE56" s="8"/>
-      <c r="AF56" s="8"/>
-    </row>
-    <row r="57" s="3" customFormat="1" spans="2:32">
+      <c r="Y56" s="8"/>
+    </row>
+    <row r="57" s="3" customFormat="1" spans="2:25">
       <c r="B57" s="8"/>
-      <c r="C57" s="11"/>
+      <c r="C57" s="10"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
-      <c r="F57" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="I57" s="11">
-        <v>10</v>
-      </c>
-      <c r="J57" s="8">
-        <v>5</v>
+      <c r="F57" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I57" s="10">
+        <v>1</v>
+      </c>
+      <c r="J57" s="10">
+        <v>10</v>
       </c>
       <c r="K57" s="8">
+        <v>5</v>
+      </c>
+      <c r="L57" s="8">
         <v>9</v>
       </c>
-      <c r="L57" s="1">
-        <v>0</v>
-      </c>
       <c r="M57" s="1">
+        <v>0</v>
+      </c>
+      <c r="N57" s="1">
         <v>180</v>
       </c>
-      <c r="N57" s="1">
-        <v>0</v>
-      </c>
-      <c r="O57" s="11">
-        <v>1</v>
-      </c>
-      <c r="P57" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="11">
-        <v>10</v>
-      </c>
-      <c r="R57" s="11">
-        <v>10</v>
-      </c>
-      <c r="S57" s="11">
-        <v>1</v>
-      </c>
-      <c r="T57" s="11">
-        <v>1</v>
-      </c>
-      <c r="U57" s="11">
-        <v>1</v>
-      </c>
-      <c r="V57" s="11">
-        <v>10</v>
-      </c>
-      <c r="W57" s="11">
-        <v>10</v>
-      </c>
-      <c r="X57" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y57" s="11"/>
-      <c r="Z57" s="11"/>
-      <c r="AA57" s="11">
-        <v>25</v>
-      </c>
-      <c r="AB57" s="11">
-        <v>10000000</v>
-      </c>
-      <c r="AC57" s="11">
-        <v>200</v>
-      </c>
-      <c r="AD57" s="11">
-        <v>1.4</v>
-      </c>
-      <c r="AE57" s="11">
-        <v>5000</v>
-      </c>
-      <c r="AF57" s="11">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="58" s="3" customFormat="1" spans="2:32">
+      <c r="O57" s="1">
+        <v>0</v>
+      </c>
+      <c r="P57" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="10">
+        <v>1</v>
+      </c>
+      <c r="R57" s="10">
+        <v>10</v>
+      </c>
+      <c r="S57" s="10">
+        <v>10</v>
+      </c>
+      <c r="T57" s="10">
+        <v>1</v>
+      </c>
+      <c r="U57" s="10">
+        <v>1</v>
+      </c>
+      <c r="V57" s="10">
+        <v>10</v>
+      </c>
+      <c r="W57" s="10">
+        <v>10</v>
+      </c>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="10"/>
+    </row>
+    <row r="58" s="3" customFormat="1" spans="2:25">
       <c r="B58" s="8"/>
-      <c r="C58" s="11"/>
+      <c r="C58" s="10"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="I58" s="11">
-        <v>10</v>
-      </c>
-      <c r="J58" s="11">
+      <c r="F58" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="I58" s="10">
+        <v>1</v>
+      </c>
+      <c r="J58" s="10">
+        <v>10</v>
+      </c>
+      <c r="K58" s="10">
         <v>3</v>
       </c>
-      <c r="K58" s="11">
+      <c r="L58" s="10">
         <v>6</v>
       </c>
-      <c r="L58" s="1">
-        <v>0</v>
-      </c>
       <c r="M58" s="1">
+        <v>0</v>
+      </c>
+      <c r="N58" s="1">
         <v>180</v>
       </c>
-      <c r="N58" s="1">
-        <v>0</v>
-      </c>
-      <c r="O58" s="11">
-        <v>1</v>
-      </c>
-      <c r="P58" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="11">
-        <v>1</v>
-      </c>
-      <c r="R58" s="11">
-        <v>1</v>
-      </c>
-      <c r="S58" s="11">
-        <v>1</v>
-      </c>
-      <c r="T58" s="11">
-        <v>1</v>
-      </c>
-      <c r="U58" s="11">
-        <v>1</v>
-      </c>
-      <c r="V58" s="11">
+      <c r="O58" s="1">
+        <v>0</v>
+      </c>
+      <c r="P58" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="10">
+        <v>1</v>
+      </c>
+      <c r="R58" s="10">
+        <v>1</v>
+      </c>
+      <c r="S58" s="10">
+        <v>1</v>
+      </c>
+      <c r="T58" s="10">
+        <v>1</v>
+      </c>
+      <c r="U58" s="10">
+        <v>1</v>
+      </c>
+      <c r="V58" s="10">
         <v>100</v>
       </c>
-      <c r="W58" s="11">
+      <c r="W58" s="10">
         <v>500</v>
       </c>
-      <c r="X58" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y58" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z58" s="11"/>
-      <c r="AA58" s="11"/>
-      <c r="AB58" s="11"/>
-      <c r="AC58" s="11"/>
-      <c r="AD58" s="11"/>
-      <c r="AE58" s="11"/>
-      <c r="AF58" s="11"/>
-    </row>
-    <row r="59" s="3" customFormat="1" spans="2:32">
+      <c r="X58" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="10"/>
+    </row>
+    <row r="59" s="3" customFormat="1" spans="2:25">
       <c r="B59" s="8"/>
-      <c r="C59" s="11"/>
+      <c r="C59" s="10"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
-      <c r="F59" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="I59" s="11">
-        <v>10</v>
-      </c>
-      <c r="J59" s="11">
+      <c r="F59" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="I59" s="10">
+        <v>1</v>
+      </c>
+      <c r="J59" s="10">
+        <v>10</v>
+      </c>
+      <c r="K59" s="10">
         <v>4</v>
       </c>
-      <c r="K59" s="11">
+      <c r="L59" s="10">
         <v>6</v>
       </c>
-      <c r="L59" s="1">
-        <v>0</v>
-      </c>
       <c r="M59" s="1">
+        <v>0</v>
+      </c>
+      <c r="N59" s="1">
         <v>180</v>
       </c>
-      <c r="N59" s="1">
-        <v>0</v>
-      </c>
-      <c r="O59" s="11">
-        <v>1</v>
-      </c>
-      <c r="P59" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="11">
-        <v>1</v>
-      </c>
-      <c r="R59" s="11">
-        <v>1</v>
-      </c>
-      <c r="S59" s="11">
-        <v>1</v>
-      </c>
-      <c r="T59" s="11">
-        <v>1</v>
-      </c>
-      <c r="U59" s="11">
-        <v>1</v>
-      </c>
-      <c r="V59" s="11">
+      <c r="O59" s="1">
+        <v>0</v>
+      </c>
+      <c r="P59" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="10">
+        <v>1</v>
+      </c>
+      <c r="R59" s="10">
+        <v>1</v>
+      </c>
+      <c r="S59" s="10">
+        <v>1</v>
+      </c>
+      <c r="T59" s="10">
+        <v>1</v>
+      </c>
+      <c r="U59" s="10">
+        <v>1</v>
+      </c>
+      <c r="V59" s="10">
         <v>100</v>
       </c>
-      <c r="W59" s="11">
+      <c r="W59" s="10">
         <v>500</v>
       </c>
-      <c r="X59" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y59" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z59" s="11"/>
-      <c r="AA59" s="11"/>
-      <c r="AB59" s="11"/>
-      <c r="AC59" s="11"/>
-      <c r="AD59" s="11"/>
-      <c r="AE59" s="11"/>
-      <c r="AF59" s="11"/>
-    </row>
-    <row r="60" s="3" customFormat="1" spans="8:8">
-      <c r="H60" s="10"/>
-    </row>
-    <row r="61" s="3" customFormat="1" spans="8:8">
-      <c r="H61" s="10"/>
-    </row>
-    <row r="62" s="3" customFormat="1" spans="8:8">
-      <c r="H62" s="10"/>
-    </row>
-    <row r="63" s="3" customFormat="1" spans="8:8">
-      <c r="H63" s="10"/>
-    </row>
-    <row r="64" s="3" customFormat="1" spans="8:8">
-      <c r="H64" s="10"/>
-    </row>
-    <row r="65" s="3" customFormat="1" spans="8:8">
-      <c r="H65" s="10"/>
-    </row>
-    <row r="66" s="3" customFormat="1" spans="8:8">
-      <c r="H66" s="10"/>
-    </row>
-    <row r="67" s="3" customFormat="1" spans="8:8">
-      <c r="H67" s="10"/>
-    </row>
-    <row r="68" s="3" customFormat="1" spans="8:8">
-      <c r="H68" s="10"/>
-    </row>
-    <row r="69" s="3" customFormat="1" spans="8:8">
-      <c r="H69" s="10"/>
-    </row>
-    <row r="70" s="3" customFormat="1" spans="8:8">
-      <c r="H70" s="10"/>
-    </row>
-    <row r="71" s="3" customFormat="1" spans="8:8">
-      <c r="H71" s="10"/>
-    </row>
-    <row r="72" s="3" customFormat="1" spans="8:8">
-      <c r="H72" s="10"/>
-    </row>
-    <row r="73" s="3" customFormat="1" spans="8:8">
-      <c r="H73" s="10"/>
-    </row>
-    <row r="74" s="3" customFormat="1" spans="8:8">
-      <c r="H74" s="10"/>
-    </row>
-    <row r="75" s="3" customFormat="1" spans="8:8">
-      <c r="H75" s="10"/>
-    </row>
-    <row r="76" s="3" customFormat="1" spans="8:8">
-      <c r="H76" s="10"/>
-    </row>
-    <row r="77" s="3" customFormat="1" spans="8:8">
-      <c r="H77" s="10"/>
-    </row>
-    <row r="78" s="3" customFormat="1" spans="8:8">
-      <c r="H78" s="10"/>
-    </row>
-    <row r="79" s="3" customFormat="1" spans="8:8">
-      <c r="H79" s="10"/>
-    </row>
-    <row r="80" s="3" customFormat="1" spans="8:8">
-      <c r="H80" s="10"/>
-    </row>
-    <row r="81" s="3" customFormat="1" spans="8:8">
-      <c r="H81" s="10"/>
-    </row>
-    <row r="82" s="3" customFormat="1" spans="8:8">
-      <c r="H82" s="10"/>
-    </row>
-    <row r="83" s="3" customFormat="1" spans="8:8">
-      <c r="H83" s="10"/>
-    </row>
-    <row r="84" s="3" customFormat="1" spans="8:8">
-      <c r="H84" s="10"/>
-    </row>
-    <row r="85" s="3" customFormat="1" spans="8:8">
-      <c r="H85" s="10"/>
-    </row>
-    <row r="86" s="3" customFormat="1" spans="8:8">
-      <c r="H86" s="10"/>
-    </row>
-    <row r="87" s="3" customFormat="1" spans="8:8">
-      <c r="H87" s="10"/>
-    </row>
-    <row r="88" s="3" customFormat="1" spans="8:8">
-      <c r="H88" s="10"/>
-    </row>
-    <row r="89" s="3" customFormat="1" spans="8:8">
-      <c r="H89" s="10"/>
-    </row>
-    <row r="90" s="3" customFormat="1" spans="8:8">
-      <c r="H90" s="10"/>
-    </row>
-    <row r="91" s="3" customFormat="1" spans="8:8">
-      <c r="H91" s="10"/>
-    </row>
-    <row r="92" s="3" customFormat="1" spans="8:8">
-      <c r="H92" s="10"/>
-    </row>
-    <row r="93" s="3" customFormat="1" spans="8:8">
-      <c r="H93" s="10"/>
-    </row>
-    <row r="94" s="3" customFormat="1" spans="8:8">
-      <c r="H94" s="10"/>
-    </row>
-    <row r="95" s="3" customFormat="1" spans="8:8">
-      <c r="H95" s="10"/>
-    </row>
-    <row r="96" s="3" customFormat="1" spans="8:8">
-      <c r="H96" s="10"/>
-    </row>
-    <row r="97" s="3" customFormat="1" spans="8:8">
-      <c r="H97" s="10"/>
-    </row>
-    <row r="98" s="3" customFormat="1" spans="8:8">
-      <c r="H98" s="10"/>
-    </row>
-    <row r="99" s="3" customFormat="1" spans="8:8">
-      <c r="H99" s="10"/>
-    </row>
-    <row r="100" s="3" customFormat="1" spans="8:8">
-      <c r="H100" s="10"/>
-    </row>
-    <row r="101" s="3" customFormat="1" spans="8:8">
-      <c r="H101" s="10"/>
-    </row>
-    <row r="102" s="3" customFormat="1" spans="8:8">
-      <c r="H102" s="10"/>
-    </row>
-    <row r="103" s="3" customFormat="1" spans="8:8">
-      <c r="H103" s="10"/>
-    </row>
-    <row r="104" s="3" customFormat="1" spans="8:8">
-      <c r="H104" s="10"/>
-    </row>
-    <row r="105" s="3" customFormat="1" spans="8:8">
-      <c r="H105" s="10"/>
-    </row>
-    <row r="106" s="3" customFormat="1" spans="8:8">
-      <c r="H106" s="10"/>
-    </row>
-    <row r="107" s="3" customFormat="1" spans="8:8">
-      <c r="H107" s="10"/>
-    </row>
-    <row r="108" s="3" customFormat="1" spans="8:8">
-      <c r="H108" s="10"/>
-    </row>
-    <row r="109" s="3" customFormat="1" spans="8:8">
-      <c r="H109" s="10"/>
-    </row>
-    <row r="110" s="3" customFormat="1" spans="8:8">
-      <c r="H110" s="10"/>
-    </row>
-    <row r="111" s="3" customFormat="1" spans="8:8">
-      <c r="H111" s="10"/>
-    </row>
-    <row r="112" s="3" customFormat="1" spans="8:8">
-      <c r="H112" s="10"/>
-    </row>
-    <row r="113" s="3" customFormat="1" spans="8:8">
-      <c r="H113" s="10"/>
-    </row>
-    <row r="114" s="3" customFormat="1" spans="8:8">
-      <c r="H114" s="10"/>
-    </row>
-    <row r="115" s="3" customFormat="1" spans="8:8">
-      <c r="H115" s="10"/>
-    </row>
-    <row r="116" s="3" customFormat="1" spans="8:8">
-      <c r="H116" s="10"/>
+      <c r="X59" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="10"/>
+    </row>
+    <row r="60" s="3" customFormat="1" spans="8:9">
+      <c r="H60" s="9"/>
+      <c r="I60" s="12"/>
+    </row>
+    <row r="61" s="3" customFormat="1" spans="8:9">
+      <c r="H61" s="9"/>
+      <c r="I61" s="12"/>
+    </row>
+    <row r="62" s="3" customFormat="1" spans="8:9">
+      <c r="H62" s="9"/>
+      <c r="I62" s="12"/>
+    </row>
+    <row r="63" s="3" customFormat="1" spans="8:9">
+      <c r="H63" s="9"/>
+      <c r="I63" s="12"/>
+    </row>
+    <row r="64" s="3" customFormat="1" spans="8:9">
+      <c r="H64" s="9"/>
+      <c r="I64" s="12"/>
+    </row>
+    <row r="65" s="3" customFormat="1" spans="8:9">
+      <c r="H65" s="9"/>
+      <c r="I65" s="12"/>
+    </row>
+    <row r="66" s="3" customFormat="1" spans="8:9">
+      <c r="H66" s="9"/>
+      <c r="I66" s="12"/>
+    </row>
+    <row r="67" s="3" customFormat="1" spans="8:9">
+      <c r="H67" s="9"/>
+      <c r="I67" s="12"/>
+    </row>
+    <row r="68" s="3" customFormat="1" spans="8:9">
+      <c r="H68" s="9"/>
+      <c r="I68" s="12"/>
+    </row>
+    <row r="69" s="3" customFormat="1" spans="8:9">
+      <c r="H69" s="9"/>
+      <c r="I69" s="12"/>
+    </row>
+    <row r="70" s="3" customFormat="1" spans="8:9">
+      <c r="H70" s="9"/>
+      <c r="I70" s="12"/>
+    </row>
+    <row r="71" s="3" customFormat="1" spans="8:9">
+      <c r="H71" s="9"/>
+      <c r="I71" s="12"/>
+    </row>
+    <row r="72" s="3" customFormat="1" spans="8:9">
+      <c r="H72" s="9"/>
+      <c r="I72" s="12"/>
+    </row>
+    <row r="73" s="3" customFormat="1" spans="8:9">
+      <c r="H73" s="9"/>
+      <c r="I73" s="12"/>
+    </row>
+    <row r="74" s="3" customFormat="1" spans="8:9">
+      <c r="H74" s="9"/>
+      <c r="I74" s="12"/>
+    </row>
+    <row r="75" s="3" customFormat="1" spans="8:9">
+      <c r="H75" s="9"/>
+      <c r="I75" s="12"/>
+    </row>
+    <row r="76" s="3" customFormat="1" spans="8:9">
+      <c r="H76" s="9"/>
+      <c r="I76" s="12"/>
+    </row>
+    <row r="77" s="3" customFormat="1" spans="8:9">
+      <c r="H77" s="9"/>
+      <c r="I77" s="12"/>
+    </row>
+    <row r="78" s="3" customFormat="1" spans="8:9">
+      <c r="H78" s="9"/>
+      <c r="I78" s="12"/>
+    </row>
+    <row r="79" s="3" customFormat="1" spans="8:9">
+      <c r="H79" s="9"/>
+      <c r="I79" s="12"/>
+    </row>
+    <row r="80" s="3" customFormat="1" spans="8:9">
+      <c r="H80" s="9"/>
+      <c r="I80" s="12"/>
+    </row>
+    <row r="81" s="3" customFormat="1" spans="8:9">
+      <c r="H81" s="9"/>
+      <c r="I81" s="12"/>
+    </row>
+    <row r="82" s="3" customFormat="1" spans="8:9">
+      <c r="H82" s="9"/>
+      <c r="I82" s="12"/>
+    </row>
+    <row r="83" s="3" customFormat="1" spans="8:9">
+      <c r="H83" s="9"/>
+      <c r="I83" s="12"/>
+    </row>
+    <row r="84" s="3" customFormat="1" spans="8:9">
+      <c r="H84" s="9"/>
+      <c r="I84" s="12"/>
+    </row>
+    <row r="85" s="3" customFormat="1" spans="8:9">
+      <c r="H85" s="9"/>
+      <c r="I85" s="12"/>
+    </row>
+    <row r="86" s="3" customFormat="1" spans="8:9">
+      <c r="H86" s="9"/>
+      <c r="I86" s="12"/>
+    </row>
+    <row r="87" s="3" customFormat="1" spans="8:9">
+      <c r="H87" s="9"/>
+      <c r="I87" s="12"/>
+    </row>
+    <row r="88" s="3" customFormat="1" spans="8:9">
+      <c r="H88" s="9"/>
+      <c r="I88" s="12"/>
+    </row>
+    <row r="89" s="3" customFormat="1" spans="8:9">
+      <c r="H89" s="9"/>
+      <c r="I89" s="12"/>
+    </row>
+    <row r="90" s="3" customFormat="1" spans="8:9">
+      <c r="H90" s="9"/>
+      <c r="I90" s="12"/>
+    </row>
+    <row r="91" s="3" customFormat="1" spans="8:9">
+      <c r="H91" s="9"/>
+      <c r="I91" s="12"/>
+    </row>
+    <row r="92" s="3" customFormat="1" spans="8:9">
+      <c r="H92" s="9"/>
+      <c r="I92" s="12"/>
+    </row>
+    <row r="93" s="3" customFormat="1" spans="8:9">
+      <c r="H93" s="9"/>
+      <c r="I93" s="12"/>
+    </row>
+    <row r="94" s="3" customFormat="1" spans="8:9">
+      <c r="H94" s="9"/>
+      <c r="I94" s="12"/>
+    </row>
+    <row r="95" s="3" customFormat="1" spans="8:9">
+      <c r="H95" s="9"/>
+      <c r="I95" s="12"/>
+    </row>
+    <row r="96" s="3" customFormat="1" spans="8:9">
+      <c r="H96" s="9"/>
+      <c r="I96" s="12"/>
+    </row>
+    <row r="97" s="3" customFormat="1" spans="8:9">
+      <c r="H97" s="9"/>
+      <c r="I97" s="12"/>
+    </row>
+    <row r="98" s="3" customFormat="1" spans="8:9">
+      <c r="H98" s="9"/>
+      <c r="I98" s="12"/>
+    </row>
+    <row r="99" s="3" customFormat="1" spans="8:9">
+      <c r="H99" s="9"/>
+      <c r="I99" s="12"/>
+    </row>
+    <row r="100" s="3" customFormat="1" spans="8:9">
+      <c r="H100" s="9"/>
+      <c r="I100" s="12"/>
+    </row>
+    <row r="101" s="3" customFormat="1" spans="8:9">
+      <c r="H101" s="9"/>
+      <c r="I101" s="12"/>
+    </row>
+    <row r="102" s="3" customFormat="1" spans="8:9">
+      <c r="H102" s="9"/>
+      <c r="I102" s="12"/>
+    </row>
+    <row r="103" s="3" customFormat="1" spans="8:9">
+      <c r="H103" s="9"/>
+      <c r="I103" s="12"/>
+    </row>
+    <row r="104" s="3" customFormat="1" spans="8:9">
+      <c r="H104" s="9"/>
+      <c r="I104" s="12"/>
+    </row>
+    <row r="105" s="3" customFormat="1" spans="8:9">
+      <c r="H105" s="9"/>
+      <c r="I105" s="12"/>
+    </row>
+    <row r="106" s="3" customFormat="1" spans="8:9">
+      <c r="H106" s="9"/>
+      <c r="I106" s="12"/>
+    </row>
+    <row r="107" s="3" customFormat="1" spans="8:9">
+      <c r="H107" s="9"/>
+      <c r="I107" s="12"/>
+    </row>
+    <row r="108" s="3" customFormat="1" spans="8:9">
+      <c r="H108" s="9"/>
+      <c r="I108" s="12"/>
+    </row>
+    <row r="109" s="3" customFormat="1" spans="8:9">
+      <c r="H109" s="9"/>
+      <c r="I109" s="12"/>
+    </row>
+    <row r="110" s="3" customFormat="1" spans="8:9">
+      <c r="H110" s="9"/>
+      <c r="I110" s="12"/>
+    </row>
+    <row r="111" s="3" customFormat="1" spans="8:9">
+      <c r="H111" s="9"/>
+      <c r="I111" s="12"/>
+    </row>
+    <row r="112" s="3" customFormat="1" spans="8:9">
+      <c r="H112" s="9"/>
+      <c r="I112" s="12"/>
+    </row>
+    <row r="113" s="3" customFormat="1" spans="8:9">
+      <c r="H113" s="9"/>
+      <c r="I113" s="12"/>
+    </row>
+    <row r="114" s="3" customFormat="1" spans="8:9">
+      <c r="H114" s="9"/>
+      <c r="I114" s="12"/>
+    </row>
+    <row r="115" s="3" customFormat="1" spans="8:9">
+      <c r="H115" s="9"/>
+      <c r="I115" s="12"/>
+    </row>
+    <row r="116" s="3" customFormat="1" spans="8:9">
+      <c r="H116" s="9"/>
+      <c r="I116" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G1:AF1"/>
-    <mergeCell ref="G2:AF2"/>
+    <mergeCell ref="G1:Y1"/>
+    <mergeCell ref="G2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Doc/ExcelConfig/Datas/dota/RoundBoardChallengeConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/RoundBoardChallengeConfig.xlsx
@@ -81,16 +81,16 @@
     <t>isground</t>
   </si>
   <si>
-    <t>atk</t>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>phyarm</t>
-  </si>
-  <si>
-    <t>magicarm</t>
+    <t>atkpect</t>
+  </si>
+  <si>
+    <t>hppect</t>
+  </si>
+  <si>
+    <t>phyarmpect</t>
+  </si>
+  <si>
+    <t>magicarmpect</t>
   </si>
   <si>
     <t>gold_min</t>
@@ -1201,7 +1201,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1237,9 +1237,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1591,8 +1588,8 @@
   <sheetPr/>
   <dimension ref="A1:Y116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5:U59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14"/>
@@ -1738,13 +1735,13 @@
       <c r="R3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="T3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="U3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="V3" s="5" t="s">
@@ -1885,16 +1882,16 @@
         <v>1</v>
       </c>
       <c r="R5" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S5" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T5" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U5" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V5" s="8">
         <v>15</v>
@@ -1947,16 +1944,16 @@
         <v>1</v>
       </c>
       <c r="R6" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S6" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T6" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U6" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V6" s="8">
         <v>15</v>
@@ -2009,16 +2006,16 @@
         <v>1</v>
       </c>
       <c r="R7" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S7" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T7" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U7" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V7" s="8">
         <v>15</v>
@@ -2071,16 +2068,16 @@
         <v>1</v>
       </c>
       <c r="R8" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S8" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T8" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U8" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V8" s="8">
         <v>15</v>
@@ -2133,16 +2130,16 @@
         <v>1</v>
       </c>
       <c r="R9" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S9" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T9" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U9" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V9" s="8">
         <v>195</v>
@@ -2194,17 +2191,17 @@
       <c r="Q10" s="10">
         <v>1</v>
       </c>
-      <c r="R10" s="10">
-        <v>5</v>
-      </c>
-      <c r="S10" s="10">
-        <v>5</v>
-      </c>
-      <c r="T10" s="10">
-        <v>1</v>
-      </c>
-      <c r="U10" s="10">
-        <v>1</v>
+      <c r="R10" s="8">
+        <v>10</v>
+      </c>
+      <c r="S10" s="8">
+        <v>10</v>
+      </c>
+      <c r="T10" s="8">
+        <v>10</v>
+      </c>
+      <c r="U10" s="8">
+        <v>10</v>
       </c>
       <c r="V10" s="10">
         <v>10</v>
@@ -2263,16 +2260,16 @@
         <v>1</v>
       </c>
       <c r="R11" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S11" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T11" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U11" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V11" s="8">
         <v>33.75</v>
@@ -2325,16 +2322,16 @@
         <v>1</v>
       </c>
       <c r="R12" s="8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S12" s="8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T12" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U12" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V12" s="8">
         <v>33.75</v>
@@ -2387,16 +2384,16 @@
         <v>1</v>
       </c>
       <c r="R13" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S13" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T13" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U13" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V13" s="8">
         <v>37.5</v>
@@ -2449,16 +2446,16 @@
         <v>1</v>
       </c>
       <c r="R14" s="8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S14" s="8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T14" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U14" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V14" s="8">
         <v>67.5</v>
@@ -2511,16 +2508,16 @@
         <v>1</v>
       </c>
       <c r="R15" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S15" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T15" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U15" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V15" s="8">
         <v>412.5</v>
@@ -2572,17 +2569,17 @@
       <c r="Q16" s="10">
         <v>1</v>
       </c>
-      <c r="R16" s="10">
-        <v>5</v>
-      </c>
-      <c r="S16" s="10">
-        <v>5</v>
-      </c>
-      <c r="T16" s="10">
-        <v>1</v>
-      </c>
-      <c r="U16" s="10">
-        <v>1</v>
+      <c r="R16" s="8">
+        <v>10</v>
+      </c>
+      <c r="S16" s="8">
+        <v>10</v>
+      </c>
+      <c r="T16" s="8">
+        <v>10</v>
+      </c>
+      <c r="U16" s="8">
+        <v>10</v>
       </c>
       <c r="V16" s="10">
         <v>10</v>
@@ -2641,16 +2638,16 @@
         <v>1</v>
       </c>
       <c r="R17" s="8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S17" s="8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T17" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U17" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V17" s="8">
         <v>53.75</v>
@@ -2703,16 +2700,16 @@
         <v>1</v>
       </c>
       <c r="R18" s="8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S18" s="8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T18" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U18" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V18" s="8">
         <v>53.75</v>
@@ -2765,16 +2762,16 @@
         <v>1</v>
       </c>
       <c r="R19" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S19" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T19" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U19" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V19" s="8">
         <v>57.5</v>
@@ -2827,16 +2824,16 @@
         <v>1</v>
       </c>
       <c r="R20" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S20" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T20" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U20" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V20" s="8">
         <v>87.5</v>
@@ -2889,16 +2886,16 @@
         <v>1</v>
       </c>
       <c r="R21" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S21" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T21" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U21" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V21" s="8">
         <v>412.5</v>
@@ -2952,17 +2949,17 @@
       <c r="Q22" s="10">
         <v>1</v>
       </c>
-      <c r="R22" s="10">
-        <v>10</v>
-      </c>
-      <c r="S22" s="10">
-        <v>10</v>
-      </c>
-      <c r="T22" s="10">
-        <v>1</v>
-      </c>
-      <c r="U22" s="10">
-        <v>1</v>
+      <c r="R22" s="8">
+        <v>10</v>
+      </c>
+      <c r="S22" s="8">
+        <v>10</v>
+      </c>
+      <c r="T22" s="8">
+        <v>10</v>
+      </c>
+      <c r="U22" s="8">
+        <v>10</v>
       </c>
       <c r="V22" s="10">
         <v>10</v>
@@ -3021,16 +3018,16 @@
         <v>1</v>
       </c>
       <c r="R23" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S23" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T23" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U23" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V23" s="8">
         <v>82.5</v>
@@ -3083,16 +3080,16 @@
         <v>1</v>
       </c>
       <c r="R24" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S24" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T24" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U24" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V24" s="8">
         <v>82.5</v>
@@ -3145,16 +3142,16 @@
         <v>1</v>
       </c>
       <c r="R25" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S25" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T25" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U25" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V25" s="8">
         <v>82.5</v>
@@ -3207,16 +3204,16 @@
         <v>1</v>
       </c>
       <c r="R26" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S26" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T26" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U26" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V26" s="8">
         <v>56.25</v>
@@ -3275,10 +3272,10 @@
         <v>10</v>
       </c>
       <c r="T27" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U27" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V27" s="8">
         <v>517.5</v>
@@ -3332,17 +3329,17 @@
       <c r="Q28" s="10">
         <v>1</v>
       </c>
-      <c r="R28" s="10">
-        <v>10</v>
-      </c>
-      <c r="S28" s="10">
-        <v>10</v>
-      </c>
-      <c r="T28" s="10">
-        <v>1</v>
-      </c>
-      <c r="U28" s="10">
-        <v>1</v>
+      <c r="R28" s="8">
+        <v>10</v>
+      </c>
+      <c r="S28" s="8">
+        <v>10</v>
+      </c>
+      <c r="T28" s="8">
+        <v>10</v>
+      </c>
+      <c r="U28" s="8">
+        <v>10</v>
       </c>
       <c r="V28" s="10">
         <v>10</v>
@@ -3401,16 +3398,16 @@
         <v>1</v>
       </c>
       <c r="R29" s="8">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="S29" s="8">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="T29" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U29" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V29" s="8">
         <v>102.5</v>
@@ -3463,16 +3460,16 @@
         <v>1</v>
       </c>
       <c r="R30" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S30" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T30" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U30" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V30" s="8">
         <v>102.5</v>
@@ -3525,16 +3522,16 @@
         <v>1</v>
       </c>
       <c r="R31" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S31" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T31" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U31" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V31" s="8">
         <v>102.5</v>
@@ -3587,16 +3584,16 @@
         <v>1</v>
       </c>
       <c r="R32" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S32" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T32" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U32" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V32" s="8">
         <v>102.5</v>
@@ -3649,16 +3646,16 @@
         <v>1</v>
       </c>
       <c r="R33" s="8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S33" s="8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T33" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U33" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V33" s="8">
         <v>862.5</v>
@@ -3712,17 +3709,17 @@
       <c r="Q34" s="10">
         <v>1</v>
       </c>
-      <c r="R34" s="10">
-        <v>10</v>
-      </c>
-      <c r="S34" s="10">
-        <v>10</v>
-      </c>
-      <c r="T34" s="10">
-        <v>1</v>
-      </c>
-      <c r="U34" s="10">
-        <v>1</v>
+      <c r="R34" s="8">
+        <v>10</v>
+      </c>
+      <c r="S34" s="8">
+        <v>10</v>
+      </c>
+      <c r="T34" s="8">
+        <v>10</v>
+      </c>
+      <c r="U34" s="8">
+        <v>10</v>
       </c>
       <c r="V34" s="10">
         <v>10</v>
@@ -3781,16 +3778,16 @@
         <v>1</v>
       </c>
       <c r="R35" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S35" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T35" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U35" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V35" s="8">
         <v>150</v>
@@ -3843,16 +3840,16 @@
         <v>1</v>
       </c>
       <c r="R36" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S36" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T36" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U36" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V36" s="8">
         <v>150</v>
@@ -3905,16 +3902,16 @@
         <v>1</v>
       </c>
       <c r="R37" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S37" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T37" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U37" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V37" s="8">
         <v>150</v>
@@ -3967,16 +3964,16 @@
         <v>1</v>
       </c>
       <c r="R38" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S38" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T38" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U38" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V38" s="8">
         <v>300</v>
@@ -4029,16 +4026,16 @@
         <v>1</v>
       </c>
       <c r="R39" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="S39" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T39" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U39" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V39" s="8">
         <v>723.75</v>
@@ -4092,17 +4089,17 @@
       <c r="Q40" s="10">
         <v>1</v>
       </c>
-      <c r="R40" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="S40" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="T40" s="10">
-        <v>1</v>
-      </c>
-      <c r="U40" s="10">
-        <v>1</v>
+      <c r="R40" s="8">
+        <v>10</v>
+      </c>
+      <c r="S40" s="8">
+        <v>10</v>
+      </c>
+      <c r="T40" s="8">
+        <v>10</v>
+      </c>
+      <c r="U40" s="8">
+        <v>10</v>
       </c>
       <c r="V40" s="10">
         <v>10</v>
@@ -4161,16 +4158,16 @@
         <v>1</v>
       </c>
       <c r="R41" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S41" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T41" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U41" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V41" s="8">
         <v>780</v>
@@ -4223,16 +4220,16 @@
         <v>1</v>
       </c>
       <c r="R42" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S42" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T42" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U42" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V42" s="8">
         <v>780</v>
@@ -4285,16 +4282,16 @@
         <v>1</v>
       </c>
       <c r="R43" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S43" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T43" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U43" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V43" s="8">
         <v>780</v>
@@ -4347,16 +4344,16 @@
         <v>1</v>
       </c>
       <c r="R44" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S44" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T44" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U44" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V44" s="8">
         <v>780</v>
@@ -4409,16 +4406,16 @@
         <v>1</v>
       </c>
       <c r="R45" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S45" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T45" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U45" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V45" s="8">
         <v>825</v>
@@ -4472,17 +4469,17 @@
       <c r="Q46" s="10">
         <v>1</v>
       </c>
-      <c r="R46" s="10">
-        <v>10</v>
-      </c>
-      <c r="S46" s="10">
-        <v>10</v>
-      </c>
-      <c r="T46" s="10">
-        <v>1</v>
-      </c>
-      <c r="U46" s="10">
-        <v>1</v>
+      <c r="R46" s="8">
+        <v>10</v>
+      </c>
+      <c r="S46" s="8">
+        <v>10</v>
+      </c>
+      <c r="T46" s="8">
+        <v>10</v>
+      </c>
+      <c r="U46" s="8">
+        <v>10</v>
       </c>
       <c r="V46" s="10">
         <v>10</v>
@@ -4541,16 +4538,16 @@
         <v>1</v>
       </c>
       <c r="R47" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S47" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T47" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U47" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V47" s="8">
         <v>780</v>
@@ -4603,16 +4600,16 @@
         <v>1</v>
       </c>
       <c r="R48" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S48" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T48" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U48" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V48" s="8">
         <v>780</v>
@@ -4665,16 +4662,16 @@
         <v>1</v>
       </c>
       <c r="R49" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S49" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T49" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U49" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V49" s="8">
         <v>780</v>
@@ -4727,16 +4724,16 @@
         <v>1</v>
       </c>
       <c r="R50" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S50" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T50" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U50" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V50" s="8">
         <v>825</v>
@@ -4789,16 +4786,16 @@
         <v>1</v>
       </c>
       <c r="R51" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S51" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T51" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U51" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V51" s="8">
         <v>825</v>
@@ -4852,17 +4849,17 @@
       <c r="Q52" s="10">
         <v>1</v>
       </c>
-      <c r="R52" s="10">
-        <v>10</v>
-      </c>
-      <c r="S52" s="10">
-        <v>10</v>
-      </c>
-      <c r="T52" s="10">
-        <v>1</v>
-      </c>
-      <c r="U52" s="10">
-        <v>1</v>
+      <c r="R52" s="8">
+        <v>10</v>
+      </c>
+      <c r="S52" s="8">
+        <v>10</v>
+      </c>
+      <c r="T52" s="8">
+        <v>10</v>
+      </c>
+      <c r="U52" s="8">
+        <v>10</v>
       </c>
       <c r="V52" s="10">
         <v>10</v>
@@ -4921,16 +4918,16 @@
         <v>1</v>
       </c>
       <c r="R53" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S53" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T53" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U53" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V53" s="8">
         <v>862.5</v>
@@ -4983,16 +4980,16 @@
         <v>1</v>
       </c>
       <c r="R54" s="8">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="S54" s="8">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="T54" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U54" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V54" s="8">
         <v>900</v>
@@ -5045,16 +5042,16 @@
         <v>1</v>
       </c>
       <c r="R55" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S55" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T55" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U55" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V55" s="8">
         <v>937.5</v>
@@ -5107,16 +5104,16 @@
         <v>1</v>
       </c>
       <c r="R56" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S56" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T56" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U56" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V56" s="8">
         <v>862.5</v>
@@ -5170,17 +5167,17 @@
       <c r="Q57" s="10">
         <v>1</v>
       </c>
-      <c r="R57" s="10">
-        <v>10</v>
-      </c>
-      <c r="S57" s="10">
-        <v>10</v>
-      </c>
-      <c r="T57" s="10">
-        <v>1</v>
-      </c>
-      <c r="U57" s="10">
-        <v>1</v>
+      <c r="R57" s="8">
+        <v>10</v>
+      </c>
+      <c r="S57" s="8">
+        <v>10</v>
+      </c>
+      <c r="T57" s="8">
+        <v>10</v>
+      </c>
+      <c r="U57" s="8">
+        <v>10</v>
       </c>
       <c r="V57" s="10">
         <v>10</v>
@@ -5232,17 +5229,17 @@
       <c r="Q58" s="10">
         <v>1</v>
       </c>
-      <c r="R58" s="10">
-        <v>1</v>
-      </c>
-      <c r="S58" s="10">
-        <v>1</v>
-      </c>
-      <c r="T58" s="10">
-        <v>1</v>
-      </c>
-      <c r="U58" s="10">
-        <v>1</v>
+      <c r="R58" s="8">
+        <v>10</v>
+      </c>
+      <c r="S58" s="8">
+        <v>10</v>
+      </c>
+      <c r="T58" s="8">
+        <v>10</v>
+      </c>
+      <c r="U58" s="8">
+        <v>10</v>
       </c>
       <c r="V58" s="10">
         <v>100</v>
@@ -5296,17 +5293,17 @@
       <c r="Q59" s="10">
         <v>1</v>
       </c>
-      <c r="R59" s="10">
-        <v>1</v>
-      </c>
-      <c r="S59" s="10">
-        <v>1</v>
-      </c>
-      <c r="T59" s="10">
-        <v>1</v>
-      </c>
-      <c r="U59" s="10">
-        <v>1</v>
+      <c r="R59" s="8">
+        <v>10</v>
+      </c>
+      <c r="S59" s="8">
+        <v>10</v>
+      </c>
+      <c r="T59" s="8">
+        <v>10</v>
+      </c>
+      <c r="U59" s="8">
+        <v>10</v>
       </c>
       <c r="V59" s="10">
         <v>100</v>

--- a/Doc/ExcelConfig/Datas/dota/RoundBoardChallengeConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/RoundBoardChallengeConfig.xlsx
@@ -75,7 +75,7 @@
     <t>angles_z</t>
   </si>
   <si>
-    <t>israndompos</t>
+    <t>issummoned</t>
   </si>
   <si>
     <t>isground</t>
@@ -147,7 +147,7 @@
     <t>朝向z</t>
   </si>
   <si>
-    <t>是否随机坐标</t>
+    <t>是否是召唤怪</t>
   </si>
   <si>
     <t>是否在地面上</t>
@@ -1201,7 +1201,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1230,6 +1230,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1588,8 +1591,8 @@
   <sheetPr/>
   <dimension ref="A1:Y116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5:U59"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14"/>
@@ -1726,13 +1729,13 @@
       <c r="O3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="12" t="s">
         <v>19</v>
       </c>
       <c r="Q3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="S3" s="5" t="s">
@@ -1803,7 +1806,7 @@
       <c r="O4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="12" t="s">
         <v>43</v>
       </c>
       <c r="Q4" s="11" t="s">
@@ -5318,231 +5321,231 @@
     </row>
     <row r="60" s="3" customFormat="1" spans="8:9">
       <c r="H60" s="9"/>
-      <c r="I60" s="12"/>
+      <c r="I60" s="13"/>
     </row>
     <row r="61" s="3" customFormat="1" spans="8:9">
       <c r="H61" s="9"/>
-      <c r="I61" s="12"/>
+      <c r="I61" s="13"/>
     </row>
     <row r="62" s="3" customFormat="1" spans="8:9">
       <c r="H62" s="9"/>
-      <c r="I62" s="12"/>
+      <c r="I62" s="13"/>
     </row>
     <row r="63" s="3" customFormat="1" spans="8:9">
       <c r="H63" s="9"/>
-      <c r="I63" s="12"/>
+      <c r="I63" s="13"/>
     </row>
     <row r="64" s="3" customFormat="1" spans="8:9">
       <c r="H64" s="9"/>
-      <c r="I64" s="12"/>
+      <c r="I64" s="13"/>
     </row>
     <row r="65" s="3" customFormat="1" spans="8:9">
       <c r="H65" s="9"/>
-      <c r="I65" s="12"/>
+      <c r="I65" s="13"/>
     </row>
     <row r="66" s="3" customFormat="1" spans="8:9">
       <c r="H66" s="9"/>
-      <c r="I66" s="12"/>
+      <c r="I66" s="13"/>
     </row>
     <row r="67" s="3" customFormat="1" spans="8:9">
       <c r="H67" s="9"/>
-      <c r="I67" s="12"/>
+      <c r="I67" s="13"/>
     </row>
     <row r="68" s="3" customFormat="1" spans="8:9">
       <c r="H68" s="9"/>
-      <c r="I68" s="12"/>
+      <c r="I68" s="13"/>
     </row>
     <row r="69" s="3" customFormat="1" spans="8:9">
       <c r="H69" s="9"/>
-      <c r="I69" s="12"/>
+      <c r="I69" s="13"/>
     </row>
     <row r="70" s="3" customFormat="1" spans="8:9">
       <c r="H70" s="9"/>
-      <c r="I70" s="12"/>
+      <c r="I70" s="13"/>
     </row>
     <row r="71" s="3" customFormat="1" spans="8:9">
       <c r="H71" s="9"/>
-      <c r="I71" s="12"/>
+      <c r="I71" s="13"/>
     </row>
     <row r="72" s="3" customFormat="1" spans="8:9">
       <c r="H72" s="9"/>
-      <c r="I72" s="12"/>
+      <c r="I72" s="13"/>
     </row>
     <row r="73" s="3" customFormat="1" spans="8:9">
       <c r="H73" s="9"/>
-      <c r="I73" s="12"/>
+      <c r="I73" s="13"/>
     </row>
     <row r="74" s="3" customFormat="1" spans="8:9">
       <c r="H74" s="9"/>
-      <c r="I74" s="12"/>
+      <c r="I74" s="13"/>
     </row>
     <row r="75" s="3" customFormat="1" spans="8:9">
       <c r="H75" s="9"/>
-      <c r="I75" s="12"/>
+      <c r="I75" s="13"/>
     </row>
     <row r="76" s="3" customFormat="1" spans="8:9">
       <c r="H76" s="9"/>
-      <c r="I76" s="12"/>
+      <c r="I76" s="13"/>
     </row>
     <row r="77" s="3" customFormat="1" spans="8:9">
       <c r="H77" s="9"/>
-      <c r="I77" s="12"/>
+      <c r="I77" s="13"/>
     </row>
     <row r="78" s="3" customFormat="1" spans="8:9">
       <c r="H78" s="9"/>
-      <c r="I78" s="12"/>
+      <c r="I78" s="13"/>
     </row>
     <row r="79" s="3" customFormat="1" spans="8:9">
       <c r="H79" s="9"/>
-      <c r="I79" s="12"/>
+      <c r="I79" s="13"/>
     </row>
     <row r="80" s="3" customFormat="1" spans="8:9">
       <c r="H80" s="9"/>
-      <c r="I80" s="12"/>
+      <c r="I80" s="13"/>
     </row>
     <row r="81" s="3" customFormat="1" spans="8:9">
       <c r="H81" s="9"/>
-      <c r="I81" s="12"/>
+      <c r="I81" s="13"/>
     </row>
     <row r="82" s="3" customFormat="1" spans="8:9">
       <c r="H82" s="9"/>
-      <c r="I82" s="12"/>
+      <c r="I82" s="13"/>
     </row>
     <row r="83" s="3" customFormat="1" spans="8:9">
       <c r="H83" s="9"/>
-      <c r="I83" s="12"/>
+      <c r="I83" s="13"/>
     </row>
     <row r="84" s="3" customFormat="1" spans="8:9">
       <c r="H84" s="9"/>
-      <c r="I84" s="12"/>
+      <c r="I84" s="13"/>
     </row>
     <row r="85" s="3" customFormat="1" spans="8:9">
       <c r="H85" s="9"/>
-      <c r="I85" s="12"/>
+      <c r="I85" s="13"/>
     </row>
     <row r="86" s="3" customFormat="1" spans="8:9">
       <c r="H86" s="9"/>
-      <c r="I86" s="12"/>
+      <c r="I86" s="13"/>
     </row>
     <row r="87" s="3" customFormat="1" spans="8:9">
       <c r="H87" s="9"/>
-      <c r="I87" s="12"/>
+      <c r="I87" s="13"/>
     </row>
     <row r="88" s="3" customFormat="1" spans="8:9">
       <c r="H88" s="9"/>
-      <c r="I88" s="12"/>
+      <c r="I88" s="13"/>
     </row>
     <row r="89" s="3" customFormat="1" spans="8:9">
       <c r="H89" s="9"/>
-      <c r="I89" s="12"/>
+      <c r="I89" s="13"/>
     </row>
     <row r="90" s="3" customFormat="1" spans="8:9">
       <c r="H90" s="9"/>
-      <c r="I90" s="12"/>
+      <c r="I90" s="13"/>
     </row>
     <row r="91" s="3" customFormat="1" spans="8:9">
       <c r="H91" s="9"/>
-      <c r="I91" s="12"/>
+      <c r="I91" s="13"/>
     </row>
     <row r="92" s="3" customFormat="1" spans="8:9">
       <c r="H92" s="9"/>
-      <c r="I92" s="12"/>
+      <c r="I92" s="13"/>
     </row>
     <row r="93" s="3" customFormat="1" spans="8:9">
       <c r="H93" s="9"/>
-      <c r="I93" s="12"/>
+      <c r="I93" s="13"/>
     </row>
     <row r="94" s="3" customFormat="1" spans="8:9">
       <c r="H94" s="9"/>
-      <c r="I94" s="12"/>
+      <c r="I94" s="13"/>
     </row>
     <row r="95" s="3" customFormat="1" spans="8:9">
       <c r="H95" s="9"/>
-      <c r="I95" s="12"/>
+      <c r="I95" s="13"/>
     </row>
     <row r="96" s="3" customFormat="1" spans="8:9">
       <c r="H96" s="9"/>
-      <c r="I96" s="12"/>
+      <c r="I96" s="13"/>
     </row>
     <row r="97" s="3" customFormat="1" spans="8:9">
       <c r="H97" s="9"/>
-      <c r="I97" s="12"/>
+      <c r="I97" s="13"/>
     </row>
     <row r="98" s="3" customFormat="1" spans="8:9">
       <c r="H98" s="9"/>
-      <c r="I98" s="12"/>
+      <c r="I98" s="13"/>
     </row>
     <row r="99" s="3" customFormat="1" spans="8:9">
       <c r="H99" s="9"/>
-      <c r="I99" s="12"/>
+      <c r="I99" s="13"/>
     </row>
     <row r="100" s="3" customFormat="1" spans="8:9">
       <c r="H100" s="9"/>
-      <c r="I100" s="12"/>
+      <c r="I100" s="13"/>
     </row>
     <row r="101" s="3" customFormat="1" spans="8:9">
       <c r="H101" s="9"/>
-      <c r="I101" s="12"/>
+      <c r="I101" s="13"/>
     </row>
     <row r="102" s="3" customFormat="1" spans="8:9">
       <c r="H102" s="9"/>
-      <c r="I102" s="12"/>
+      <c r="I102" s="13"/>
     </row>
     <row r="103" s="3" customFormat="1" spans="8:9">
       <c r="H103" s="9"/>
-      <c r="I103" s="12"/>
+      <c r="I103" s="13"/>
     </row>
     <row r="104" s="3" customFormat="1" spans="8:9">
       <c r="H104" s="9"/>
-      <c r="I104" s="12"/>
+      <c r="I104" s="13"/>
     </row>
     <row r="105" s="3" customFormat="1" spans="8:9">
       <c r="H105" s="9"/>
-      <c r="I105" s="12"/>
+      <c r="I105" s="13"/>
     </row>
     <row r="106" s="3" customFormat="1" spans="8:9">
       <c r="H106" s="9"/>
-      <c r="I106" s="12"/>
+      <c r="I106" s="13"/>
     </row>
     <row r="107" s="3" customFormat="1" spans="8:9">
       <c r="H107" s="9"/>
-      <c r="I107" s="12"/>
+      <c r="I107" s="13"/>
     </row>
     <row r="108" s="3" customFormat="1" spans="8:9">
       <c r="H108" s="9"/>
-      <c r="I108" s="12"/>
+      <c r="I108" s="13"/>
     </row>
     <row r="109" s="3" customFormat="1" spans="8:9">
       <c r="H109" s="9"/>
-      <c r="I109" s="12"/>
+      <c r="I109" s="13"/>
     </row>
     <row r="110" s="3" customFormat="1" spans="8:9">
       <c r="H110" s="9"/>
-      <c r="I110" s="12"/>
+      <c r="I110" s="13"/>
     </row>
     <row r="111" s="3" customFormat="1" spans="8:9">
       <c r="H111" s="9"/>
-      <c r="I111" s="12"/>
+      <c r="I111" s="13"/>
     </row>
     <row r="112" s="3" customFormat="1" spans="8:9">
       <c r="H112" s="9"/>
-      <c r="I112" s="12"/>
+      <c r="I112" s="13"/>
     </row>
     <row r="113" s="3" customFormat="1" spans="8:9">
       <c r="H113" s="9"/>
-      <c r="I113" s="12"/>
+      <c r="I113" s="13"/>
     </row>
     <row r="114" s="3" customFormat="1" spans="8:9">
       <c r="H114" s="9"/>
-      <c r="I114" s="12"/>
+      <c r="I114" s="13"/>
     </row>
     <row r="115" s="3" customFormat="1" spans="8:9">
       <c r="H115" s="9"/>
-      <c r="I115" s="12"/>
+      <c r="I115" s="13"/>
     </row>
     <row r="116" s="3" customFormat="1" spans="8:9">
       <c r="H116" s="9"/>
-      <c r="I116" s="12"/>
+      <c r="I116" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Doc/ExcelConfig/Datas/dota/RoundBoardChallengeConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/RoundBoardChallengeConfig.xlsx
@@ -1435,8 +1435,8 @@
   <sheetPr/>
   <dimension ref="A1:AE167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R$1:R$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AD5" sqref="AD5:AD124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14"/>
@@ -1805,9 +1805,7 @@
       <c r="AC5" s="11">
         <v>10</v>
       </c>
-      <c r="AD5" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD5" s="11"/>
       <c r="AE5" s="11"/>
     </row>
     <row r="6" s="3" customFormat="1" spans="2:31">
@@ -1875,9 +1873,7 @@
       <c r="AA6" s="11"/>
       <c r="AB6" s="11"/>
       <c r="AC6" s="11"/>
-      <c r="AD6" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD6" s="11"/>
       <c r="AE6" s="11"/>
     </row>
     <row r="7" s="3" customFormat="1" spans="2:31">
@@ -1948,9 +1944,7 @@
       <c r="AC7" s="11">
         <v>10</v>
       </c>
-      <c r="AD7" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD7" s="11"/>
       <c r="AE7" s="11"/>
     </row>
     <row r="8" s="3" customFormat="1" spans="2:31">
@@ -2019,9 +2013,7 @@
       <c r="AA8" s="11"/>
       <c r="AB8" s="11"/>
       <c r="AC8" s="11"/>
-      <c r="AD8" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD8" s="11"/>
       <c r="AE8" s="11"/>
     </row>
     <row r="9" s="3" customFormat="1" spans="2:31">
@@ -2092,9 +2084,7 @@
       <c r="AC9" s="11">
         <v>10</v>
       </c>
-      <c r="AD9" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD9" s="11"/>
       <c r="AE9" s="11"/>
     </row>
     <row r="10" s="3" customFormat="1" spans="2:31">
@@ -2163,9 +2153,7 @@
       <c r="AA10" s="11"/>
       <c r="AB10" s="11"/>
       <c r="AC10" s="11"/>
-      <c r="AD10" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD10" s="11"/>
       <c r="AE10" s="11"/>
     </row>
     <row r="11" s="3" customFormat="1" spans="2:31">
@@ -2236,9 +2224,7 @@
       <c r="AC11" s="11">
         <v>10</v>
       </c>
-      <c r="AD11" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD11" s="11"/>
       <c r="AE11" s="11"/>
     </row>
     <row r="12" s="3" customFormat="1" spans="2:31">
@@ -2307,9 +2293,7 @@
       <c r="AA12" s="11"/>
       <c r="AB12" s="11"/>
       <c r="AC12" s="11"/>
-      <c r="AD12" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD12" s="11"/>
       <c r="AE12" s="11"/>
     </row>
     <row r="13" s="3" customFormat="1" spans="2:31">
@@ -2380,9 +2364,7 @@
       <c r="AC13" s="11">
         <v>10</v>
       </c>
-      <c r="AD13" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD13" s="11"/>
       <c r="AE13" s="11"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="2:31">
@@ -2451,9 +2433,7 @@
       <c r="AA14" s="11"/>
       <c r="AB14" s="11"/>
       <c r="AC14" s="11"/>
-      <c r="AD14" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD14" s="11"/>
       <c r="AE14" s="11"/>
     </row>
     <row r="15" s="3" customFormat="1" spans="2:31">
@@ -2524,9 +2504,7 @@
       <c r="AC15" s="11">
         <v>10</v>
       </c>
-      <c r="AD15" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD15" s="11"/>
       <c r="AE15" s="11"/>
     </row>
     <row r="16" s="3" customFormat="1" spans="2:31">
@@ -2595,9 +2573,7 @@
       <c r="AA16" s="11"/>
       <c r="AB16" s="11"/>
       <c r="AC16" s="11"/>
-      <c r="AD16" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD16" s="11"/>
       <c r="AE16" s="11"/>
     </row>
     <row r="17" s="3" customFormat="1" spans="2:31">
@@ -2668,9 +2644,7 @@
       <c r="AC17" s="11">
         <v>10</v>
       </c>
-      <c r="AD17" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD17" s="11"/>
       <c r="AE17" s="11"/>
     </row>
     <row r="18" s="3" customFormat="1" spans="2:31">
@@ -2739,9 +2713,7 @@
       <c r="AA18" s="11"/>
       <c r="AB18" s="11"/>
       <c r="AC18" s="11"/>
-      <c r="AD18" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD18" s="11"/>
       <c r="AE18" s="11"/>
     </row>
     <row r="19" s="3" customFormat="1" spans="2:31">
@@ -2812,9 +2784,7 @@
       <c r="AC19" s="11">
         <v>10</v>
       </c>
-      <c r="AD19" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD19" s="11"/>
       <c r="AE19" s="11"/>
     </row>
     <row r="20" s="3" customFormat="1" spans="2:31">
@@ -2883,9 +2853,7 @@
       <c r="AA20" s="11"/>
       <c r="AB20" s="11"/>
       <c r="AC20" s="11"/>
-      <c r="AD20" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD20" s="11"/>
       <c r="AE20" s="11"/>
     </row>
     <row r="21" s="3" customFormat="1" spans="2:31">
@@ -2956,9 +2924,7 @@
       <c r="AC21" s="11">
         <v>10</v>
       </c>
-      <c r="AD21" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD21" s="11"/>
       <c r="AE21" s="11"/>
     </row>
     <row r="22" s="3" customFormat="1" spans="2:31">
@@ -3027,9 +2993,7 @@
       <c r="AA22" s="11"/>
       <c r="AB22" s="11"/>
       <c r="AC22" s="11"/>
-      <c r="AD22" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD22" s="11"/>
       <c r="AE22" s="11"/>
     </row>
     <row r="23" s="3" customFormat="1" spans="2:31">
@@ -3100,9 +3064,7 @@
       <c r="AC23" s="11">
         <v>10</v>
       </c>
-      <c r="AD23" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
     </row>
     <row r="24" s="3" customFormat="1" spans="2:31">
@@ -3171,9 +3133,7 @@
       <c r="AA24" s="11"/>
       <c r="AB24" s="11"/>
       <c r="AC24" s="11"/>
-      <c r="AD24" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD24" s="11"/>
       <c r="AE24" s="11"/>
     </row>
     <row r="25" s="3" customFormat="1" spans="2:31">
@@ -3244,9 +3204,7 @@
       <c r="AC25" s="11">
         <v>10</v>
       </c>
-      <c r="AD25" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD25" s="11"/>
       <c r="AE25" s="11"/>
     </row>
     <row r="26" s="3" customFormat="1" spans="2:31">
@@ -3315,9 +3273,7 @@
       <c r="AA26" s="11"/>
       <c r="AB26" s="11"/>
       <c r="AC26" s="11"/>
-      <c r="AD26" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD26" s="11"/>
       <c r="AE26" s="11"/>
     </row>
     <row r="27" s="3" customFormat="1" spans="2:31">
@@ -3388,9 +3344,7 @@
       <c r="AC27" s="11">
         <v>10</v>
       </c>
-      <c r="AD27" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD27" s="11"/>
       <c r="AE27" s="11"/>
     </row>
     <row r="28" s="3" customFormat="1" spans="2:31">
@@ -3459,9 +3413,7 @@
       <c r="AA28" s="11"/>
       <c r="AB28" s="11"/>
       <c r="AC28" s="11"/>
-      <c r="AD28" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD28" s="11"/>
       <c r="AE28" s="11"/>
     </row>
     <row r="29" s="3" customFormat="1" spans="2:31">
@@ -3532,9 +3484,7 @@
       <c r="AC29" s="11">
         <v>10</v>
       </c>
-      <c r="AD29" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD29" s="11"/>
       <c r="AE29" s="11"/>
     </row>
     <row r="30" s="3" customFormat="1" spans="2:31">
@@ -3603,9 +3553,7 @@
       <c r="AA30" s="11"/>
       <c r="AB30" s="11"/>
       <c r="AC30" s="11"/>
-      <c r="AD30" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD30" s="11"/>
       <c r="AE30" s="11"/>
     </row>
     <row r="31" s="3" customFormat="1" spans="2:31">
@@ -3676,9 +3624,7 @@
       <c r="AC31" s="11">
         <v>10</v>
       </c>
-      <c r="AD31" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD31" s="11"/>
       <c r="AE31" s="11"/>
     </row>
     <row r="32" s="3" customFormat="1" spans="2:31">
@@ -3747,9 +3693,7 @@
       <c r="AA32" s="11"/>
       <c r="AB32" s="11"/>
       <c r="AC32" s="11"/>
-      <c r="AD32" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD32" s="11"/>
       <c r="AE32" s="11"/>
     </row>
     <row r="33" s="3" customFormat="1" spans="2:31">
@@ -3820,9 +3764,7 @@
       <c r="AC33" s="11">
         <v>10</v>
       </c>
-      <c r="AD33" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD33" s="11"/>
       <c r="AE33" s="11"/>
     </row>
     <row r="34" s="3" customFormat="1" spans="2:31">
@@ -3891,9 +3833,7 @@
       <c r="AA34" s="11"/>
       <c r="AB34" s="11"/>
       <c r="AC34" s="11"/>
-      <c r="AD34" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD34" s="11"/>
       <c r="AE34" s="11"/>
     </row>
     <row r="35" s="3" customFormat="1" spans="2:31">
@@ -3964,9 +3904,7 @@
       <c r="AC35" s="11">
         <v>10</v>
       </c>
-      <c r="AD35" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD35" s="11"/>
       <c r="AE35" s="11"/>
     </row>
     <row r="36" s="3" customFormat="1" spans="2:31">
@@ -4035,9 +3973,7 @@
       <c r="AA36" s="11"/>
       <c r="AB36" s="11"/>
       <c r="AC36" s="11"/>
-      <c r="AD36" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD36" s="11"/>
       <c r="AE36" s="11"/>
     </row>
     <row r="37" s="3" customFormat="1" spans="2:31">
@@ -4108,9 +4044,7 @@
       <c r="AC37" s="11">
         <v>10</v>
       </c>
-      <c r="AD37" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD37" s="11"/>
       <c r="AE37" s="11"/>
     </row>
     <row r="38" s="3" customFormat="1" spans="2:31">
@@ -4179,9 +4113,7 @@
       <c r="AA38" s="11"/>
       <c r="AB38" s="11"/>
       <c r="AC38" s="11"/>
-      <c r="AD38" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD38" s="11"/>
       <c r="AE38" s="11"/>
     </row>
     <row r="39" s="3" customFormat="1" spans="2:31">
@@ -4252,9 +4184,7 @@
       <c r="AC39" s="11">
         <v>10</v>
       </c>
-      <c r="AD39" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD39" s="11"/>
       <c r="AE39" s="11"/>
     </row>
     <row r="40" s="3" customFormat="1" spans="2:31">
@@ -4323,9 +4253,7 @@
       <c r="AA40" s="11"/>
       <c r="AB40" s="11"/>
       <c r="AC40" s="11"/>
-      <c r="AD40" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD40" s="11"/>
       <c r="AE40" s="11"/>
     </row>
     <row r="41" s="3" customFormat="1" spans="2:31">
@@ -4396,9 +4324,7 @@
       <c r="AC41" s="11">
         <v>10</v>
       </c>
-      <c r="AD41" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD41" s="11"/>
       <c r="AE41" s="11"/>
     </row>
     <row r="42" s="3" customFormat="1" spans="2:31">
@@ -4467,9 +4393,7 @@
       <c r="AA42" s="11"/>
       <c r="AB42" s="11"/>
       <c r="AC42" s="11"/>
-      <c r="AD42" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD42" s="11"/>
       <c r="AE42" s="11"/>
     </row>
     <row r="43" s="3" customFormat="1" spans="2:31">
@@ -4540,9 +4464,7 @@
       <c r="AC43" s="11">
         <v>10</v>
       </c>
-      <c r="AD43" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD43" s="11"/>
       <c r="AE43" s="11"/>
     </row>
     <row r="44" s="3" customFormat="1" spans="2:31">
@@ -4611,9 +4533,7 @@
       <c r="AA44" s="11"/>
       <c r="AB44" s="11"/>
       <c r="AC44" s="11"/>
-      <c r="AD44" s="11">
-        <v>1</v>
-      </c>
+      <c r="AD44" s="11"/>
       <c r="AE44" s="11"/>
     </row>
     <row r="45" s="4" customFormat="1" spans="2:31">
@@ -4687,9 +4607,7 @@
       </c>
       <c r="AB45" s="12"/>
       <c r="AC45" s="12"/>
-      <c r="AD45" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD45" s="12"/>
       <c r="AE45" s="12"/>
     </row>
     <row r="46" s="4" customFormat="1" spans="2:31">
@@ -4757,9 +4675,7 @@
       </c>
       <c r="AB46" s="12"/>
       <c r="AC46" s="12"/>
-      <c r="AD46" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD46" s="12"/>
       <c r="AE46" s="12"/>
     </row>
     <row r="47" s="4" customFormat="1" spans="2:31">
@@ -4825,9 +4741,7 @@
       </c>
       <c r="AB47" s="12"/>
       <c r="AC47" s="12"/>
-      <c r="AD47" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD47" s="12"/>
       <c r="AE47" s="12"/>
     </row>
     <row r="48" s="4" customFormat="1" spans="2:31">
@@ -4895,9 +4809,7 @@
       </c>
       <c r="AB48" s="12"/>
       <c r="AC48" s="12"/>
-      <c r="AD48" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD48" s="12"/>
       <c r="AE48" s="12"/>
     </row>
     <row r="49" s="4" customFormat="1" spans="2:31">
@@ -4963,9 +4875,7 @@
       </c>
       <c r="AB49" s="12"/>
       <c r="AC49" s="12"/>
-      <c r="AD49" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD49" s="12"/>
       <c r="AE49" s="12"/>
     </row>
     <row r="50" s="4" customFormat="1" spans="2:31">
@@ -5033,9 +4943,7 @@
       </c>
       <c r="AB50" s="12"/>
       <c r="AC50" s="12"/>
-      <c r="AD50" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD50" s="12"/>
       <c r="AE50" s="12"/>
     </row>
     <row r="51" s="4" customFormat="1" spans="2:31">
@@ -5101,9 +5009,7 @@
       </c>
       <c r="AB51" s="12"/>
       <c r="AC51" s="12"/>
-      <c r="AD51" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD51" s="12"/>
       <c r="AE51" s="12"/>
     </row>
     <row r="52" s="4" customFormat="1" spans="2:31">
@@ -5171,9 +5077,7 @@
       </c>
       <c r="AB52" s="12"/>
       <c r="AC52" s="12"/>
-      <c r="AD52" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD52" s="12"/>
       <c r="AE52" s="12"/>
     </row>
     <row r="53" s="4" customFormat="1" spans="2:31">
@@ -5239,9 +5143,7 @@
       </c>
       <c r="AB53" s="12"/>
       <c r="AC53" s="12"/>
-      <c r="AD53" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD53" s="12"/>
       <c r="AE53" s="12"/>
     </row>
     <row r="54" s="4" customFormat="1" spans="2:31">
@@ -5309,9 +5211,7 @@
       </c>
       <c r="AB54" s="12"/>
       <c r="AC54" s="12"/>
-      <c r="AD54" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD54" s="12"/>
       <c r="AE54" s="12"/>
     </row>
     <row r="55" s="4" customFormat="1" spans="2:31">
@@ -5377,9 +5277,7 @@
       </c>
       <c r="AB55" s="12"/>
       <c r="AC55" s="12"/>
-      <c r="AD55" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD55" s="12"/>
       <c r="AE55" s="12"/>
     </row>
     <row r="56" s="4" customFormat="1" spans="2:31">
@@ -5447,9 +5345,7 @@
       </c>
       <c r="AB56" s="12"/>
       <c r="AC56" s="12"/>
-      <c r="AD56" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD56" s="12"/>
       <c r="AE56" s="12"/>
     </row>
     <row r="57" s="4" customFormat="1" spans="2:31">
@@ -5515,9 +5411,7 @@
       </c>
       <c r="AB57" s="12"/>
       <c r="AC57" s="12"/>
-      <c r="AD57" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD57" s="12"/>
       <c r="AE57" s="12"/>
     </row>
     <row r="58" s="4" customFormat="1" spans="2:31">
@@ -5585,9 +5479,7 @@
       </c>
       <c r="AB58" s="12"/>
       <c r="AC58" s="12"/>
-      <c r="AD58" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD58" s="12"/>
       <c r="AE58" s="12"/>
     </row>
     <row r="59" s="4" customFormat="1" spans="2:31">
@@ -5653,9 +5545,7 @@
       </c>
       <c r="AB59" s="12"/>
       <c r="AC59" s="12"/>
-      <c r="AD59" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD59" s="12"/>
       <c r="AE59" s="12"/>
     </row>
     <row r="60" s="4" customFormat="1" spans="2:31">
@@ -5723,9 +5613,7 @@
       </c>
       <c r="AB60" s="12"/>
       <c r="AC60" s="12"/>
-      <c r="AD60" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD60" s="12"/>
       <c r="AE60" s="12"/>
     </row>
     <row r="61" s="4" customFormat="1" spans="2:31">
@@ -5791,9 +5679,7 @@
       </c>
       <c r="AB61" s="12"/>
       <c r="AC61" s="12"/>
-      <c r="AD61" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD61" s="12"/>
       <c r="AE61" s="12"/>
     </row>
     <row r="62" s="4" customFormat="1" spans="2:31">
@@ -5861,9 +5747,7 @@
       </c>
       <c r="AB62" s="12"/>
       <c r="AC62" s="12"/>
-      <c r="AD62" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD62" s="12"/>
       <c r="AE62" s="12"/>
     </row>
     <row r="63" s="4" customFormat="1" spans="2:31">
@@ -5929,9 +5813,7 @@
       </c>
       <c r="AB63" s="12"/>
       <c r="AC63" s="12"/>
-      <c r="AD63" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD63" s="12"/>
       <c r="AE63" s="12"/>
     </row>
     <row r="64" s="4" customFormat="1" spans="2:31">
@@ -5999,9 +5881,7 @@
       </c>
       <c r="AB64" s="12"/>
       <c r="AC64" s="12"/>
-      <c r="AD64" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD64" s="12"/>
       <c r="AE64" s="12"/>
     </row>
     <row r="65" s="4" customFormat="1" spans="2:31">
@@ -6067,9 +5947,7 @@
       </c>
       <c r="AB65" s="12"/>
       <c r="AC65" s="12"/>
-      <c r="AD65" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD65" s="12"/>
       <c r="AE65" s="12"/>
     </row>
     <row r="66" s="4" customFormat="1" spans="2:31">
@@ -6137,9 +6015,7 @@
       </c>
       <c r="AB66" s="12"/>
       <c r="AC66" s="12"/>
-      <c r="AD66" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD66" s="12"/>
       <c r="AE66" s="12"/>
     </row>
     <row r="67" s="4" customFormat="1" spans="2:31">
@@ -6205,9 +6081,7 @@
       </c>
       <c r="AB67" s="12"/>
       <c r="AC67" s="12"/>
-      <c r="AD67" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD67" s="12"/>
       <c r="AE67" s="12"/>
     </row>
     <row r="68" s="4" customFormat="1" spans="2:31">
@@ -6275,9 +6149,7 @@
       </c>
       <c r="AB68" s="12"/>
       <c r="AC68" s="12"/>
-      <c r="AD68" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD68" s="12"/>
       <c r="AE68" s="12"/>
     </row>
     <row r="69" s="4" customFormat="1" spans="2:31">
@@ -6343,9 +6215,7 @@
       </c>
       <c r="AB69" s="12"/>
       <c r="AC69" s="12"/>
-      <c r="AD69" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD69" s="12"/>
       <c r="AE69" s="12"/>
     </row>
     <row r="70" s="4" customFormat="1" spans="2:31">
@@ -6413,9 +6283,7 @@
       </c>
       <c r="AB70" s="12"/>
       <c r="AC70" s="12"/>
-      <c r="AD70" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD70" s="12"/>
       <c r="AE70" s="12"/>
     </row>
     <row r="71" s="4" customFormat="1" spans="2:31">
@@ -6481,9 +6349,7 @@
       </c>
       <c r="AB71" s="12"/>
       <c r="AC71" s="12"/>
-      <c r="AD71" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD71" s="12"/>
       <c r="AE71" s="12"/>
     </row>
     <row r="72" s="4" customFormat="1" spans="2:31">
@@ -6551,9 +6417,7 @@
       </c>
       <c r="AB72" s="12"/>
       <c r="AC72" s="12"/>
-      <c r="AD72" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD72" s="12"/>
       <c r="AE72" s="12"/>
     </row>
     <row r="73" s="4" customFormat="1" spans="2:31">
@@ -6619,9 +6483,7 @@
       </c>
       <c r="AB73" s="12"/>
       <c r="AC73" s="12"/>
-      <c r="AD73" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD73" s="12"/>
       <c r="AE73" s="12"/>
     </row>
     <row r="74" s="4" customFormat="1" spans="2:31">
@@ -6689,9 +6551,7 @@
       </c>
       <c r="AB74" s="12"/>
       <c r="AC74" s="12"/>
-      <c r="AD74" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD74" s="12"/>
       <c r="AE74" s="12"/>
     </row>
     <row r="75" s="4" customFormat="1" spans="2:31">
@@ -6757,9 +6617,7 @@
       </c>
       <c r="AB75" s="12"/>
       <c r="AC75" s="12"/>
-      <c r="AD75" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD75" s="12"/>
       <c r="AE75" s="12"/>
     </row>
     <row r="76" s="4" customFormat="1" spans="2:31">
@@ -6827,9 +6685,7 @@
       </c>
       <c r="AB76" s="12"/>
       <c r="AC76" s="12"/>
-      <c r="AD76" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD76" s="12"/>
       <c r="AE76" s="12"/>
     </row>
     <row r="77" s="4" customFormat="1" spans="2:31">
@@ -6895,9 +6751,7 @@
       </c>
       <c r="AB77" s="12"/>
       <c r="AC77" s="12"/>
-      <c r="AD77" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD77" s="12"/>
       <c r="AE77" s="12"/>
     </row>
     <row r="78" s="4" customFormat="1" spans="2:31">
@@ -6965,9 +6819,7 @@
       </c>
       <c r="AB78" s="12"/>
       <c r="AC78" s="12"/>
-      <c r="AD78" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD78" s="12"/>
       <c r="AE78" s="12"/>
     </row>
     <row r="79" s="4" customFormat="1" spans="2:31">
@@ -7033,9 +6885,7 @@
       </c>
       <c r="AB79" s="12"/>
       <c r="AC79" s="12"/>
-      <c r="AD79" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD79" s="12"/>
       <c r="AE79" s="12"/>
     </row>
     <row r="80" s="4" customFormat="1" spans="2:31">
@@ -7103,9 +6953,7 @@
       </c>
       <c r="AB80" s="12"/>
       <c r="AC80" s="12"/>
-      <c r="AD80" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD80" s="12"/>
       <c r="AE80" s="12"/>
     </row>
     <row r="81" s="4" customFormat="1" spans="2:31">
@@ -7171,9 +7019,7 @@
       </c>
       <c r="AB81" s="12"/>
       <c r="AC81" s="12"/>
-      <c r="AD81" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD81" s="12"/>
       <c r="AE81" s="12"/>
     </row>
     <row r="82" s="4" customFormat="1" spans="2:31">
@@ -7241,9 +7087,7 @@
       </c>
       <c r="AB82" s="12"/>
       <c r="AC82" s="12"/>
-      <c r="AD82" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD82" s="12"/>
       <c r="AE82" s="12"/>
     </row>
     <row r="83" s="4" customFormat="1" spans="2:31">
@@ -7309,9 +7153,7 @@
       </c>
       <c r="AB83" s="12"/>
       <c r="AC83" s="12"/>
-      <c r="AD83" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD83" s="12"/>
       <c r="AE83" s="12"/>
     </row>
     <row r="84" s="4" customFormat="1" spans="2:31">
@@ -7379,9 +7221,7 @@
       </c>
       <c r="AB84" s="12"/>
       <c r="AC84" s="12"/>
-      <c r="AD84" s="12">
-        <v>1</v>
-      </c>
+      <c r="AD84" s="12"/>
       <c r="AE84" s="12"/>
     </row>
     <row r="85" s="5" customFormat="1" spans="2:31">
@@ -7455,9 +7295,7 @@
       <c r="AA85" s="18"/>
       <c r="AB85" s="18"/>
       <c r="AC85" s="18"/>
-      <c r="AD85" s="18">
-        <v>1</v>
-      </c>
+      <c r="AD85" s="18"/>
       <c r="AE85" s="18"/>
     </row>
     <row r="86" s="5" customFormat="1" spans="2:31">
@@ -7523,9 +7361,7 @@
       <c r="AA86" s="18"/>
       <c r="AB86" s="18"/>
       <c r="AC86" s="18"/>
-      <c r="AD86" s="18">
-        <v>5</v>
-      </c>
+      <c r="AD86" s="18"/>
       <c r="AE86" s="18"/>
     </row>
     <row r="87" s="5" customFormat="1" spans="2:31">
@@ -7591,9 +7427,7 @@
       <c r="AA87" s="18"/>
       <c r="AB87" s="18"/>
       <c r="AC87" s="18"/>
-      <c r="AD87" s="18">
-        <v>4</v>
-      </c>
+      <c r="AD87" s="18"/>
       <c r="AE87" s="18"/>
     </row>
     <row r="88" s="5" customFormat="1" spans="2:31">
@@ -7659,9 +7493,7 @@
       <c r="AA88" s="18"/>
       <c r="AB88" s="18"/>
       <c r="AC88" s="18"/>
-      <c r="AD88" s="18">
-        <v>5</v>
-      </c>
+      <c r="AD88" s="18"/>
       <c r="AE88" s="18"/>
     </row>
     <row r="89" s="5" customFormat="1" spans="2:31">
@@ -7727,9 +7559,7 @@
       <c r="AA89" s="18"/>
       <c r="AB89" s="18"/>
       <c r="AC89" s="18"/>
-      <c r="AD89" s="18">
-        <v>6</v>
-      </c>
+      <c r="AD89" s="18"/>
       <c r="AE89" s="18"/>
     </row>
     <row r="90" s="5" customFormat="1" spans="2:31">
@@ -8125,9 +7955,7 @@
       <c r="AA95" s="18"/>
       <c r="AB95" s="18"/>
       <c r="AC95" s="18"/>
-      <c r="AD95" s="18">
-        <v>1</v>
-      </c>
+      <c r="AD95" s="18"/>
       <c r="AE95" s="18"/>
     </row>
     <row r="96" s="5" customFormat="1" spans="2:31">
@@ -8193,9 +8021,7 @@
       <c r="AA96" s="18"/>
       <c r="AB96" s="18"/>
       <c r="AC96" s="18"/>
-      <c r="AD96" s="18">
-        <v>5</v>
-      </c>
+      <c r="AD96" s="18"/>
       <c r="AE96" s="18"/>
     </row>
     <row r="97" s="5" customFormat="1" spans="2:31">
@@ -8261,9 +8087,7 @@
       <c r="AA97" s="18"/>
       <c r="AB97" s="18"/>
       <c r="AC97" s="18"/>
-      <c r="AD97" s="18">
-        <v>4</v>
-      </c>
+      <c r="AD97" s="18"/>
       <c r="AE97" s="18"/>
     </row>
     <row r="98" s="5" customFormat="1" spans="2:31">
@@ -8329,9 +8153,7 @@
       <c r="AA98" s="18"/>
       <c r="AB98" s="18"/>
       <c r="AC98" s="18"/>
-      <c r="AD98" s="18">
-        <v>5</v>
-      </c>
+      <c r="AD98" s="18"/>
       <c r="AE98" s="18"/>
     </row>
     <row r="99" s="5" customFormat="1" spans="2:31">
@@ -8397,9 +8219,7 @@
       <c r="AA99" s="18"/>
       <c r="AB99" s="18"/>
       <c r="AC99" s="18"/>
-      <c r="AD99" s="18">
-        <v>6</v>
-      </c>
+      <c r="AD99" s="18"/>
       <c r="AE99" s="18"/>
     </row>
     <row r="100" s="5" customFormat="1" spans="2:31">
@@ -8803,9 +8623,7 @@
       <c r="AA105" s="19"/>
       <c r="AB105" s="19"/>
       <c r="AC105" s="19"/>
-      <c r="AD105" s="19">
-        <v>2</v>
-      </c>
+      <c r="AD105" s="19"/>
       <c r="AE105" s="19"/>
     </row>
     <row r="106" s="6" customFormat="1" spans="2:31">
@@ -8871,9 +8689,7 @@
       <c r="AA106" s="19"/>
       <c r="AB106" s="19"/>
       <c r="AC106" s="19"/>
-      <c r="AD106" s="19">
-        <v>4</v>
-      </c>
+      <c r="AD106" s="19"/>
       <c r="AE106" s="19"/>
     </row>
     <row r="107" s="6" customFormat="1" spans="2:31">
@@ -8939,9 +8755,7 @@
       <c r="AA107" s="19"/>
       <c r="AB107" s="19"/>
       <c r="AC107" s="19"/>
-      <c r="AD107" s="19">
-        <v>5</v>
-      </c>
+      <c r="AD107" s="19"/>
       <c r="AE107" s="19"/>
     </row>
     <row r="108" s="6" customFormat="1" spans="2:31">
@@ -9007,9 +8821,7 @@
       <c r="AA108" s="19"/>
       <c r="AB108" s="19"/>
       <c r="AC108" s="19"/>
-      <c r="AD108" s="19">
-        <v>4</v>
-      </c>
+      <c r="AD108" s="19"/>
       <c r="AE108" s="19"/>
     </row>
     <row r="109" s="6" customFormat="1" spans="2:31">
@@ -9075,9 +8887,7 @@
       <c r="AA109" s="19"/>
       <c r="AB109" s="19"/>
       <c r="AC109" s="19"/>
-      <c r="AD109" s="19">
-        <v>6</v>
-      </c>
+      <c r="AD109" s="19"/>
       <c r="AE109" s="19"/>
     </row>
     <row r="110" s="6" customFormat="1" spans="2:31">
@@ -9209,9 +9019,7 @@
       <c r="AA111" s="19"/>
       <c r="AB111" s="19"/>
       <c r="AC111" s="19"/>
-      <c r="AD111" s="19">
-        <v>6</v>
-      </c>
+      <c r="AD111" s="19"/>
       <c r="AE111" s="19"/>
     </row>
     <row r="112" s="6" customFormat="1" spans="2:31">
@@ -9343,9 +9151,7 @@
       <c r="AA113" s="19"/>
       <c r="AB113" s="19"/>
       <c r="AC113" s="19"/>
-      <c r="AD113" s="19">
-        <v>6</v>
-      </c>
+      <c r="AD113" s="19"/>
       <c r="AE113" s="19"/>
     </row>
     <row r="114" s="6" customFormat="1" spans="2:31">
@@ -9477,9 +9283,7 @@
       <c r="AA115" s="19"/>
       <c r="AB115" s="19"/>
       <c r="AC115" s="19"/>
-      <c r="AD115" s="19">
-        <v>2</v>
-      </c>
+      <c r="AD115" s="19"/>
       <c r="AE115" s="19"/>
     </row>
     <row r="116" s="6" customFormat="1" spans="2:31">
@@ -9545,9 +9349,7 @@
       <c r="AA116" s="19"/>
       <c r="AB116" s="19"/>
       <c r="AC116" s="19"/>
-      <c r="AD116" s="19">
-        <v>4</v>
-      </c>
+      <c r="AD116" s="19"/>
       <c r="AE116" s="19"/>
     </row>
     <row r="117" s="6" customFormat="1" spans="2:31">
@@ -9613,9 +9415,7 @@
       <c r="AA117" s="19"/>
       <c r="AB117" s="19"/>
       <c r="AC117" s="19"/>
-      <c r="AD117" s="19">
-        <v>5</v>
-      </c>
+      <c r="AD117" s="19"/>
       <c r="AE117" s="19"/>
     </row>
     <row r="118" s="6" customFormat="1" spans="2:31">
@@ -9681,9 +9481,7 @@
       <c r="AA118" s="19"/>
       <c r="AB118" s="19"/>
       <c r="AC118" s="19"/>
-      <c r="AD118" s="19">
-        <v>4</v>
-      </c>
+      <c r="AD118" s="19"/>
       <c r="AE118" s="19"/>
     </row>
     <row r="119" s="6" customFormat="1" spans="2:31">
@@ -9749,9 +9547,7 @@
       <c r="AA119" s="19"/>
       <c r="AB119" s="19"/>
       <c r="AC119" s="19"/>
-      <c r="AD119" s="19">
-        <v>6</v>
-      </c>
+      <c r="AD119" s="19"/>
       <c r="AE119" s="19"/>
     </row>
     <row r="120" s="6" customFormat="1" spans="2:31">
@@ -9883,9 +9679,7 @@
       <c r="AA121" s="19"/>
       <c r="AB121" s="19"/>
       <c r="AC121" s="19"/>
-      <c r="AD121" s="19">
-        <v>6</v>
-      </c>
+      <c r="AD121" s="19"/>
       <c r="AE121" s="19"/>
     </row>
     <row r="122" s="6" customFormat="1" spans="2:31">
@@ -10017,9 +9811,7 @@
       <c r="AA123" s="19"/>
       <c r="AB123" s="19"/>
       <c r="AC123" s="19"/>
-      <c r="AD123" s="19">
-        <v>6</v>
-      </c>
+      <c r="AD123" s="19"/>
       <c r="AE123" s="19"/>
     </row>
     <row r="124" s="6" customFormat="1" spans="2:31">

--- a/Doc/ExcelConfig/Datas/dota/RoundBoardChallengeConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/RoundBoardChallengeConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="114">
   <si>
     <t>##</t>
   </si>
@@ -120,9 +120,6 @@
     <t>elite_drop_index</t>
   </si>
   <si>
-    <t>spawn_buff</t>
-  </si>
-  <si>
     <t>回合编号</t>
   </si>
   <si>
@@ -208,9 +205,6 @@
   </si>
   <si>
     <t>精英怪掉落池编号</t>
-  </si>
-  <si>
-    <t>单位自带buff</t>
   </si>
   <si>
     <t>n1_gold</t>
@@ -1433,10 +1427,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE167"/>
+  <dimension ref="A1:AD167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5:AD124"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE$1:AE$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14"/>
@@ -1463,11 +1457,10 @@
     <col min="24" max="24" width="20.9090909090909" style="3" customWidth="1"/>
     <col min="25" max="29" width="21.8181818181818" style="3" customWidth="1"/>
     <col min="30" max="30" width="18.3636363636364" style="3" customWidth="1"/>
-    <col min="31" max="31" width="13.1818181818182" style="3" customWidth="1"/>
-    <col min="32" max="16384" width="9.81818181818182" style="3"/>
+    <col min="31" max="16384" width="9.81818181818182" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:31">
+    <row r="1" s="1" customFormat="1" spans="1:30">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1509,9 +1502,8 @@
       <c r="AB1" s="9"/>
       <c r="AC1" s="9"/>
       <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-    </row>
-    <row r="2" spans="1:31">
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
@@ -1552,9 +1544,8 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:31">
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:30">
       <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
@@ -1631,114 +1622,108 @@
       <c r="AD3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AE3" s="8" t="s">
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:31">
-      <c r="A4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="M4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="N4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="O4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="P4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="Q4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="R4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="17" t="s">
+      <c r="S4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="T4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="U4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="V4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="W4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="X4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="Y4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y4" s="11" t="s">
+      <c r="Z4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="AA4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AA4" s="11" t="s">
+      <c r="AB4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AB4" s="11" t="s">
+      <c r="AC4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AC4" s="11" t="s">
+      <c r="AD4" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AD4" s="11" t="s">
+    </row>
+    <row r="5" s="3" customFormat="1" spans="2:30">
+      <c r="B5" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AE4" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="2:31">
-      <c r="B5" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="E5" s="11">
         <v>1</v>
@@ -1751,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J5" s="11">
         <v>1</v>
@@ -1806,9 +1791,8 @@
         <v>10</v>
       </c>
       <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="6" s="3" customFormat="1" spans="2:30">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -1821,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J6" s="11">
         <v>1</v>
@@ -1846,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S6" s="11">
         <v>1</v>
@@ -1874,9 +1858,8 @@
       <c r="AB6" s="11"/>
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="7" s="3" customFormat="1" spans="2:30">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1890,7 +1873,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J7" s="11">
         <v>1</v>
@@ -1945,9 +1928,8 @@
         <v>10</v>
       </c>
       <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="8" s="3" customFormat="1" spans="2:30">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -1961,7 +1943,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J8" s="11">
         <v>1</v>
@@ -1986,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S8" s="11">
         <v>1</v>
@@ -2014,9 +1996,8 @@
       <c r="AB8" s="11"/>
       <c r="AC8" s="11"/>
       <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="9" s="3" customFormat="1" spans="2:30">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -2030,7 +2011,7 @@
         <v>3</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J9" s="11">
         <v>1</v>
@@ -2085,9 +2066,8 @@
         <v>10</v>
       </c>
       <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="10" s="3" customFormat="1" spans="2:30">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -2101,7 +2081,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J10" s="11">
         <v>1</v>
@@ -2126,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S10" s="11">
         <v>1</v>
@@ -2154,9 +2134,8 @@
       <c r="AB10" s="11"/>
       <c r="AC10" s="11"/>
       <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="11" s="3" customFormat="1" spans="2:30">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -2170,7 +2149,7 @@
         <v>4</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J11" s="11">
         <v>1</v>
@@ -2225,9 +2204,8 @@
         <v>10</v>
       </c>
       <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="12" s="3" customFormat="1" spans="2:30">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -2241,7 +2219,7 @@
         <v>4</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J12" s="11">
         <v>1</v>
@@ -2266,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S12" s="11">
         <v>1</v>
@@ -2294,9 +2272,8 @@
       <c r="AB12" s="11"/>
       <c r="AC12" s="11"/>
       <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="13" s="3" customFormat="1" spans="2:30">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -2310,7 +2287,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J13" s="11">
         <v>1</v>
@@ -2365,9 +2342,8 @@
         <v>10</v>
       </c>
       <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="14" s="3" customFormat="1" spans="2:30">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -2381,7 +2357,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J14" s="11">
         <v>1</v>
@@ -2406,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S14" s="11">
         <v>1</v>
@@ -2434,9 +2410,8 @@
       <c r="AB14" s="11"/>
       <c r="AC14" s="11"/>
       <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="15" s="3" customFormat="1" spans="2:30">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -2450,7 +2425,7 @@
         <v>6</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J15" s="11">
         <v>1</v>
@@ -2505,9 +2480,8 @@
         <v>10</v>
       </c>
       <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="16" s="3" customFormat="1" spans="2:30">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -2521,7 +2495,7 @@
         <v>6</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J16" s="11">
         <v>1</v>
@@ -2546,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S16" s="11">
         <v>1</v>
@@ -2574,9 +2548,8 @@
       <c r="AB16" s="11"/>
       <c r="AC16" s="11"/>
       <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="17" s="3" customFormat="1" spans="2:30">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -2590,7 +2563,7 @@
         <v>7</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J17" s="11">
         <v>1</v>
@@ -2645,9 +2618,8 @@
         <v>10</v>
       </c>
       <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="18" s="3" customFormat="1" spans="2:30">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -2661,7 +2633,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J18" s="11">
         <v>1</v>
@@ -2686,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S18" s="11">
         <v>1</v>
@@ -2714,9 +2686,8 @@
       <c r="AB18" s="11"/>
       <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="19" s="3" customFormat="1" spans="2:30">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -2730,7 +2701,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J19" s="11">
         <v>1</v>
@@ -2785,9 +2756,8 @@
         <v>10</v>
       </c>
       <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-    </row>
-    <row r="20" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="20" s="3" customFormat="1" spans="2:30">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -2801,7 +2771,7 @@
         <v>8</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J20" s="11">
         <v>1</v>
@@ -2826,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S20" s="11">
         <v>1</v>
@@ -2854,9 +2824,8 @@
       <c r="AB20" s="11"/>
       <c r="AC20" s="11"/>
       <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="21" s="3" customFormat="1" spans="2:30">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -2870,7 +2839,7 @@
         <v>9</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J21" s="11">
         <v>1</v>
@@ -2925,9 +2894,8 @@
         <v>10</v>
       </c>
       <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-    </row>
-    <row r="22" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="22" s="3" customFormat="1" spans="2:30">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -2941,7 +2909,7 @@
         <v>9</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J22" s="11">
         <v>1</v>
@@ -2966,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S22" s="11">
         <v>1</v>
@@ -2994,9 +2962,8 @@
       <c r="AB22" s="11"/>
       <c r="AC22" s="11"/>
       <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-    </row>
-    <row r="23" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="23" s="3" customFormat="1" spans="2:30">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -3010,7 +2977,7 @@
         <v>10</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J23" s="11">
         <v>1</v>
@@ -3065,9 +3032,8 @@
         <v>10</v>
       </c>
       <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-    </row>
-    <row r="24" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="24" s="3" customFormat="1" spans="2:30">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -3081,7 +3047,7 @@
         <v>10</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J24" s="11">
         <v>1</v>
@@ -3106,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S24" s="11">
         <v>1</v>
@@ -3134,9 +3100,8 @@
       <c r="AB24" s="11"/>
       <c r="AC24" s="11"/>
       <c r="AD24" s="11"/>
-      <c r="AE24" s="11"/>
-    </row>
-    <row r="25" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="25" s="3" customFormat="1" spans="2:30">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -3150,7 +3115,7 @@
         <v>11</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J25" s="11">
         <v>1</v>
@@ -3205,9 +3170,8 @@
         <v>10</v>
       </c>
       <c r="AD25" s="11"/>
-      <c r="AE25" s="11"/>
-    </row>
-    <row r="26" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="26" s="3" customFormat="1" spans="2:30">
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -3221,7 +3185,7 @@
         <v>11</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J26" s="11">
         <v>1</v>
@@ -3246,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S26" s="11">
         <v>1</v>
@@ -3274,9 +3238,8 @@
       <c r="AB26" s="11"/>
       <c r="AC26" s="11"/>
       <c r="AD26" s="11"/>
-      <c r="AE26" s="11"/>
-    </row>
-    <row r="27" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="27" s="3" customFormat="1" spans="2:30">
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -3290,7 +3253,7 @@
         <v>12</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J27" s="11">
         <v>1</v>
@@ -3345,9 +3308,8 @@
         <v>10</v>
       </c>
       <c r="AD27" s="11"/>
-      <c r="AE27" s="11"/>
-    </row>
-    <row r="28" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="28" s="3" customFormat="1" spans="2:30">
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -3361,7 +3323,7 @@
         <v>12</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J28" s="11">
         <v>1</v>
@@ -3386,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S28" s="11">
         <v>1</v>
@@ -3414,9 +3376,8 @@
       <c r="AB28" s="11"/>
       <c r="AC28" s="11"/>
       <c r="AD28" s="11"/>
-      <c r="AE28" s="11"/>
-    </row>
-    <row r="29" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="29" s="3" customFormat="1" spans="2:30">
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -3430,7 +3391,7 @@
         <v>13</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J29" s="11">
         <v>1</v>
@@ -3485,9 +3446,8 @@
         <v>10</v>
       </c>
       <c r="AD29" s="11"/>
-      <c r="AE29" s="11"/>
-    </row>
-    <row r="30" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="30" s="3" customFormat="1" spans="2:30">
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -3501,7 +3461,7 @@
         <v>13</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J30" s="11">
         <v>1</v>
@@ -3526,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S30" s="11">
         <v>1</v>
@@ -3554,9 +3514,8 @@
       <c r="AB30" s="11"/>
       <c r="AC30" s="11"/>
       <c r="AD30" s="11"/>
-      <c r="AE30" s="11"/>
-    </row>
-    <row r="31" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="31" s="3" customFormat="1" spans="2:30">
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -3570,7 +3529,7 @@
         <v>14</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J31" s="11">
         <v>1</v>
@@ -3625,9 +3584,8 @@
         <v>10</v>
       </c>
       <c r="AD31" s="11"/>
-      <c r="AE31" s="11"/>
-    </row>
-    <row r="32" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="32" s="3" customFormat="1" spans="2:30">
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -3641,7 +3599,7 @@
         <v>14</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J32" s="11">
         <v>1</v>
@@ -3666,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="R32" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S32" s="11">
         <v>1</v>
@@ -3694,9 +3652,8 @@
       <c r="AB32" s="11"/>
       <c r="AC32" s="11"/>
       <c r="AD32" s="11"/>
-      <c r="AE32" s="11"/>
-    </row>
-    <row r="33" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="33" s="3" customFormat="1" spans="2:30">
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -3710,7 +3667,7 @@
         <v>15</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J33" s="11">
         <v>1</v>
@@ -3765,9 +3722,8 @@
         <v>10</v>
       </c>
       <c r="AD33" s="11"/>
-      <c r="AE33" s="11"/>
-    </row>
-    <row r="34" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="34" s="3" customFormat="1" spans="2:30">
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -3781,7 +3737,7 @@
         <v>15</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J34" s="11">
         <v>1</v>
@@ -3806,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S34" s="11">
         <v>1</v>
@@ -3834,9 +3790,8 @@
       <c r="AB34" s="11"/>
       <c r="AC34" s="11"/>
       <c r="AD34" s="11"/>
-      <c r="AE34" s="11"/>
-    </row>
-    <row r="35" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="35" s="3" customFormat="1" spans="2:30">
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -3850,7 +3805,7 @@
         <v>16</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J35" s="11">
         <v>1</v>
@@ -3905,9 +3860,8 @@
         <v>10</v>
       </c>
       <c r="AD35" s="11"/>
-      <c r="AE35" s="11"/>
-    </row>
-    <row r="36" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="36" s="3" customFormat="1" spans="2:30">
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -3921,7 +3875,7 @@
         <v>16</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J36" s="11">
         <v>1</v>
@@ -3946,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="R36" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S36" s="11">
         <v>1</v>
@@ -3974,9 +3928,8 @@
       <c r="AB36" s="11"/>
       <c r="AC36" s="11"/>
       <c r="AD36" s="11"/>
-      <c r="AE36" s="11"/>
-    </row>
-    <row r="37" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="37" s="3" customFormat="1" spans="2:30">
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -3990,7 +3943,7 @@
         <v>17</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J37" s="11">
         <v>1</v>
@@ -4045,9 +3998,8 @@
         <v>10</v>
       </c>
       <c r="AD37" s="11"/>
-      <c r="AE37" s="11"/>
-    </row>
-    <row r="38" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="38" s="3" customFormat="1" spans="2:30">
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -4061,7 +4013,7 @@
         <v>17</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J38" s="11">
         <v>1</v>
@@ -4086,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S38" s="11">
         <v>1</v>
@@ -4114,9 +4066,8 @@
       <c r="AB38" s="11"/>
       <c r="AC38" s="11"/>
       <c r="AD38" s="11"/>
-      <c r="AE38" s="11"/>
-    </row>
-    <row r="39" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="39" s="3" customFormat="1" spans="2:30">
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -4130,7 +4081,7 @@
         <v>18</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J39" s="11">
         <v>1</v>
@@ -4185,9 +4136,8 @@
         <v>10</v>
       </c>
       <c r="AD39" s="11"/>
-      <c r="AE39" s="11"/>
-    </row>
-    <row r="40" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="40" s="3" customFormat="1" spans="2:30">
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -4201,7 +4151,7 @@
         <v>18</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J40" s="11">
         <v>1</v>
@@ -4226,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="R40" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S40" s="11">
         <v>1</v>
@@ -4254,9 +4204,8 @@
       <c r="AB40" s="11"/>
       <c r="AC40" s="11"/>
       <c r="AD40" s="11"/>
-      <c r="AE40" s="11"/>
-    </row>
-    <row r="41" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="41" s="3" customFormat="1" spans="2:30">
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -4270,7 +4219,7 @@
         <v>19</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J41" s="11">
         <v>1</v>
@@ -4325,9 +4274,8 @@
         <v>10</v>
       </c>
       <c r="AD41" s="11"/>
-      <c r="AE41" s="11"/>
-    </row>
-    <row r="42" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="42" s="3" customFormat="1" spans="2:30">
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -4341,7 +4289,7 @@
         <v>19</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J42" s="11">
         <v>1</v>
@@ -4366,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S42" s="11">
         <v>1</v>
@@ -4394,9 +4342,8 @@
       <c r="AB42" s="11"/>
       <c r="AC42" s="11"/>
       <c r="AD42" s="11"/>
-      <c r="AE42" s="11"/>
-    </row>
-    <row r="43" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="43" s="3" customFormat="1" spans="2:30">
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -4410,7 +4357,7 @@
         <v>20</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J43" s="11">
         <v>1</v>
@@ -4465,9 +4412,8 @@
         <v>10</v>
       </c>
       <c r="AD43" s="11"/>
-      <c r="AE43" s="11"/>
-    </row>
-    <row r="44" s="3" customFormat="1" spans="2:31">
+    </row>
+    <row r="44" s="3" customFormat="1" spans="2:30">
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -4481,7 +4427,7 @@
         <v>20</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J44" s="11">
         <v>1</v>
@@ -4506,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="R44" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S44" s="11">
         <v>1</v>
@@ -4534,17 +4480,16 @@
       <c r="AB44" s="11"/>
       <c r="AC44" s="11"/>
       <c r="AD44" s="11"/>
-      <c r="AE44" s="11"/>
-    </row>
-    <row r="45" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="45" s="4" customFormat="1" spans="2:30">
       <c r="B45" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E45" s="12">
         <v>1</v>
@@ -4557,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J45" s="12">
         <v>1</v>
@@ -4608,9 +4553,8 @@
       <c r="AB45" s="12"/>
       <c r="AC45" s="12"/>
       <c r="AD45" s="12"/>
-      <c r="AE45" s="12"/>
-    </row>
-    <row r="46" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="46" s="4" customFormat="1" spans="2:30">
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -4623,7 +4567,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J46" s="12">
         <v>1</v>
@@ -4648,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="R46" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S46" s="12">
         <v>1</v>
@@ -4676,9 +4620,8 @@
       <c r="AB46" s="12"/>
       <c r="AC46" s="12"/>
       <c r="AD46" s="12"/>
-      <c r="AE46" s="12"/>
-    </row>
-    <row r="47" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="47" s="4" customFormat="1" spans="2:30">
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -4691,7 +4634,7 @@
         <v>2</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J47" s="12">
         <v>1</v>
@@ -4742,9 +4685,8 @@
       <c r="AB47" s="12"/>
       <c r="AC47" s="12"/>
       <c r="AD47" s="12"/>
-      <c r="AE47" s="12"/>
-    </row>
-    <row r="48" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="48" s="4" customFormat="1" spans="2:30">
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -4757,7 +4699,7 @@
         <v>2</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J48" s="12">
         <v>1</v>
@@ -4782,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="R48" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S48" s="12">
         <v>1</v>
@@ -4810,9 +4752,8 @@
       <c r="AB48" s="12"/>
       <c r="AC48" s="12"/>
       <c r="AD48" s="12"/>
-      <c r="AE48" s="12"/>
-    </row>
-    <row r="49" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="49" s="4" customFormat="1" spans="2:30">
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -4825,7 +4766,7 @@
         <v>3</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J49" s="12">
         <v>1</v>
@@ -4876,9 +4817,8 @@
       <c r="AB49" s="12"/>
       <c r="AC49" s="12"/>
       <c r="AD49" s="12"/>
-      <c r="AE49" s="12"/>
-    </row>
-    <row r="50" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="50" s="4" customFormat="1" spans="2:30">
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -4891,7 +4831,7 @@
         <v>3</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J50" s="12">
         <v>1</v>
@@ -4916,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="R50" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S50" s="12">
         <v>1</v>
@@ -4944,9 +4884,8 @@
       <c r="AB50" s="12"/>
       <c r="AC50" s="12"/>
       <c r="AD50" s="12"/>
-      <c r="AE50" s="12"/>
-    </row>
-    <row r="51" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="51" s="4" customFormat="1" spans="2:30">
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
@@ -4959,7 +4898,7 @@
         <v>4</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J51" s="12">
         <v>1</v>
@@ -5010,9 +4949,8 @@
       <c r="AB51" s="12"/>
       <c r="AC51" s="12"/>
       <c r="AD51" s="12"/>
-      <c r="AE51" s="12"/>
-    </row>
-    <row r="52" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="52" s="4" customFormat="1" spans="2:30">
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -5025,7 +4963,7 @@
         <v>4</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J52" s="12">
         <v>1</v>
@@ -5050,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="R52" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S52" s="12">
         <v>1</v>
@@ -5078,9 +5016,8 @@
       <c r="AB52" s="12"/>
       <c r="AC52" s="12"/>
       <c r="AD52" s="12"/>
-      <c r="AE52" s="12"/>
-    </row>
-    <row r="53" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="53" s="4" customFormat="1" spans="2:30">
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -5093,7 +5030,7 @@
         <v>5</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J53" s="12">
         <v>1</v>
@@ -5144,9 +5081,8 @@
       <c r="AB53" s="12"/>
       <c r="AC53" s="12"/>
       <c r="AD53" s="12"/>
-      <c r="AE53" s="12"/>
-    </row>
-    <row r="54" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="54" s="4" customFormat="1" spans="2:30">
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -5159,7 +5095,7 @@
         <v>5</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J54" s="12">
         <v>1</v>
@@ -5184,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="R54" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S54" s="12">
         <v>1</v>
@@ -5212,9 +5148,8 @@
       <c r="AB54" s="12"/>
       <c r="AC54" s="12"/>
       <c r="AD54" s="12"/>
-      <c r="AE54" s="12"/>
-    </row>
-    <row r="55" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="55" s="4" customFormat="1" spans="2:30">
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -5227,7 +5162,7 @@
         <v>6</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J55" s="12">
         <v>1</v>
@@ -5278,9 +5213,8 @@
       <c r="AB55" s="12"/>
       <c r="AC55" s="12"/>
       <c r="AD55" s="12"/>
-      <c r="AE55" s="12"/>
-    </row>
-    <row r="56" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="56" s="4" customFormat="1" spans="2:30">
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
@@ -5293,7 +5227,7 @@
         <v>6</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J56" s="12">
         <v>1</v>
@@ -5318,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="R56" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S56" s="12">
         <v>1</v>
@@ -5346,9 +5280,8 @@
       <c r="AB56" s="12"/>
       <c r="AC56" s="12"/>
       <c r="AD56" s="12"/>
-      <c r="AE56" s="12"/>
-    </row>
-    <row r="57" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="57" s="4" customFormat="1" spans="2:30">
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -5361,7 +5294,7 @@
         <v>7</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J57" s="12">
         <v>1</v>
@@ -5412,9 +5345,8 @@
       <c r="AB57" s="12"/>
       <c r="AC57" s="12"/>
       <c r="AD57" s="12"/>
-      <c r="AE57" s="12"/>
-    </row>
-    <row r="58" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="58" s="4" customFormat="1" spans="2:30">
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
@@ -5427,7 +5359,7 @@
         <v>7</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J58" s="12">
         <v>1</v>
@@ -5452,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S58" s="12">
         <v>1</v>
@@ -5480,9 +5412,8 @@
       <c r="AB58" s="12"/>
       <c r="AC58" s="12"/>
       <c r="AD58" s="12"/>
-      <c r="AE58" s="12"/>
-    </row>
-    <row r="59" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="59" s="4" customFormat="1" spans="2:30">
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -5495,7 +5426,7 @@
         <v>8</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J59" s="12">
         <v>1</v>
@@ -5546,9 +5477,8 @@
       <c r="AB59" s="12"/>
       <c r="AC59" s="12"/>
       <c r="AD59" s="12"/>
-      <c r="AE59" s="12"/>
-    </row>
-    <row r="60" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="60" s="4" customFormat="1" spans="2:30">
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -5561,7 +5491,7 @@
         <v>8</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J60" s="12">
         <v>1</v>
@@ -5586,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="R60" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S60" s="12">
         <v>1</v>
@@ -5614,9 +5544,8 @@
       <c r="AB60" s="12"/>
       <c r="AC60" s="12"/>
       <c r="AD60" s="12"/>
-      <c r="AE60" s="12"/>
-    </row>
-    <row r="61" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="61" s="4" customFormat="1" spans="2:30">
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
@@ -5629,7 +5558,7 @@
         <v>9</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J61" s="12">
         <v>1</v>
@@ -5680,9 +5609,8 @@
       <c r="AB61" s="12"/>
       <c r="AC61" s="12"/>
       <c r="AD61" s="12"/>
-      <c r="AE61" s="12"/>
-    </row>
-    <row r="62" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="62" s="4" customFormat="1" spans="2:30">
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
@@ -5695,7 +5623,7 @@
         <v>9</v>
       </c>
       <c r="I62" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J62" s="12">
         <v>1</v>
@@ -5720,7 +5648,7 @@
         <v>0</v>
       </c>
       <c r="R62" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S62" s="12">
         <v>1</v>
@@ -5748,9 +5676,8 @@
       <c r="AB62" s="12"/>
       <c r="AC62" s="12"/>
       <c r="AD62" s="12"/>
-      <c r="AE62" s="12"/>
-    </row>
-    <row r="63" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="63" s="4" customFormat="1" spans="2:30">
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
@@ -5763,7 +5690,7 @@
         <v>10</v>
       </c>
       <c r="I63" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J63" s="12">
         <v>1</v>
@@ -5814,9 +5741,8 @@
       <c r="AB63" s="12"/>
       <c r="AC63" s="12"/>
       <c r="AD63" s="12"/>
-      <c r="AE63" s="12"/>
-    </row>
-    <row r="64" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="64" s="4" customFormat="1" spans="2:30">
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
@@ -5829,7 +5755,7 @@
         <v>10</v>
       </c>
       <c r="I64" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J64" s="12">
         <v>1</v>
@@ -5854,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="R64" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S64" s="12">
         <v>1</v>
@@ -5882,9 +5808,8 @@
       <c r="AB64" s="12"/>
       <c r="AC64" s="12"/>
       <c r="AD64" s="12"/>
-      <c r="AE64" s="12"/>
-    </row>
-    <row r="65" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="65" s="4" customFormat="1" spans="2:30">
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -5897,7 +5822,7 @@
         <v>11</v>
       </c>
       <c r="I65" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J65" s="12">
         <v>1</v>
@@ -5948,9 +5873,8 @@
       <c r="AB65" s="12"/>
       <c r="AC65" s="12"/>
       <c r="AD65" s="12"/>
-      <c r="AE65" s="12"/>
-    </row>
-    <row r="66" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="66" s="4" customFormat="1" spans="2:30">
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
@@ -5963,7 +5887,7 @@
         <v>11</v>
       </c>
       <c r="I66" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J66" s="12">
         <v>1</v>
@@ -5988,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="R66" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S66" s="12">
         <v>1</v>
@@ -6016,9 +5940,8 @@
       <c r="AB66" s="12"/>
       <c r="AC66" s="12"/>
       <c r="AD66" s="12"/>
-      <c r="AE66" s="12"/>
-    </row>
-    <row r="67" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="67" s="4" customFormat="1" spans="2:30">
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -6031,7 +5954,7 @@
         <v>12</v>
       </c>
       <c r="I67" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J67" s="12">
         <v>1</v>
@@ -6082,9 +6005,8 @@
       <c r="AB67" s="12"/>
       <c r="AC67" s="12"/>
       <c r="AD67" s="12"/>
-      <c r="AE67" s="12"/>
-    </row>
-    <row r="68" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="68" s="4" customFormat="1" spans="2:30">
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
@@ -6097,7 +6019,7 @@
         <v>12</v>
       </c>
       <c r="I68" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J68" s="12">
         <v>1</v>
@@ -6122,7 +6044,7 @@
         <v>0</v>
       </c>
       <c r="R68" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S68" s="12">
         <v>1</v>
@@ -6150,9 +6072,8 @@
       <c r="AB68" s="12"/>
       <c r="AC68" s="12"/>
       <c r="AD68" s="12"/>
-      <c r="AE68" s="12"/>
-    </row>
-    <row r="69" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="69" s="4" customFormat="1" spans="2:30">
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
@@ -6165,7 +6086,7 @@
         <v>13</v>
       </c>
       <c r="I69" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J69" s="12">
         <v>1</v>
@@ -6216,9 +6137,8 @@
       <c r="AB69" s="12"/>
       <c r="AC69" s="12"/>
       <c r="AD69" s="12"/>
-      <c r="AE69" s="12"/>
-    </row>
-    <row r="70" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="70" s="4" customFormat="1" spans="2:30">
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
@@ -6231,7 +6151,7 @@
         <v>13</v>
       </c>
       <c r="I70" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J70" s="12">
         <v>1</v>
@@ -6256,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="R70" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S70" s="12">
         <v>1</v>
@@ -6284,9 +6204,8 @@
       <c r="AB70" s="12"/>
       <c r="AC70" s="12"/>
       <c r="AD70" s="12"/>
-      <c r="AE70" s="12"/>
-    </row>
-    <row r="71" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="71" s="4" customFormat="1" spans="2:30">
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
@@ -6299,7 +6218,7 @@
         <v>14</v>
       </c>
       <c r="I71" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J71" s="12">
         <v>1</v>
@@ -6350,9 +6269,8 @@
       <c r="AB71" s="12"/>
       <c r="AC71" s="12"/>
       <c r="AD71" s="12"/>
-      <c r="AE71" s="12"/>
-    </row>
-    <row r="72" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="72" s="4" customFormat="1" spans="2:30">
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
@@ -6365,7 +6283,7 @@
         <v>14</v>
       </c>
       <c r="I72" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J72" s="12">
         <v>1</v>
@@ -6390,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="R72" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S72" s="12">
         <v>1</v>
@@ -6418,9 +6336,8 @@
       <c r="AB72" s="12"/>
       <c r="AC72" s="12"/>
       <c r="AD72" s="12"/>
-      <c r="AE72" s="12"/>
-    </row>
-    <row r="73" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="73" s="4" customFormat="1" spans="2:30">
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
@@ -6433,7 +6350,7 @@
         <v>15</v>
       </c>
       <c r="I73" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J73" s="12">
         <v>1</v>
@@ -6484,9 +6401,8 @@
       <c r="AB73" s="12"/>
       <c r="AC73" s="12"/>
       <c r="AD73" s="12"/>
-      <c r="AE73" s="12"/>
-    </row>
-    <row r="74" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="74" s="4" customFormat="1" spans="2:30">
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
@@ -6499,7 +6415,7 @@
         <v>15</v>
       </c>
       <c r="I74" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J74" s="12">
         <v>1</v>
@@ -6524,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="R74" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S74" s="12">
         <v>1</v>
@@ -6552,9 +6468,8 @@
       <c r="AB74" s="12"/>
       <c r="AC74" s="12"/>
       <c r="AD74" s="12"/>
-      <c r="AE74" s="12"/>
-    </row>
-    <row r="75" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="75" s="4" customFormat="1" spans="2:30">
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
@@ -6567,7 +6482,7 @@
         <v>16</v>
       </c>
       <c r="I75" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J75" s="12">
         <v>1</v>
@@ -6618,9 +6533,8 @@
       <c r="AB75" s="12"/>
       <c r="AC75" s="12"/>
       <c r="AD75" s="12"/>
-      <c r="AE75" s="12"/>
-    </row>
-    <row r="76" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="76" s="4" customFormat="1" spans="2:30">
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
@@ -6633,7 +6547,7 @@
         <v>16</v>
       </c>
       <c r="I76" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J76" s="12">
         <v>1</v>
@@ -6658,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="R76" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S76" s="12">
         <v>1</v>
@@ -6686,9 +6600,8 @@
       <c r="AB76" s="12"/>
       <c r="AC76" s="12"/>
       <c r="AD76" s="12"/>
-      <c r="AE76" s="12"/>
-    </row>
-    <row r="77" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="77" s="4" customFormat="1" spans="2:30">
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
@@ -6701,7 +6614,7 @@
         <v>17</v>
       </c>
       <c r="I77" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J77" s="12">
         <v>1</v>
@@ -6752,9 +6665,8 @@
       <c r="AB77" s="12"/>
       <c r="AC77" s="12"/>
       <c r="AD77" s="12"/>
-      <c r="AE77" s="12"/>
-    </row>
-    <row r="78" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="78" s="4" customFormat="1" spans="2:30">
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
@@ -6767,7 +6679,7 @@
         <v>17</v>
       </c>
       <c r="I78" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J78" s="12">
         <v>1</v>
@@ -6792,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="R78" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S78" s="12">
         <v>1</v>
@@ -6820,9 +6732,8 @@
       <c r="AB78" s="12"/>
       <c r="AC78" s="12"/>
       <c r="AD78" s="12"/>
-      <c r="AE78" s="12"/>
-    </row>
-    <row r="79" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="79" s="4" customFormat="1" spans="2:30">
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
@@ -6835,7 +6746,7 @@
         <v>18</v>
       </c>
       <c r="I79" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J79" s="12">
         <v>1</v>
@@ -6886,9 +6797,8 @@
       <c r="AB79" s="12"/>
       <c r="AC79" s="12"/>
       <c r="AD79" s="12"/>
-      <c r="AE79" s="12"/>
-    </row>
-    <row r="80" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="80" s="4" customFormat="1" spans="2:30">
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
@@ -6901,7 +6811,7 @@
         <v>18</v>
       </c>
       <c r="I80" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J80" s="12">
         <v>1</v>
@@ -6926,7 +6836,7 @@
         <v>0</v>
       </c>
       <c r="R80" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S80" s="12">
         <v>1</v>
@@ -6954,9 +6864,8 @@
       <c r="AB80" s="12"/>
       <c r="AC80" s="12"/>
       <c r="AD80" s="12"/>
-      <c r="AE80" s="12"/>
-    </row>
-    <row r="81" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="81" s="4" customFormat="1" spans="2:30">
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
@@ -6969,7 +6878,7 @@
         <v>19</v>
       </c>
       <c r="I81" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J81" s="12">
         <v>1</v>
@@ -7020,9 +6929,8 @@
       <c r="AB81" s="12"/>
       <c r="AC81" s="12"/>
       <c r="AD81" s="12"/>
-      <c r="AE81" s="12"/>
-    </row>
-    <row r="82" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="82" s="4" customFormat="1" spans="2:30">
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
@@ -7035,7 +6943,7 @@
         <v>19</v>
       </c>
       <c r="I82" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J82" s="12">
         <v>1</v>
@@ -7060,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="R82" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S82" s="12">
         <v>1</v>
@@ -7088,9 +6996,8 @@
       <c r="AB82" s="12"/>
       <c r="AC82" s="12"/>
       <c r="AD82" s="12"/>
-      <c r="AE82" s="12"/>
-    </row>
-    <row r="83" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="83" s="4" customFormat="1" spans="2:30">
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
@@ -7103,7 +7010,7 @@
         <v>20</v>
       </c>
       <c r="I83" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J83" s="12">
         <v>1</v>
@@ -7154,9 +7061,8 @@
       <c r="AB83" s="12"/>
       <c r="AC83" s="12"/>
       <c r="AD83" s="12"/>
-      <c r="AE83" s="12"/>
-    </row>
-    <row r="84" s="4" customFormat="1" spans="2:31">
+    </row>
+    <row r="84" s="4" customFormat="1" spans="2:30">
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
@@ -7169,7 +7075,7 @@
         <v>20</v>
       </c>
       <c r="I84" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J84" s="12">
         <v>1</v>
@@ -7194,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="R84" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S84" s="12">
         <v>1</v>
@@ -7222,17 +7128,16 @@
       <c r="AB84" s="12"/>
       <c r="AC84" s="12"/>
       <c r="AD84" s="12"/>
-      <c r="AE84" s="12"/>
-    </row>
-    <row r="85" s="5" customFormat="1" spans="2:31">
+    </row>
+    <row r="85" s="5" customFormat="1" spans="2:30">
       <c r="B85" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E85" s="18">
         <v>1</v>
@@ -7245,7 +7150,7 @@
         <v>1</v>
       </c>
       <c r="I85" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J85" s="18">
         <v>1</v>
@@ -7296,9 +7201,8 @@
       <c r="AB85" s="18"/>
       <c r="AC85" s="18"/>
       <c r="AD85" s="18"/>
-      <c r="AE85" s="18"/>
-    </row>
-    <row r="86" s="5" customFormat="1" spans="2:31">
+    </row>
+    <row r="86" s="5" customFormat="1" spans="2:30">
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
       <c r="D86" s="18"/>
@@ -7311,7 +7215,7 @@
         <v>2</v>
       </c>
       <c r="I86" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J86" s="18">
         <v>1</v>
@@ -7362,9 +7266,8 @@
       <c r="AB86" s="18"/>
       <c r="AC86" s="18"/>
       <c r="AD86" s="18"/>
-      <c r="AE86" s="18"/>
-    </row>
-    <row r="87" s="5" customFormat="1" spans="2:31">
+    </row>
+    <row r="87" s="5" customFormat="1" spans="2:30">
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="18"/>
@@ -7377,7 +7280,7 @@
         <v>3</v>
       </c>
       <c r="I87" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J87" s="18">
         <v>1</v>
@@ -7428,9 +7331,8 @@
       <c r="AB87" s="18"/>
       <c r="AC87" s="18"/>
       <c r="AD87" s="18"/>
-      <c r="AE87" s="18"/>
-    </row>
-    <row r="88" s="5" customFormat="1" spans="2:31">
+    </row>
+    <row r="88" s="5" customFormat="1" spans="2:30">
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
       <c r="D88" s="18"/>
@@ -7443,7 +7345,7 @@
         <v>4</v>
       </c>
       <c r="I88" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J88" s="18">
         <v>1</v>
@@ -7494,9 +7396,8 @@
       <c r="AB88" s="18"/>
       <c r="AC88" s="18"/>
       <c r="AD88" s="18"/>
-      <c r="AE88" s="18"/>
-    </row>
-    <row r="89" s="5" customFormat="1" spans="2:31">
+    </row>
+    <row r="89" s="5" customFormat="1" spans="2:30">
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
       <c r="D89" s="18"/>
@@ -7509,7 +7410,7 @@
         <v>5</v>
       </c>
       <c r="I89" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J89" s="18">
         <v>1</v>
@@ -7560,9 +7461,8 @@
       <c r="AB89" s="18"/>
       <c r="AC89" s="18"/>
       <c r="AD89" s="18"/>
-      <c r="AE89" s="18"/>
-    </row>
-    <row r="90" s="5" customFormat="1" spans="2:31">
+    </row>
+    <row r="90" s="5" customFormat="1" spans="2:30">
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
       <c r="D90" s="18"/>
@@ -7575,7 +7475,7 @@
         <v>6</v>
       </c>
       <c r="I90" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J90" s="18">
         <v>1</v>
@@ -7626,9 +7526,8 @@
       <c r="AB90" s="18"/>
       <c r="AC90" s="18"/>
       <c r="AD90" s="18"/>
-      <c r="AE90" s="18"/>
-    </row>
-    <row r="91" s="5" customFormat="1" spans="2:31">
+    </row>
+    <row r="91" s="5" customFormat="1" spans="2:30">
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
       <c r="D91" s="18"/>
@@ -7641,7 +7540,7 @@
         <v>7</v>
       </c>
       <c r="I91" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J91" s="18">
         <v>1</v>
@@ -7692,9 +7591,8 @@
       <c r="AB91" s="18"/>
       <c r="AC91" s="18"/>
       <c r="AD91" s="18"/>
-      <c r="AE91" s="18"/>
-    </row>
-    <row r="92" s="5" customFormat="1" spans="2:31">
+    </row>
+    <row r="92" s="5" customFormat="1" spans="2:30">
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
       <c r="D92" s="18"/>
@@ -7707,7 +7605,7 @@
         <v>8</v>
       </c>
       <c r="I92" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J92" s="18">
         <v>1</v>
@@ -7758,9 +7656,8 @@
       <c r="AB92" s="18"/>
       <c r="AC92" s="18"/>
       <c r="AD92" s="18"/>
-      <c r="AE92" s="18"/>
-    </row>
-    <row r="93" s="5" customFormat="1" spans="2:31">
+    </row>
+    <row r="93" s="5" customFormat="1" spans="2:30">
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
       <c r="D93" s="18"/>
@@ -7773,7 +7670,7 @@
         <v>9</v>
       </c>
       <c r="I93" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J93" s="18">
         <v>1</v>
@@ -7824,9 +7721,8 @@
       <c r="AB93" s="18"/>
       <c r="AC93" s="18"/>
       <c r="AD93" s="18"/>
-      <c r="AE93" s="18"/>
-    </row>
-    <row r="94" s="5" customFormat="1" spans="2:31">
+    </row>
+    <row r="94" s="5" customFormat="1" spans="2:30">
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
       <c r="D94" s="18"/>
@@ -7839,7 +7735,7 @@
         <v>10</v>
       </c>
       <c r="I94" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J94" s="18">
         <v>1</v>
@@ -7890,9 +7786,8 @@
       <c r="AB94" s="18"/>
       <c r="AC94" s="18"/>
       <c r="AD94" s="18"/>
-      <c r="AE94" s="18"/>
-    </row>
-    <row r="95" s="5" customFormat="1" spans="2:31">
+    </row>
+    <row r="95" s="5" customFormat="1" spans="2:30">
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
       <c r="D95" s="18"/>
@@ -7905,7 +7800,7 @@
         <v>1</v>
       </c>
       <c r="I95" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J95" s="18">
         <v>1</v>
@@ -7956,9 +7851,8 @@
       <c r="AB95" s="18"/>
       <c r="AC95" s="18"/>
       <c r="AD95" s="18"/>
-      <c r="AE95" s="18"/>
-    </row>
-    <row r="96" s="5" customFormat="1" spans="2:31">
+    </row>
+    <row r="96" s="5" customFormat="1" spans="2:30">
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
       <c r="D96" s="18"/>
@@ -7971,7 +7865,7 @@
         <v>2</v>
       </c>
       <c r="I96" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J96" s="18">
         <v>1</v>
@@ -8022,9 +7916,8 @@
       <c r="AB96" s="18"/>
       <c r="AC96" s="18"/>
       <c r="AD96" s="18"/>
-      <c r="AE96" s="18"/>
-    </row>
-    <row r="97" s="5" customFormat="1" spans="2:31">
+    </row>
+    <row r="97" s="5" customFormat="1" spans="2:30">
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
       <c r="D97" s="18"/>
@@ -8037,7 +7930,7 @@
         <v>3</v>
       </c>
       <c r="I97" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J97" s="18">
         <v>1</v>
@@ -8088,9 +7981,8 @@
       <c r="AB97" s="18"/>
       <c r="AC97" s="18"/>
       <c r="AD97" s="18"/>
-      <c r="AE97" s="18"/>
-    </row>
-    <row r="98" s="5" customFormat="1" spans="2:31">
+    </row>
+    <row r="98" s="5" customFormat="1" spans="2:30">
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
       <c r="D98" s="18"/>
@@ -8103,7 +7995,7 @@
         <v>4</v>
       </c>
       <c r="I98" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J98" s="18">
         <v>1</v>
@@ -8154,9 +8046,8 @@
       <c r="AB98" s="18"/>
       <c r="AC98" s="18"/>
       <c r="AD98" s="18"/>
-      <c r="AE98" s="18"/>
-    </row>
-    <row r="99" s="5" customFormat="1" spans="2:31">
+    </row>
+    <row r="99" s="5" customFormat="1" spans="2:30">
       <c r="B99" s="18"/>
       <c r="C99" s="18"/>
       <c r="D99" s="18"/>
@@ -8169,7 +8060,7 @@
         <v>5</v>
       </c>
       <c r="I99" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J99" s="18">
         <v>1</v>
@@ -8220,9 +8111,8 @@
       <c r="AB99" s="18"/>
       <c r="AC99" s="18"/>
       <c r="AD99" s="18"/>
-      <c r="AE99" s="18"/>
-    </row>
-    <row r="100" s="5" customFormat="1" spans="2:31">
+    </row>
+    <row r="100" s="5" customFormat="1" spans="2:30">
       <c r="B100" s="18"/>
       <c r="C100" s="18"/>
       <c r="D100" s="18"/>
@@ -8235,7 +8125,7 @@
         <v>6</v>
       </c>
       <c r="I100" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J100" s="18">
         <v>1</v>
@@ -8286,9 +8176,8 @@
       <c r="AB100" s="18"/>
       <c r="AC100" s="18"/>
       <c r="AD100" s="18"/>
-      <c r="AE100" s="18"/>
-    </row>
-    <row r="101" s="5" customFormat="1" spans="2:31">
+    </row>
+    <row r="101" s="5" customFormat="1" spans="2:30">
       <c r="B101" s="18"/>
       <c r="C101" s="18"/>
       <c r="D101" s="18"/>
@@ -8301,7 +8190,7 @@
         <v>7</v>
       </c>
       <c r="I101" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J101" s="18">
         <v>1</v>
@@ -8352,9 +8241,8 @@
       <c r="AB101" s="18"/>
       <c r="AC101" s="18"/>
       <c r="AD101" s="18"/>
-      <c r="AE101" s="18"/>
-    </row>
-    <row r="102" s="5" customFormat="1" spans="2:31">
+    </row>
+    <row r="102" s="5" customFormat="1" spans="2:30">
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
       <c r="D102" s="18"/>
@@ -8367,7 +8255,7 @@
         <v>8</v>
       </c>
       <c r="I102" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J102" s="18">
         <v>1</v>
@@ -8418,9 +8306,8 @@
       <c r="AB102" s="18"/>
       <c r="AC102" s="18"/>
       <c r="AD102" s="18"/>
-      <c r="AE102" s="18"/>
-    </row>
-    <row r="103" s="5" customFormat="1" spans="2:31">
+    </row>
+    <row r="103" s="5" customFormat="1" spans="2:30">
       <c r="B103" s="18"/>
       <c r="C103" s="18"/>
       <c r="D103" s="18"/>
@@ -8433,7 +8320,7 @@
         <v>9</v>
       </c>
       <c r="I103" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J103" s="18">
         <v>1</v>
@@ -8484,9 +8371,8 @@
       <c r="AB103" s="18"/>
       <c r="AC103" s="18"/>
       <c r="AD103" s="18"/>
-      <c r="AE103" s="18"/>
-    </row>
-    <row r="104" s="5" customFormat="1" spans="2:31">
+    </row>
+    <row r="104" s="5" customFormat="1" spans="2:30">
       <c r="B104" s="18"/>
       <c r="C104" s="18"/>
       <c r="D104" s="18"/>
@@ -8499,7 +8385,7 @@
         <v>10</v>
       </c>
       <c r="I104" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J104" s="18">
         <v>1</v>
@@ -8550,17 +8436,16 @@
       <c r="AB104" s="18"/>
       <c r="AC104" s="18"/>
       <c r="AD104" s="18"/>
-      <c r="AE104" s="18"/>
-    </row>
-    <row r="105" s="6" customFormat="1" spans="2:31">
+    </row>
+    <row r="105" s="6" customFormat="1" spans="2:30">
       <c r="B105" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E105" s="19">
         <v>1</v>
@@ -8573,7 +8458,7 @@
         <v>1</v>
       </c>
       <c r="I105" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J105" s="19">
         <v>1</v>
@@ -8624,9 +8509,8 @@
       <c r="AB105" s="19"/>
       <c r="AC105" s="19"/>
       <c r="AD105" s="19"/>
-      <c r="AE105" s="19"/>
-    </row>
-    <row r="106" s="6" customFormat="1" spans="2:31">
+    </row>
+    <row r="106" s="6" customFormat="1" spans="2:30">
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
       <c r="D106" s="19"/>
@@ -8639,7 +8523,7 @@
         <v>2</v>
       </c>
       <c r="I106" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J106" s="19">
         <v>1</v>
@@ -8690,9 +8574,8 @@
       <c r="AB106" s="19"/>
       <c r="AC106" s="19"/>
       <c r="AD106" s="19"/>
-      <c r="AE106" s="19"/>
-    </row>
-    <row r="107" s="6" customFormat="1" spans="2:31">
+    </row>
+    <row r="107" s="6" customFormat="1" spans="2:30">
       <c r="B107" s="19"/>
       <c r="C107" s="19"/>
       <c r="D107" s="19"/>
@@ -8705,7 +8588,7 @@
         <v>3</v>
       </c>
       <c r="I107" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J107" s="19">
         <v>1</v>
@@ -8756,9 +8639,8 @@
       <c r="AB107" s="19"/>
       <c r="AC107" s="19"/>
       <c r="AD107" s="19"/>
-      <c r="AE107" s="19"/>
-    </row>
-    <row r="108" s="6" customFormat="1" spans="2:31">
+    </row>
+    <row r="108" s="6" customFormat="1" spans="2:30">
       <c r="B108" s="19"/>
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
@@ -8771,7 +8653,7 @@
         <v>4</v>
       </c>
       <c r="I108" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J108" s="19">
         <v>1</v>
@@ -8822,9 +8704,8 @@
       <c r="AB108" s="19"/>
       <c r="AC108" s="19"/>
       <c r="AD108" s="19"/>
-      <c r="AE108" s="19"/>
-    </row>
-    <row r="109" s="6" customFormat="1" spans="2:31">
+    </row>
+    <row r="109" s="6" customFormat="1" spans="2:30">
       <c r="B109" s="19"/>
       <c r="C109" s="19"/>
       <c r="D109" s="19"/>
@@ -8837,7 +8718,7 @@
         <v>5</v>
       </c>
       <c r="I109" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J109" s="19">
         <v>1</v>
@@ -8888,9 +8769,8 @@
       <c r="AB109" s="19"/>
       <c r="AC109" s="19"/>
       <c r="AD109" s="19"/>
-      <c r="AE109" s="19"/>
-    </row>
-    <row r="110" s="6" customFormat="1" spans="2:31">
+    </row>
+    <row r="110" s="6" customFormat="1" spans="2:30">
       <c r="B110" s="19"/>
       <c r="C110" s="19"/>
       <c r="D110" s="19"/>
@@ -8903,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="I110" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J110" s="19">
         <v>1</v>
@@ -8954,9 +8834,8 @@
       <c r="AB110" s="19"/>
       <c r="AC110" s="19"/>
       <c r="AD110" s="19"/>
-      <c r="AE110" s="19"/>
-    </row>
-    <row r="111" s="6" customFormat="1" spans="2:31">
+    </row>
+    <row r="111" s="6" customFormat="1" spans="2:30">
       <c r="B111" s="19"/>
       <c r="C111" s="19"/>
       <c r="D111" s="19"/>
@@ -8969,7 +8848,7 @@
         <v>7</v>
       </c>
       <c r="I111" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J111" s="19">
         <v>1</v>
@@ -9020,9 +8899,8 @@
       <c r="AB111" s="19"/>
       <c r="AC111" s="19"/>
       <c r="AD111" s="19"/>
-      <c r="AE111" s="19"/>
-    </row>
-    <row r="112" s="6" customFormat="1" spans="2:31">
+    </row>
+    <row r="112" s="6" customFormat="1" spans="2:30">
       <c r="B112" s="19"/>
       <c r="C112" s="19"/>
       <c r="D112" s="19"/>
@@ -9035,7 +8913,7 @@
         <v>8</v>
       </c>
       <c r="I112" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J112" s="19">
         <v>1</v>
@@ -9086,9 +8964,8 @@
       <c r="AB112" s="19"/>
       <c r="AC112" s="19"/>
       <c r="AD112" s="19"/>
-      <c r="AE112" s="19"/>
-    </row>
-    <row r="113" s="6" customFormat="1" spans="2:31">
+    </row>
+    <row r="113" s="6" customFormat="1" spans="2:30">
       <c r="B113" s="19"/>
       <c r="C113" s="19"/>
       <c r="D113" s="19"/>
@@ -9101,7 +8978,7 @@
         <v>9</v>
       </c>
       <c r="I113" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J113" s="19">
         <v>1</v>
@@ -9152,9 +9029,8 @@
       <c r="AB113" s="19"/>
       <c r="AC113" s="19"/>
       <c r="AD113" s="19"/>
-      <c r="AE113" s="19"/>
-    </row>
-    <row r="114" s="6" customFormat="1" spans="2:31">
+    </row>
+    <row r="114" s="6" customFormat="1" spans="2:30">
       <c r="B114" s="19"/>
       <c r="C114" s="19"/>
       <c r="D114" s="19"/>
@@ -9167,7 +9043,7 @@
         <v>10</v>
       </c>
       <c r="I114" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J114" s="19">
         <v>1</v>
@@ -9218,9 +9094,8 @@
       <c r="AB114" s="19"/>
       <c r="AC114" s="19"/>
       <c r="AD114" s="19"/>
-      <c r="AE114" s="19"/>
-    </row>
-    <row r="115" s="6" customFormat="1" spans="2:31">
+    </row>
+    <row r="115" s="6" customFormat="1" spans="2:30">
       <c r="B115" s="19"/>
       <c r="C115" s="19"/>
       <c r="D115" s="19"/>
@@ -9233,7 +9108,7 @@
         <v>1</v>
       </c>
       <c r="I115" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J115" s="19">
         <v>1</v>
@@ -9284,9 +9159,8 @@
       <c r="AB115" s="19"/>
       <c r="AC115" s="19"/>
       <c r="AD115" s="19"/>
-      <c r="AE115" s="19"/>
-    </row>
-    <row r="116" s="6" customFormat="1" spans="2:31">
+    </row>
+    <row r="116" s="6" customFormat="1" spans="2:30">
       <c r="B116" s="19"/>
       <c r="C116" s="19"/>
       <c r="D116" s="19"/>
@@ -9299,7 +9173,7 @@
         <v>2</v>
       </c>
       <c r="I116" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J116" s="19">
         <v>1</v>
@@ -9350,9 +9224,8 @@
       <c r="AB116" s="19"/>
       <c r="AC116" s="19"/>
       <c r="AD116" s="19"/>
-      <c r="AE116" s="19"/>
-    </row>
-    <row r="117" s="6" customFormat="1" spans="2:31">
+    </row>
+    <row r="117" s="6" customFormat="1" spans="2:30">
       <c r="B117" s="19"/>
       <c r="C117" s="19"/>
       <c r="D117" s="19"/>
@@ -9365,7 +9238,7 @@
         <v>3</v>
       </c>
       <c r="I117" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J117" s="19">
         <v>1</v>
@@ -9416,9 +9289,8 @@
       <c r="AB117" s="19"/>
       <c r="AC117" s="19"/>
       <c r="AD117" s="19"/>
-      <c r="AE117" s="19"/>
-    </row>
-    <row r="118" s="6" customFormat="1" spans="2:31">
+    </row>
+    <row r="118" s="6" customFormat="1" spans="2:30">
       <c r="B118" s="19"/>
       <c r="C118" s="19"/>
       <c r="D118" s="19"/>
@@ -9431,7 +9303,7 @@
         <v>4</v>
       </c>
       <c r="I118" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J118" s="19">
         <v>1</v>
@@ -9482,9 +9354,8 @@
       <c r="AB118" s="19"/>
       <c r="AC118" s="19"/>
       <c r="AD118" s="19"/>
-      <c r="AE118" s="19"/>
-    </row>
-    <row r="119" s="6" customFormat="1" spans="2:31">
+    </row>
+    <row r="119" s="6" customFormat="1" spans="2:30">
       <c r="B119" s="19"/>
       <c r="C119" s="19"/>
       <c r="D119" s="19"/>
@@ -9497,7 +9368,7 @@
         <v>5</v>
       </c>
       <c r="I119" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J119" s="19">
         <v>1</v>
@@ -9548,9 +9419,8 @@
       <c r="AB119" s="19"/>
       <c r="AC119" s="19"/>
       <c r="AD119" s="19"/>
-      <c r="AE119" s="19"/>
-    </row>
-    <row r="120" s="6" customFormat="1" spans="2:31">
+    </row>
+    <row r="120" s="6" customFormat="1" spans="2:30">
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
       <c r="D120" s="19"/>
@@ -9563,7 +9433,7 @@
         <v>6</v>
       </c>
       <c r="I120" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J120" s="19">
         <v>1</v>
@@ -9614,9 +9484,8 @@
       <c r="AB120" s="19"/>
       <c r="AC120" s="19"/>
       <c r="AD120" s="19"/>
-      <c r="AE120" s="19"/>
-    </row>
-    <row r="121" s="6" customFormat="1" spans="2:31">
+    </row>
+    <row r="121" s="6" customFormat="1" spans="2:30">
       <c r="B121" s="19"/>
       <c r="C121" s="19"/>
       <c r="D121" s="19"/>
@@ -9629,7 +9498,7 @@
         <v>7</v>
       </c>
       <c r="I121" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J121" s="19">
         <v>1</v>
@@ -9680,9 +9549,8 @@
       <c r="AB121" s="19"/>
       <c r="AC121" s="19"/>
       <c r="AD121" s="19"/>
-      <c r="AE121" s="19"/>
-    </row>
-    <row r="122" s="6" customFormat="1" spans="2:31">
+    </row>
+    <row r="122" s="6" customFormat="1" spans="2:30">
       <c r="B122" s="19"/>
       <c r="C122" s="19"/>
       <c r="D122" s="19"/>
@@ -9695,7 +9563,7 @@
         <v>8</v>
       </c>
       <c r="I122" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J122" s="19">
         <v>1</v>
@@ -9746,9 +9614,8 @@
       <c r="AB122" s="19"/>
       <c r="AC122" s="19"/>
       <c r="AD122" s="19"/>
-      <c r="AE122" s="19"/>
-    </row>
-    <row r="123" s="6" customFormat="1" spans="2:31">
+    </row>
+    <row r="123" s="6" customFormat="1" spans="2:30">
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
       <c r="D123" s="19"/>
@@ -9761,7 +9628,7 @@
         <v>9</v>
       </c>
       <c r="I123" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J123" s="19">
         <v>1</v>
@@ -9812,9 +9679,8 @@
       <c r="AB123" s="19"/>
       <c r="AC123" s="19"/>
       <c r="AD123" s="19"/>
-      <c r="AE123" s="19"/>
-    </row>
-    <row r="124" s="6" customFormat="1" spans="2:31">
+    </row>
+    <row r="124" s="6" customFormat="1" spans="2:30">
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
@@ -9827,7 +9693,7 @@
         <v>10</v>
       </c>
       <c r="I124" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J124" s="19">
         <v>1</v>
@@ -9878,7 +9744,6 @@
       <c r="AB124" s="19"/>
       <c r="AC124" s="19"/>
       <c r="AD124" s="19"/>
-      <c r="AE124" s="19"/>
     </row>
     <row r="125" s="3" customFormat="1" spans="3:18">
       <c r="C125" s="2"/>
@@ -10269,8 +10134,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G1:AE1"/>
-    <mergeCell ref="G2:AE2"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="G2:AD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
